--- a/test_uploads/new_test_data_multipage.xlsx
+++ b/test_uploads/new_test_data_multipage.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
   <si>
     <t>fishing entity</t>
   </si>
@@ -35,10 +35,7 @@
     <t>province state</t>
   </si>
   <si>
-    <t>ICES division</t>
-  </si>
-  <si>
-    <t>ICES subdivision</t>
+    <t>ICES area</t>
   </si>
   <si>
     <t>NAFO division</t>
@@ -1528,7 +1525,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB37"/>
+  <dimension ref="A1:AA37"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1561,8 +1558,7 @@
     <col min="25" max="25" width="9.125" style="1" customWidth="1"/>
     <col min="26" max="26" width="9.125" style="1" customWidth="1"/>
     <col min="27" max="27" width="9.125" style="1" customWidth="1"/>
-    <col min="28" max="28" width="9.125" style="1" customWidth="1"/>
-    <col min="29" max="256" width="9" style="1" customWidth="1"/>
+    <col min="28" max="256" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
@@ -1644,11 +1640,8 @@
       <c r="Z1" t="s" s="3">
         <v>25</v>
       </c>
-      <c r="AA1" t="s" s="3">
+      <c r="AA1" t="s" s="4">
         <v>26</v>
-      </c>
-      <c r="AB1" t="s" s="4">
-        <v>27</v>
       </c>
     </row>
     <row r="2" ht="20.15" customHeight="1">
@@ -1668,9 +1661,11 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="5">
+      <c r="K2" s="5">
         <v>2</v>
+      </c>
+      <c r="L2" t="s" s="5">
+        <v>27</v>
       </c>
       <c r="M2" t="s" s="5">
         <v>28</v>
@@ -1678,33 +1673,30 @@
       <c r="N2" t="s" s="5">
         <v>29</v>
       </c>
-      <c r="O2" t="s" s="5">
+      <c r="O2" s="5">
+        <v>1951</v>
+      </c>
+      <c r="P2" t="s" s="5">
         <v>30</v>
       </c>
-      <c r="P2" s="5">
-        <v>1951</v>
-      </c>
-      <c r="Q2" t="s" s="5">
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="5">
+        <v>12.8212595279804</v>
+      </c>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" t="s" s="5">
         <v>31</v>
       </c>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="5">
-        <v>12.8212595279804</v>
-      </c>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" t="s" s="5">
-        <v>32</v>
-      </c>
+      <c r="W2" s="6"/>
       <c r="X2" s="6"/>
       <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="5">
+      <c r="Z2" s="5">
         <v>167</v>
       </c>
-      <c r="AB2" t="s" s="5">
-        <v>33</v>
+      <c r="AA2" t="s" s="5">
+        <v>32</v>
       </c>
     </row>
     <row r="3" ht="20.35" customHeight="1">
@@ -1724,9 +1716,11 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="7">
+      <c r="K3" s="7">
         <v>2</v>
+      </c>
+      <c r="L3" t="s" s="7">
+        <v>27</v>
       </c>
       <c r="M3" t="s" s="7">
         <v>28</v>
@@ -1734,33 +1728,30 @@
       <c r="N3" t="s" s="7">
         <v>29</v>
       </c>
-      <c r="O3" t="s" s="7">
+      <c r="O3" s="7">
+        <v>1951</v>
+      </c>
+      <c r="P3" t="s" s="7">
         <v>30</v>
       </c>
-      <c r="P3" s="7">
-        <v>1951</v>
-      </c>
-      <c r="Q3" t="s" s="7">
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="7">
+        <v>7.23909255914716</v>
+      </c>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" t="s" s="7">
         <v>31</v>
       </c>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="7">
-        <v>7.23909255914716</v>
-      </c>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" t="s" s="7">
-        <v>32</v>
-      </c>
+      <c r="W3" s="8"/>
       <c r="X3" s="8"/>
       <c r="Y3" s="8"/>
-      <c r="Z3" s="8"/>
-      <c r="AA3" s="7">
+      <c r="Z3" s="7">
         <v>167</v>
       </c>
-      <c r="AB3" t="s" s="7">
-        <v>34</v>
+      <c r="AA3" t="s" s="7">
+        <v>33</v>
       </c>
     </row>
     <row r="4" ht="20.35" customHeight="1">
@@ -1780,9 +1771,11 @@
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="7">
+      <c r="K4" s="7">
         <v>2</v>
+      </c>
+      <c r="L4" t="s" s="7">
+        <v>27</v>
       </c>
       <c r="M4" t="s" s="7">
         <v>28</v>
@@ -1790,33 +1783,30 @@
       <c r="N4" t="s" s="7">
         <v>29</v>
       </c>
-      <c r="O4" t="s" s="7">
+      <c r="O4" s="7">
+        <v>1952</v>
+      </c>
+      <c r="P4" t="s" s="7">
         <v>30</v>
       </c>
-      <c r="P4" s="7">
-        <v>1952</v>
-      </c>
-      <c r="Q4" t="s" s="7">
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="7">
+        <v>51.140148484989</v>
+      </c>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" t="s" s="7">
         <v>31</v>
       </c>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="7">
-        <v>51.140148484989</v>
-      </c>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" t="s" s="7">
-        <v>32</v>
-      </c>
+      <c r="W4" s="8"/>
       <c r="X4" s="8"/>
       <c r="Y4" s="8"/>
-      <c r="Z4" s="8"/>
-      <c r="AA4" s="7">
+      <c r="Z4" s="7">
         <v>167</v>
       </c>
-      <c r="AB4" t="s" s="7">
-        <v>33</v>
+      <c r="AA4" t="s" s="7">
+        <v>32</v>
       </c>
     </row>
     <row r="5" ht="20.35" customHeight="1">
@@ -1836,9 +1826,11 @@
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="7">
+      <c r="K5" s="7">
         <v>2</v>
+      </c>
+      <c r="L5" t="s" s="7">
+        <v>27</v>
       </c>
       <c r="M5" t="s" s="7">
         <v>28</v>
@@ -1846,33 +1838,30 @@
       <c r="N5" t="s" s="7">
         <v>29</v>
       </c>
-      <c r="O5" t="s" s="7">
+      <c r="O5" s="7">
+        <v>1952</v>
+      </c>
+      <c r="P5" t="s" s="7">
         <v>30</v>
       </c>
-      <c r="P5" s="7">
-        <v>1952</v>
-      </c>
-      <c r="Q5" t="s" s="7">
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="7">
+        <v>14.4781851182943</v>
+      </c>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" t="s" s="7">
         <v>31</v>
       </c>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="7">
-        <v>14.4781851182943</v>
-      </c>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="W5" t="s" s="7">
-        <v>32</v>
-      </c>
+      <c r="W5" s="8"/>
       <c r="X5" s="8"/>
       <c r="Y5" s="8"/>
-      <c r="Z5" s="8"/>
-      <c r="AA5" s="7">
+      <c r="Z5" s="7">
         <v>167</v>
       </c>
-      <c r="AB5" t="s" s="7">
-        <v>34</v>
+      <c r="AA5" t="s" s="7">
+        <v>33</v>
       </c>
     </row>
     <row r="6" ht="20.35" customHeight="1">
@@ -1892,9 +1881,11 @@
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="7">
+      <c r="K6" s="7">
         <v>2</v>
+      </c>
+      <c r="L6" t="s" s="7">
+        <v>27</v>
       </c>
       <c r="M6" t="s" s="7">
         <v>28</v>
@@ -1902,33 +1893,30 @@
       <c r="N6" t="s" s="7">
         <v>29</v>
       </c>
-      <c r="O6" t="s" s="7">
+      <c r="O6" s="7">
+        <v>1953</v>
+      </c>
+      <c r="P6" t="s" s="7">
         <v>30</v>
       </c>
-      <c r="P6" s="7">
-        <v>1953</v>
-      </c>
-      <c r="Q6" t="s" s="7">
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="7">
+        <v>114.736682010622</v>
+      </c>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" t="s" s="7">
         <v>31</v>
       </c>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="7">
-        <v>114.736682010622</v>
-      </c>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" t="s" s="7">
-        <v>32</v>
-      </c>
+      <c r="W6" s="8"/>
       <c r="X6" s="8"/>
       <c r="Y6" s="8"/>
-      <c r="Z6" s="8"/>
-      <c r="AA6" s="7">
+      <c r="Z6" s="7">
         <v>167</v>
       </c>
-      <c r="AB6" t="s" s="7">
-        <v>33</v>
+      <c r="AA6" t="s" s="7">
+        <v>32</v>
       </c>
     </row>
     <row r="7" ht="20.35" customHeight="1">
@@ -1948,9 +1936,11 @@
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="7">
+      <c r="K7" s="7">
         <v>2</v>
+      </c>
+      <c r="L7" t="s" s="7">
+        <v>27</v>
       </c>
       <c r="M7" t="s" s="7">
         <v>28</v>
@@ -1958,33 +1948,30 @@
       <c r="N7" t="s" s="7">
         <v>29</v>
       </c>
-      <c r="O7" t="s" s="7">
+      <c r="O7" s="7">
+        <v>1953</v>
+      </c>
+      <c r="P7" t="s" s="7">
         <v>30</v>
       </c>
-      <c r="P7" s="7">
-        <v>1953</v>
-      </c>
-      <c r="Q7" t="s" s="7">
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="7">
+        <v>21.7172776774415</v>
+      </c>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" t="s" s="7">
         <v>31</v>
       </c>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="7">
-        <v>21.7172776774415</v>
-      </c>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="W7" t="s" s="7">
-        <v>32</v>
-      </c>
+      <c r="W7" s="8"/>
       <c r="X7" s="8"/>
       <c r="Y7" s="8"/>
-      <c r="Z7" s="8"/>
-      <c r="AA7" s="7">
+      <c r="Z7" s="7">
         <v>167</v>
       </c>
-      <c r="AB7" t="s" s="7">
-        <v>34</v>
+      <c r="AA7" t="s" s="7">
+        <v>33</v>
       </c>
     </row>
     <row r="8" ht="20.35" customHeight="1">
@@ -2004,9 +1991,11 @@
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="7">
+      <c r="K8" s="7">
         <v>2</v>
+      </c>
+      <c r="L8" t="s" s="7">
+        <v>27</v>
       </c>
       <c r="M8" t="s" s="7">
         <v>28</v>
@@ -2014,33 +2003,30 @@
       <c r="N8" t="s" s="7">
         <v>29</v>
       </c>
-      <c r="O8" t="s" s="7">
+      <c r="O8" s="7">
+        <v>1954</v>
+      </c>
+      <c r="P8" t="s" s="7">
         <v>30</v>
       </c>
-      <c r="P8" s="7">
-        <v>1954</v>
-      </c>
-      <c r="Q8" t="s" s="7">
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="7">
+        <v>203.387341351136</v>
+      </c>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" t="s" s="7">
         <v>31</v>
       </c>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="7">
-        <v>203.387341351136</v>
-      </c>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" t="s" s="7">
-        <v>32</v>
-      </c>
+      <c r="W8" s="8"/>
       <c r="X8" s="8"/>
       <c r="Y8" s="8"/>
-      <c r="Z8" s="8"/>
-      <c r="AA8" s="7">
+      <c r="Z8" s="7">
         <v>167</v>
       </c>
-      <c r="AB8" t="s" s="7">
-        <v>33</v>
+      <c r="AA8" t="s" s="7">
+        <v>32</v>
       </c>
     </row>
     <row r="9" ht="23.35" customHeight="1">
@@ -2060,9 +2046,11 @@
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="7">
+      <c r="K9" s="7">
         <v>2</v>
+      </c>
+      <c r="L9" t="s" s="7">
+        <v>27</v>
       </c>
       <c r="M9" t="s" s="7">
         <v>28</v>
@@ -2070,33 +2058,30 @@
       <c r="N9" t="s" s="7">
         <v>29</v>
       </c>
-      <c r="O9" t="s" s="7">
+      <c r="O9" s="7">
+        <v>1954</v>
+      </c>
+      <c r="P9" t="s" s="7">
         <v>30</v>
       </c>
-      <c r="P9" s="7">
-        <v>1954</v>
-      </c>
-      <c r="Q9" t="s" s="7">
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="7">
+        <v>28.9563702365887</v>
+      </c>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" t="s" s="7">
         <v>31</v>
       </c>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="7">
-        <v>28.9563702365887</v>
-      </c>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" t="s" s="7">
-        <v>32</v>
-      </c>
+      <c r="W9" s="8"/>
       <c r="X9" s="8"/>
       <c r="Y9" s="8"/>
-      <c r="Z9" s="8"/>
-      <c r="AA9" s="7">
+      <c r="Z9" s="7">
         <v>167</v>
       </c>
-      <c r="AB9" t="s" s="7">
-        <v>34</v>
+      <c r="AA9" t="s" s="7">
+        <v>33</v>
       </c>
     </row>
     <row r="10" ht="20.35" customHeight="1">
@@ -2116,9 +2101,11 @@
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="7">
+      <c r="K10" s="7">
         <v>2</v>
+      </c>
+      <c r="L10" t="s" s="7">
+        <v>27</v>
       </c>
       <c r="M10" t="s" s="7">
         <v>28</v>
@@ -2126,33 +2113,30 @@
       <c r="N10" t="s" s="7">
         <v>29</v>
       </c>
-      <c r="O10" t="s" s="7">
+      <c r="O10" s="7">
+        <v>1955</v>
+      </c>
+      <c r="P10" t="s" s="7">
         <v>30</v>
       </c>
-      <c r="P10" s="7">
-        <v>1955</v>
-      </c>
-      <c r="Q10" t="s" s="7">
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="7">
+        <v>316.865073859446</v>
+      </c>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" t="s" s="7">
         <v>31</v>
       </c>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="7">
-        <v>316.865073859446</v>
-      </c>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="W10" t="s" s="7">
-        <v>32</v>
-      </c>
+      <c r="W10" s="8"/>
       <c r="X10" s="8"/>
       <c r="Y10" s="8"/>
-      <c r="Z10" s="8"/>
-      <c r="AA10" s="7">
+      <c r="Z10" s="7">
         <v>167</v>
       </c>
-      <c r="AB10" t="s" s="7">
-        <v>33</v>
+      <c r="AA10" t="s" s="7">
+        <v>32</v>
       </c>
     </row>
     <row r="11" ht="20.35" customHeight="1">
@@ -2172,9 +2156,11 @@
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="7">
+      <c r="K11" s="7">
         <v>2</v>
+      </c>
+      <c r="L11" t="s" s="7">
+        <v>27</v>
       </c>
       <c r="M11" t="s" s="7">
         <v>28</v>
@@ -2182,33 +2168,30 @@
       <c r="N11" t="s" s="7">
         <v>29</v>
       </c>
-      <c r="O11" t="s" s="7">
+      <c r="O11" s="7">
+        <v>1951</v>
+      </c>
+      <c r="P11" t="s" s="7">
         <v>30</v>
       </c>
-      <c r="P11" s="7">
-        <v>1951</v>
-      </c>
-      <c r="Q11" t="s" s="7">
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="7">
+        <v>12.8212595279804</v>
+      </c>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" t="s" s="7">
         <v>31</v>
       </c>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="7">
-        <v>12.8212595279804</v>
-      </c>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
-      <c r="W11" t="s" s="7">
-        <v>32</v>
-      </c>
+      <c r="W11" s="8"/>
       <c r="X11" s="8"/>
       <c r="Y11" s="8"/>
-      <c r="Z11" s="8"/>
-      <c r="AA11" s="7">
+      <c r="Z11" s="7">
         <v>167</v>
       </c>
-      <c r="AB11" t="s" s="7">
-        <v>33</v>
+      <c r="AA11" t="s" s="7">
+        <v>32</v>
       </c>
     </row>
     <row r="12" ht="20.35" customHeight="1">
@@ -2228,9 +2211,11 @@
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="7">
+      <c r="K12" s="7">
         <v>2</v>
+      </c>
+      <c r="L12" t="s" s="7">
+        <v>27</v>
       </c>
       <c r="M12" t="s" s="7">
         <v>28</v>
@@ -2238,33 +2223,30 @@
       <c r="N12" t="s" s="7">
         <v>29</v>
       </c>
-      <c r="O12" t="s" s="7">
+      <c r="O12" s="7">
+        <v>1951</v>
+      </c>
+      <c r="P12" t="s" s="7">
         <v>30</v>
       </c>
-      <c r="P12" s="7">
-        <v>1951</v>
-      </c>
-      <c r="Q12" t="s" s="7">
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="7">
+        <v>7.23909255914716</v>
+      </c>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" t="s" s="7">
         <v>31</v>
       </c>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="7">
-        <v>7.23909255914716</v>
-      </c>
-      <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
-      <c r="W12" t="s" s="7">
-        <v>32</v>
-      </c>
+      <c r="W12" s="8"/>
       <c r="X12" s="8"/>
       <c r="Y12" s="8"/>
-      <c r="Z12" s="8"/>
-      <c r="AA12" s="7">
+      <c r="Z12" s="7">
         <v>167</v>
       </c>
-      <c r="AB12" t="s" s="7">
-        <v>34</v>
+      <c r="AA12" t="s" s="7">
+        <v>33</v>
       </c>
     </row>
     <row r="13" ht="20.35" customHeight="1">
@@ -2284,9 +2266,11 @@
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="7">
+      <c r="K13" s="7">
         <v>2</v>
+      </c>
+      <c r="L13" t="s" s="7">
+        <v>27</v>
       </c>
       <c r="M13" t="s" s="7">
         <v>28</v>
@@ -2294,33 +2278,30 @@
       <c r="N13" t="s" s="7">
         <v>29</v>
       </c>
-      <c r="O13" t="s" s="7">
+      <c r="O13" s="7">
+        <v>1952</v>
+      </c>
+      <c r="P13" t="s" s="7">
         <v>30</v>
       </c>
-      <c r="P13" s="7">
-        <v>1952</v>
-      </c>
-      <c r="Q13" t="s" s="7">
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="7">
+        <v>51.140148484989</v>
+      </c>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" t="s" s="7">
         <v>31</v>
       </c>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="7">
-        <v>51.140148484989</v>
-      </c>
-      <c r="U13" s="8"/>
-      <c r="V13" s="8"/>
-      <c r="W13" t="s" s="7">
-        <v>32</v>
-      </c>
+      <c r="W13" s="8"/>
       <c r="X13" s="8"/>
       <c r="Y13" s="8"/>
-      <c r="Z13" s="8"/>
-      <c r="AA13" s="7">
+      <c r="Z13" s="7">
         <v>167</v>
       </c>
-      <c r="AB13" t="s" s="7">
-        <v>33</v>
+      <c r="AA13" t="s" s="7">
+        <v>32</v>
       </c>
     </row>
     <row r="14" ht="20.35" customHeight="1">
@@ -2340,9 +2321,11 @@
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="7">
+      <c r="K14" s="7">
         <v>2</v>
+      </c>
+      <c r="L14" t="s" s="7">
+        <v>27</v>
       </c>
       <c r="M14" t="s" s="7">
         <v>28</v>
@@ -2350,33 +2333,30 @@
       <c r="N14" t="s" s="7">
         <v>29</v>
       </c>
-      <c r="O14" t="s" s="7">
+      <c r="O14" s="7">
+        <v>1952</v>
+      </c>
+      <c r="P14" t="s" s="7">
         <v>30</v>
       </c>
-      <c r="P14" s="7">
-        <v>1952</v>
-      </c>
-      <c r="Q14" t="s" s="7">
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="7">
+        <v>14.4781851182943</v>
+      </c>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" t="s" s="7">
         <v>31</v>
       </c>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="7">
-        <v>14.4781851182943</v>
-      </c>
-      <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
-      <c r="W14" t="s" s="7">
-        <v>32</v>
-      </c>
+      <c r="W14" s="8"/>
       <c r="X14" s="8"/>
       <c r="Y14" s="8"/>
-      <c r="Z14" s="8"/>
-      <c r="AA14" s="7">
+      <c r="Z14" s="7">
         <v>167</v>
       </c>
-      <c r="AB14" t="s" s="7">
-        <v>34</v>
+      <c r="AA14" t="s" s="7">
+        <v>33</v>
       </c>
     </row>
     <row r="15" ht="20.35" customHeight="1">
@@ -2396,9 +2376,11 @@
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="7">
+      <c r="K15" s="7">
         <v>2</v>
+      </c>
+      <c r="L15" t="s" s="7">
+        <v>27</v>
       </c>
       <c r="M15" t="s" s="7">
         <v>28</v>
@@ -2406,33 +2388,30 @@
       <c r="N15" t="s" s="7">
         <v>29</v>
       </c>
-      <c r="O15" t="s" s="7">
+      <c r="O15" s="7">
+        <v>1953</v>
+      </c>
+      <c r="P15" t="s" s="7">
         <v>30</v>
       </c>
-      <c r="P15" s="7">
-        <v>1953</v>
-      </c>
-      <c r="Q15" t="s" s="7">
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="7">
+        <v>114.736682010622</v>
+      </c>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" t="s" s="7">
         <v>31</v>
       </c>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="7">
-        <v>114.736682010622</v>
-      </c>
-      <c r="U15" s="8"/>
-      <c r="V15" s="8"/>
-      <c r="W15" t="s" s="7">
-        <v>32</v>
-      </c>
+      <c r="W15" s="8"/>
       <c r="X15" s="8"/>
       <c r="Y15" s="8"/>
-      <c r="Z15" s="8"/>
-      <c r="AA15" s="7">
+      <c r="Z15" s="7">
         <v>167</v>
       </c>
-      <c r="AB15" t="s" s="7">
-        <v>33</v>
+      <c r="AA15" t="s" s="7">
+        <v>32</v>
       </c>
     </row>
     <row r="16" ht="20.35" customHeight="1">
@@ -2452,9 +2431,11 @@
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="7">
+      <c r="K16" s="7">
         <v>2</v>
+      </c>
+      <c r="L16" t="s" s="7">
+        <v>27</v>
       </c>
       <c r="M16" t="s" s="7">
         <v>28</v>
@@ -2462,33 +2443,30 @@
       <c r="N16" t="s" s="7">
         <v>29</v>
       </c>
-      <c r="O16" t="s" s="7">
+      <c r="O16" s="7">
+        <v>1953</v>
+      </c>
+      <c r="P16" t="s" s="7">
         <v>30</v>
       </c>
-      <c r="P16" s="7">
-        <v>1953</v>
-      </c>
-      <c r="Q16" t="s" s="7">
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="7">
+        <v>21.7172776774415</v>
+      </c>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" t="s" s="7">
         <v>31</v>
       </c>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="7">
-        <v>21.7172776774415</v>
-      </c>
-      <c r="U16" s="8"/>
-      <c r="V16" s="8"/>
-      <c r="W16" t="s" s="7">
-        <v>32</v>
-      </c>
+      <c r="W16" s="8"/>
       <c r="X16" s="8"/>
       <c r="Y16" s="8"/>
-      <c r="Z16" s="8"/>
-      <c r="AA16" s="7">
+      <c r="Z16" s="7">
         <v>167</v>
       </c>
-      <c r="AB16" t="s" s="7">
-        <v>34</v>
+      <c r="AA16" t="s" s="7">
+        <v>33</v>
       </c>
     </row>
     <row r="17" ht="20.35" customHeight="1">
@@ -2508,9 +2486,11 @@
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="7">
+      <c r="K17" s="7">
         <v>2</v>
+      </c>
+      <c r="L17" t="s" s="7">
+        <v>27</v>
       </c>
       <c r="M17" t="s" s="7">
         <v>28</v>
@@ -2518,33 +2498,30 @@
       <c r="N17" t="s" s="7">
         <v>29</v>
       </c>
-      <c r="O17" t="s" s="7">
+      <c r="O17" s="7">
+        <v>1954</v>
+      </c>
+      <c r="P17" t="s" s="7">
         <v>30</v>
       </c>
-      <c r="P17" s="7">
-        <v>1954</v>
-      </c>
-      <c r="Q17" t="s" s="7">
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="7">
+        <v>203.387341351136</v>
+      </c>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" t="s" s="7">
         <v>31</v>
       </c>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="7">
-        <v>203.387341351136</v>
-      </c>
-      <c r="U17" s="8"/>
-      <c r="V17" s="8"/>
-      <c r="W17" t="s" s="7">
-        <v>32</v>
-      </c>
+      <c r="W17" s="8"/>
       <c r="X17" s="8"/>
       <c r="Y17" s="8"/>
-      <c r="Z17" s="8"/>
-      <c r="AA17" s="7">
+      <c r="Z17" s="7">
         <v>167</v>
       </c>
-      <c r="AB17" t="s" s="7">
-        <v>33</v>
+      <c r="AA17" t="s" s="7">
+        <v>32</v>
       </c>
     </row>
     <row r="18" ht="20.35" customHeight="1">
@@ -2564,9 +2541,11 @@
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="7">
+      <c r="K18" s="7">
         <v>2</v>
+      </c>
+      <c r="L18" t="s" s="7">
+        <v>27</v>
       </c>
       <c r="M18" t="s" s="7">
         <v>28</v>
@@ -2574,33 +2553,30 @@
       <c r="N18" t="s" s="7">
         <v>29</v>
       </c>
-      <c r="O18" t="s" s="7">
+      <c r="O18" s="7">
+        <v>1954</v>
+      </c>
+      <c r="P18" t="s" s="7">
         <v>30</v>
       </c>
-      <c r="P18" s="7">
-        <v>1954</v>
-      </c>
-      <c r="Q18" t="s" s="7">
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="7">
+        <v>28.9563702365887</v>
+      </c>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" t="s" s="7">
         <v>31</v>
       </c>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="7">
-        <v>28.9563702365887</v>
-      </c>
-      <c r="U18" s="8"/>
-      <c r="V18" s="8"/>
-      <c r="W18" t="s" s="7">
-        <v>32</v>
-      </c>
+      <c r="W18" s="8"/>
       <c r="X18" s="8"/>
       <c r="Y18" s="8"/>
-      <c r="Z18" s="8"/>
-      <c r="AA18" s="7">
+      <c r="Z18" s="7">
         <v>167</v>
       </c>
-      <c r="AB18" t="s" s="7">
-        <v>34</v>
+      <c r="AA18" t="s" s="7">
+        <v>33</v>
       </c>
     </row>
     <row r="19" ht="20.35" customHeight="1">
@@ -2620,9 +2596,11 @@
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="7">
+      <c r="K19" s="7">
         <v>2</v>
+      </c>
+      <c r="L19" t="s" s="7">
+        <v>27</v>
       </c>
       <c r="M19" t="s" s="7">
         <v>28</v>
@@ -2630,33 +2608,30 @@
       <c r="N19" t="s" s="7">
         <v>29</v>
       </c>
-      <c r="O19" t="s" s="7">
+      <c r="O19" s="7">
+        <v>1955</v>
+      </c>
+      <c r="P19" t="s" s="7">
         <v>30</v>
       </c>
-      <c r="P19" s="7">
-        <v>1955</v>
-      </c>
-      <c r="Q19" t="s" s="7">
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="7">
+        <v>316.865073859446</v>
+      </c>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" t="s" s="7">
         <v>31</v>
       </c>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="7">
-        <v>316.865073859446</v>
-      </c>
-      <c r="U19" s="8"/>
-      <c r="V19" s="8"/>
-      <c r="W19" t="s" s="7">
-        <v>32</v>
-      </c>
+      <c r="W19" s="8"/>
       <c r="X19" s="8"/>
       <c r="Y19" s="8"/>
-      <c r="Z19" s="8"/>
-      <c r="AA19" s="7">
+      <c r="Z19" s="7">
         <v>167</v>
       </c>
-      <c r="AB19" t="s" s="7">
-        <v>33</v>
+      <c r="AA19" t="s" s="7">
+        <v>32</v>
       </c>
     </row>
     <row r="20" ht="20.35" customHeight="1">
@@ -2676,9 +2651,11 @@
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="7">
+      <c r="K20" s="7">
         <v>2</v>
+      </c>
+      <c r="L20" t="s" s="7">
+        <v>27</v>
       </c>
       <c r="M20" t="s" s="7">
         <v>28</v>
@@ -2686,33 +2663,30 @@
       <c r="N20" t="s" s="7">
         <v>29</v>
       </c>
-      <c r="O20" t="s" s="7">
+      <c r="O20" s="7">
+        <v>1951</v>
+      </c>
+      <c r="P20" t="s" s="7">
         <v>30</v>
       </c>
-      <c r="P20" s="7">
-        <v>1951</v>
-      </c>
-      <c r="Q20" t="s" s="7">
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="7">
+        <v>12.8212595279804</v>
+      </c>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" t="s" s="7">
         <v>31</v>
       </c>
-      <c r="R20" s="8"/>
-      <c r="S20" s="8"/>
-      <c r="T20" s="7">
-        <v>12.8212595279804</v>
-      </c>
-      <c r="U20" s="8"/>
-      <c r="V20" s="8"/>
-      <c r="W20" t="s" s="7">
-        <v>32</v>
-      </c>
+      <c r="W20" s="8"/>
       <c r="X20" s="8"/>
       <c r="Y20" s="8"/>
-      <c r="Z20" s="8"/>
-      <c r="AA20" s="7">
+      <c r="Z20" s="7">
         <v>167</v>
       </c>
-      <c r="AB20" t="s" s="7">
-        <v>33</v>
+      <c r="AA20" t="s" s="7">
+        <v>32</v>
       </c>
     </row>
     <row r="21" ht="20.35" customHeight="1">
@@ -2732,9 +2706,11 @@
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="7">
+      <c r="K21" s="7">
         <v>2</v>
+      </c>
+      <c r="L21" t="s" s="7">
+        <v>27</v>
       </c>
       <c r="M21" t="s" s="7">
         <v>28</v>
@@ -2742,33 +2718,30 @@
       <c r="N21" t="s" s="7">
         <v>29</v>
       </c>
-      <c r="O21" t="s" s="7">
+      <c r="O21" s="7">
+        <v>1951</v>
+      </c>
+      <c r="P21" t="s" s="7">
         <v>30</v>
       </c>
-      <c r="P21" s="7">
-        <v>1951</v>
-      </c>
-      <c r="Q21" t="s" s="7">
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="7">
+        <v>7.23909255914716</v>
+      </c>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" t="s" s="7">
         <v>31</v>
       </c>
-      <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="7">
-        <v>7.23909255914716</v>
-      </c>
-      <c r="U21" s="8"/>
-      <c r="V21" s="8"/>
-      <c r="W21" t="s" s="7">
-        <v>32</v>
-      </c>
+      <c r="W21" s="8"/>
       <c r="X21" s="8"/>
       <c r="Y21" s="8"/>
-      <c r="Z21" s="8"/>
-      <c r="AA21" s="7">
+      <c r="Z21" s="7">
         <v>167</v>
       </c>
-      <c r="AB21" t="s" s="7">
-        <v>34</v>
+      <c r="AA21" t="s" s="7">
+        <v>33</v>
       </c>
     </row>
     <row r="22" ht="20.35" customHeight="1">
@@ -2788,9 +2761,11 @@
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="7">
+      <c r="K22" s="7">
         <v>2</v>
+      </c>
+      <c r="L22" t="s" s="7">
+        <v>27</v>
       </c>
       <c r="M22" t="s" s="7">
         <v>28</v>
@@ -2798,33 +2773,30 @@
       <c r="N22" t="s" s="7">
         <v>29</v>
       </c>
-      <c r="O22" t="s" s="7">
+      <c r="O22" s="7">
+        <v>1952</v>
+      </c>
+      <c r="P22" t="s" s="7">
         <v>30</v>
       </c>
-      <c r="P22" s="7">
-        <v>1952</v>
-      </c>
-      <c r="Q22" t="s" s="7">
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="7">
+        <v>51.140148484989</v>
+      </c>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" t="s" s="7">
         <v>31</v>
       </c>
-      <c r="R22" s="8"/>
-      <c r="S22" s="8"/>
-      <c r="T22" s="7">
-        <v>51.140148484989</v>
-      </c>
-      <c r="U22" s="8"/>
-      <c r="V22" s="8"/>
-      <c r="W22" t="s" s="7">
-        <v>32</v>
-      </c>
+      <c r="W22" s="8"/>
       <c r="X22" s="8"/>
       <c r="Y22" s="8"/>
-      <c r="Z22" s="8"/>
-      <c r="AA22" s="7">
+      <c r="Z22" s="7">
         <v>167</v>
       </c>
-      <c r="AB22" t="s" s="7">
-        <v>33</v>
+      <c r="AA22" t="s" s="7">
+        <v>32</v>
       </c>
     </row>
     <row r="23" ht="20.35" customHeight="1">
@@ -2844,9 +2816,11 @@
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="7">
+      <c r="K23" s="7">
         <v>2</v>
+      </c>
+      <c r="L23" t="s" s="7">
+        <v>27</v>
       </c>
       <c r="M23" t="s" s="7">
         <v>28</v>
@@ -2854,33 +2828,30 @@
       <c r="N23" t="s" s="7">
         <v>29</v>
       </c>
-      <c r="O23" t="s" s="7">
+      <c r="O23" s="7">
+        <v>1952</v>
+      </c>
+      <c r="P23" t="s" s="7">
         <v>30</v>
       </c>
-      <c r="P23" s="7">
-        <v>1952</v>
-      </c>
-      <c r="Q23" t="s" s="7">
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="7">
+        <v>14.4781851182943</v>
+      </c>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" t="s" s="7">
         <v>31</v>
       </c>
-      <c r="R23" s="8"/>
-      <c r="S23" s="8"/>
-      <c r="T23" s="7">
-        <v>14.4781851182943</v>
-      </c>
-      <c r="U23" s="8"/>
-      <c r="V23" s="8"/>
-      <c r="W23" t="s" s="7">
-        <v>32</v>
-      </c>
+      <c r="W23" s="8"/>
       <c r="X23" s="8"/>
       <c r="Y23" s="8"/>
-      <c r="Z23" s="8"/>
-      <c r="AA23" s="7">
+      <c r="Z23" s="7">
         <v>167</v>
       </c>
-      <c r="AB23" t="s" s="7">
-        <v>34</v>
+      <c r="AA23" t="s" s="7">
+        <v>33</v>
       </c>
     </row>
     <row r="24" ht="20.35" customHeight="1">
@@ -2900,9 +2871,11 @@
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="7">
+      <c r="K24" s="7">
         <v>2</v>
+      </c>
+      <c r="L24" t="s" s="7">
+        <v>27</v>
       </c>
       <c r="M24" t="s" s="7">
         <v>28</v>
@@ -2910,33 +2883,30 @@
       <c r="N24" t="s" s="7">
         <v>29</v>
       </c>
-      <c r="O24" t="s" s="7">
+      <c r="O24" s="7">
+        <v>1953</v>
+      </c>
+      <c r="P24" t="s" s="7">
         <v>30</v>
       </c>
-      <c r="P24" s="7">
-        <v>1953</v>
-      </c>
-      <c r="Q24" t="s" s="7">
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="7">
+        <v>114.736682010622</v>
+      </c>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" t="s" s="7">
         <v>31</v>
       </c>
-      <c r="R24" s="8"/>
-      <c r="S24" s="8"/>
-      <c r="T24" s="7">
-        <v>114.736682010622</v>
-      </c>
-      <c r="U24" s="8"/>
-      <c r="V24" s="8"/>
-      <c r="W24" t="s" s="7">
-        <v>32</v>
-      </c>
+      <c r="W24" s="8"/>
       <c r="X24" s="8"/>
       <c r="Y24" s="8"/>
-      <c r="Z24" s="8"/>
-      <c r="AA24" s="7">
+      <c r="Z24" s="7">
         <v>167</v>
       </c>
-      <c r="AB24" t="s" s="7">
-        <v>33</v>
+      <c r="AA24" t="s" s="7">
+        <v>32</v>
       </c>
     </row>
     <row r="25" ht="20.35" customHeight="1">
@@ -2956,9 +2926,11 @@
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="7">
+      <c r="K25" s="7">
         <v>2</v>
+      </c>
+      <c r="L25" t="s" s="7">
+        <v>27</v>
       </c>
       <c r="M25" t="s" s="7">
         <v>28</v>
@@ -2966,33 +2938,30 @@
       <c r="N25" t="s" s="7">
         <v>29</v>
       </c>
-      <c r="O25" t="s" s="7">
+      <c r="O25" s="7">
+        <v>1953</v>
+      </c>
+      <c r="P25" t="s" s="7">
         <v>30</v>
       </c>
-      <c r="P25" s="7">
-        <v>1953</v>
-      </c>
-      <c r="Q25" t="s" s="7">
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="7">
+        <v>21.7172776774415</v>
+      </c>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" t="s" s="7">
         <v>31</v>
       </c>
-      <c r="R25" s="8"/>
-      <c r="S25" s="8"/>
-      <c r="T25" s="7">
-        <v>21.7172776774415</v>
-      </c>
-      <c r="U25" s="8"/>
-      <c r="V25" s="8"/>
-      <c r="W25" t="s" s="7">
-        <v>32</v>
-      </c>
+      <c r="W25" s="8"/>
       <c r="X25" s="8"/>
       <c r="Y25" s="8"/>
-      <c r="Z25" s="8"/>
-      <c r="AA25" s="7">
+      <c r="Z25" s="7">
         <v>167</v>
       </c>
-      <c r="AB25" t="s" s="7">
-        <v>34</v>
+      <c r="AA25" t="s" s="7">
+        <v>33</v>
       </c>
     </row>
     <row r="26" ht="20.35" customHeight="1">
@@ -3012,9 +2981,11 @@
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="7">
+      <c r="K26" s="7">
         <v>2</v>
+      </c>
+      <c r="L26" t="s" s="7">
+        <v>27</v>
       </c>
       <c r="M26" t="s" s="7">
         <v>28</v>
@@ -3022,33 +2993,30 @@
       <c r="N26" t="s" s="7">
         <v>29</v>
       </c>
-      <c r="O26" t="s" s="7">
+      <c r="O26" s="7">
+        <v>1954</v>
+      </c>
+      <c r="P26" t="s" s="7">
         <v>30</v>
       </c>
-      <c r="P26" s="7">
-        <v>1954</v>
-      </c>
-      <c r="Q26" t="s" s="7">
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="7">
+        <v>203.387341351136</v>
+      </c>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" t="s" s="7">
         <v>31</v>
       </c>
-      <c r="R26" s="8"/>
-      <c r="S26" s="8"/>
-      <c r="T26" s="7">
-        <v>203.387341351136</v>
-      </c>
-      <c r="U26" s="8"/>
-      <c r="V26" s="8"/>
-      <c r="W26" t="s" s="7">
-        <v>32</v>
-      </c>
+      <c r="W26" s="8"/>
       <c r="X26" s="8"/>
       <c r="Y26" s="8"/>
-      <c r="Z26" s="8"/>
-      <c r="AA26" s="7">
+      <c r="Z26" s="7">
         <v>167</v>
       </c>
-      <c r="AB26" t="s" s="7">
-        <v>33</v>
+      <c r="AA26" t="s" s="7">
+        <v>32</v>
       </c>
     </row>
     <row r="27" ht="20.35" customHeight="1">
@@ -3068,9 +3036,11 @@
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="7">
+      <c r="K27" s="7">
         <v>2</v>
+      </c>
+      <c r="L27" t="s" s="7">
+        <v>27</v>
       </c>
       <c r="M27" t="s" s="7">
         <v>28</v>
@@ -3078,33 +3048,30 @@
       <c r="N27" t="s" s="7">
         <v>29</v>
       </c>
-      <c r="O27" t="s" s="7">
+      <c r="O27" s="7">
+        <v>1954</v>
+      </c>
+      <c r="P27" t="s" s="7">
         <v>30</v>
       </c>
-      <c r="P27" s="7">
-        <v>1954</v>
-      </c>
-      <c r="Q27" t="s" s="7">
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="7">
+        <v>28.9563702365887</v>
+      </c>
+      <c r="T27" s="8"/>
+      <c r="U27" s="8"/>
+      <c r="V27" t="s" s="7">
         <v>31</v>
       </c>
-      <c r="R27" s="8"/>
-      <c r="S27" s="8"/>
-      <c r="T27" s="7">
-        <v>28.9563702365887</v>
-      </c>
-      <c r="U27" s="8"/>
-      <c r="V27" s="8"/>
-      <c r="W27" t="s" s="7">
-        <v>32</v>
-      </c>
+      <c r="W27" s="8"/>
       <c r="X27" s="8"/>
       <c r="Y27" s="8"/>
-      <c r="Z27" s="8"/>
-      <c r="AA27" s="7">
+      <c r="Z27" s="7">
         <v>167</v>
       </c>
-      <c r="AB27" t="s" s="7">
-        <v>34</v>
+      <c r="AA27" t="s" s="7">
+        <v>33</v>
       </c>
     </row>
     <row r="28" ht="20.35" customHeight="1">
@@ -3124,9 +3091,11 @@
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="7">
+      <c r="K28" s="7">
         <v>2</v>
+      </c>
+      <c r="L28" t="s" s="7">
+        <v>27</v>
       </c>
       <c r="M28" t="s" s="7">
         <v>28</v>
@@ -3134,33 +3103,30 @@
       <c r="N28" t="s" s="7">
         <v>29</v>
       </c>
-      <c r="O28" t="s" s="7">
+      <c r="O28" s="7">
+        <v>1955</v>
+      </c>
+      <c r="P28" t="s" s="7">
         <v>30</v>
       </c>
-      <c r="P28" s="7">
-        <v>1955</v>
-      </c>
-      <c r="Q28" t="s" s="7">
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="7">
+        <v>316.865073859446</v>
+      </c>
+      <c r="T28" s="8"/>
+      <c r="U28" s="8"/>
+      <c r="V28" t="s" s="7">
         <v>31</v>
       </c>
-      <c r="R28" s="8"/>
-      <c r="S28" s="8"/>
-      <c r="T28" s="7">
-        <v>316.865073859446</v>
-      </c>
-      <c r="U28" s="8"/>
-      <c r="V28" s="8"/>
-      <c r="W28" t="s" s="7">
-        <v>32</v>
-      </c>
+      <c r="W28" s="8"/>
       <c r="X28" s="8"/>
       <c r="Y28" s="8"/>
-      <c r="Z28" s="8"/>
-      <c r="AA28" s="7">
+      <c r="Z28" s="7">
         <v>167</v>
       </c>
-      <c r="AB28" t="s" s="7">
-        <v>33</v>
+      <c r="AA28" t="s" s="7">
+        <v>32</v>
       </c>
     </row>
     <row r="29" ht="20.35" customHeight="1">
@@ -3180,9 +3146,11 @@
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="7">
+      <c r="K29" s="7">
         <v>2</v>
+      </c>
+      <c r="L29" t="s" s="7">
+        <v>27</v>
       </c>
       <c r="M29" t="s" s="7">
         <v>28</v>
@@ -3190,33 +3158,30 @@
       <c r="N29" t="s" s="7">
         <v>29</v>
       </c>
-      <c r="O29" t="s" s="7">
+      <c r="O29" s="7">
+        <v>1951</v>
+      </c>
+      <c r="P29" t="s" s="7">
         <v>30</v>
       </c>
-      <c r="P29" s="7">
-        <v>1951</v>
-      </c>
-      <c r="Q29" t="s" s="7">
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="7">
+        <v>12.8212595279804</v>
+      </c>
+      <c r="T29" s="8"/>
+      <c r="U29" s="8"/>
+      <c r="V29" t="s" s="7">
         <v>31</v>
       </c>
-      <c r="R29" s="8"/>
-      <c r="S29" s="8"/>
-      <c r="T29" s="7">
-        <v>12.8212595279804</v>
-      </c>
-      <c r="U29" s="8"/>
-      <c r="V29" s="8"/>
-      <c r="W29" t="s" s="7">
-        <v>32</v>
-      </c>
+      <c r="W29" s="8"/>
       <c r="X29" s="8"/>
       <c r="Y29" s="8"/>
-      <c r="Z29" s="8"/>
-      <c r="AA29" s="7">
+      <c r="Z29" s="7">
         <v>167</v>
       </c>
-      <c r="AB29" t="s" s="7">
-        <v>33</v>
+      <c r="AA29" t="s" s="7">
+        <v>32</v>
       </c>
     </row>
     <row r="30" ht="20.35" customHeight="1">
@@ -3236,9 +3201,11 @@
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="7">
+      <c r="K30" s="7">
         <v>2</v>
+      </c>
+      <c r="L30" t="s" s="7">
+        <v>27</v>
       </c>
       <c r="M30" t="s" s="7">
         <v>28</v>
@@ -3246,33 +3213,30 @@
       <c r="N30" t="s" s="7">
         <v>29</v>
       </c>
-      <c r="O30" t="s" s="7">
+      <c r="O30" s="7">
+        <v>1951</v>
+      </c>
+      <c r="P30" t="s" s="7">
         <v>30</v>
       </c>
-      <c r="P30" s="7">
-        <v>1951</v>
-      </c>
-      <c r="Q30" t="s" s="7">
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="7">
+        <v>7.23909255914716</v>
+      </c>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+      <c r="V30" t="s" s="7">
         <v>31</v>
       </c>
-      <c r="R30" s="8"/>
-      <c r="S30" s="8"/>
-      <c r="T30" s="7">
-        <v>7.23909255914716</v>
-      </c>
-      <c r="U30" s="8"/>
-      <c r="V30" s="8"/>
-      <c r="W30" t="s" s="7">
-        <v>32</v>
-      </c>
+      <c r="W30" s="8"/>
       <c r="X30" s="8"/>
       <c r="Y30" s="8"/>
-      <c r="Z30" s="8"/>
-      <c r="AA30" s="7">
+      <c r="Z30" s="7">
         <v>167</v>
       </c>
-      <c r="AB30" t="s" s="7">
-        <v>34</v>
+      <c r="AA30" t="s" s="7">
+        <v>33</v>
       </c>
     </row>
     <row r="31" ht="20.35" customHeight="1">
@@ -3292,9 +3256,11 @@
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="7">
+      <c r="K31" s="7">
         <v>2</v>
+      </c>
+      <c r="L31" t="s" s="7">
+        <v>27</v>
       </c>
       <c r="M31" t="s" s="7">
         <v>28</v>
@@ -3302,33 +3268,30 @@
       <c r="N31" t="s" s="7">
         <v>29</v>
       </c>
-      <c r="O31" t="s" s="7">
+      <c r="O31" s="7">
+        <v>1952</v>
+      </c>
+      <c r="P31" t="s" s="7">
         <v>30</v>
       </c>
-      <c r="P31" s="7">
-        <v>1952</v>
-      </c>
-      <c r="Q31" t="s" s="7">
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="7">
+        <v>51.140148484989</v>
+      </c>
+      <c r="T31" s="8"/>
+      <c r="U31" s="8"/>
+      <c r="V31" t="s" s="7">
         <v>31</v>
       </c>
-      <c r="R31" s="8"/>
-      <c r="S31" s="8"/>
-      <c r="T31" s="7">
-        <v>51.140148484989</v>
-      </c>
-      <c r="U31" s="8"/>
-      <c r="V31" s="8"/>
-      <c r="W31" t="s" s="7">
-        <v>32</v>
-      </c>
+      <c r="W31" s="8"/>
       <c r="X31" s="8"/>
       <c r="Y31" s="8"/>
-      <c r="Z31" s="8"/>
-      <c r="AA31" s="7">
+      <c r="Z31" s="7">
         <v>167</v>
       </c>
-      <c r="AB31" t="s" s="7">
-        <v>33</v>
+      <c r="AA31" t="s" s="7">
+        <v>32</v>
       </c>
     </row>
     <row r="32" ht="20.35" customHeight="1">
@@ -3348,9 +3311,11 @@
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="7">
+      <c r="K32" s="7">
         <v>2</v>
+      </c>
+      <c r="L32" t="s" s="7">
+        <v>27</v>
       </c>
       <c r="M32" t="s" s="7">
         <v>28</v>
@@ -3358,33 +3323,30 @@
       <c r="N32" t="s" s="7">
         <v>29</v>
       </c>
-      <c r="O32" t="s" s="7">
+      <c r="O32" s="7">
+        <v>1952</v>
+      </c>
+      <c r="P32" t="s" s="7">
         <v>30</v>
       </c>
-      <c r="P32" s="7">
-        <v>1952</v>
-      </c>
-      <c r="Q32" t="s" s="7">
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="7">
+        <v>14.4781851182943</v>
+      </c>
+      <c r="T32" s="8"/>
+      <c r="U32" s="8"/>
+      <c r="V32" t="s" s="7">
         <v>31</v>
       </c>
-      <c r="R32" s="8"/>
-      <c r="S32" s="8"/>
-      <c r="T32" s="7">
-        <v>14.4781851182943</v>
-      </c>
-      <c r="U32" s="8"/>
-      <c r="V32" s="8"/>
-      <c r="W32" t="s" s="7">
-        <v>32</v>
-      </c>
+      <c r="W32" s="8"/>
       <c r="X32" s="8"/>
       <c r="Y32" s="8"/>
-      <c r="Z32" s="8"/>
-      <c r="AA32" s="7">
+      <c r="Z32" s="7">
         <v>167</v>
       </c>
-      <c r="AB32" t="s" s="7">
-        <v>34</v>
+      <c r="AA32" t="s" s="7">
+        <v>33</v>
       </c>
     </row>
     <row r="33" ht="20.35" customHeight="1">
@@ -3404,9 +3366,11 @@
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="7">
+      <c r="K33" s="7">
         <v>2</v>
+      </c>
+      <c r="L33" t="s" s="7">
+        <v>27</v>
       </c>
       <c r="M33" t="s" s="7">
         <v>28</v>
@@ -3414,33 +3378,30 @@
       <c r="N33" t="s" s="7">
         <v>29</v>
       </c>
-      <c r="O33" t="s" s="7">
+      <c r="O33" s="7">
+        <v>1953</v>
+      </c>
+      <c r="P33" t="s" s="7">
         <v>30</v>
       </c>
-      <c r="P33" s="7">
-        <v>1953</v>
-      </c>
-      <c r="Q33" t="s" s="7">
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="7">
+        <v>114.736682010622</v>
+      </c>
+      <c r="T33" s="8"/>
+      <c r="U33" s="8"/>
+      <c r="V33" t="s" s="7">
         <v>31</v>
       </c>
-      <c r="R33" s="8"/>
-      <c r="S33" s="8"/>
-      <c r="T33" s="7">
-        <v>114.736682010622</v>
-      </c>
-      <c r="U33" s="8"/>
-      <c r="V33" s="8"/>
-      <c r="W33" t="s" s="7">
-        <v>32</v>
-      </c>
+      <c r="W33" s="8"/>
       <c r="X33" s="8"/>
       <c r="Y33" s="8"/>
-      <c r="Z33" s="8"/>
-      <c r="AA33" s="7">
+      <c r="Z33" s="7">
         <v>167</v>
       </c>
-      <c r="AB33" t="s" s="7">
-        <v>33</v>
+      <c r="AA33" t="s" s="7">
+        <v>32</v>
       </c>
     </row>
     <row r="34" ht="20.35" customHeight="1">
@@ -3460,9 +3421,11 @@
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="7">
+      <c r="K34" s="7">
         <v>2</v>
+      </c>
+      <c r="L34" t="s" s="7">
+        <v>27</v>
       </c>
       <c r="M34" t="s" s="7">
         <v>28</v>
@@ -3470,33 +3433,30 @@
       <c r="N34" t="s" s="7">
         <v>29</v>
       </c>
-      <c r="O34" t="s" s="7">
+      <c r="O34" s="7">
+        <v>1953</v>
+      </c>
+      <c r="P34" t="s" s="7">
         <v>30</v>
       </c>
-      <c r="P34" s="7">
-        <v>1953</v>
-      </c>
-      <c r="Q34" t="s" s="7">
+      <c r="Q34" s="8"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="7">
+        <v>21.7172776774415</v>
+      </c>
+      <c r="T34" s="8"/>
+      <c r="U34" s="8"/>
+      <c r="V34" t="s" s="7">
         <v>31</v>
       </c>
-      <c r="R34" s="8"/>
-      <c r="S34" s="8"/>
-      <c r="T34" s="7">
-        <v>21.7172776774415</v>
-      </c>
-      <c r="U34" s="8"/>
-      <c r="V34" s="8"/>
-      <c r="W34" t="s" s="7">
-        <v>32</v>
-      </c>
+      <c r="W34" s="8"/>
       <c r="X34" s="8"/>
       <c r="Y34" s="8"/>
-      <c r="Z34" s="8"/>
-      <c r="AA34" s="7">
+      <c r="Z34" s="7">
         <v>167</v>
       </c>
-      <c r="AB34" t="s" s="7">
-        <v>34</v>
+      <c r="AA34" t="s" s="7">
+        <v>33</v>
       </c>
     </row>
     <row r="35" ht="20.35" customHeight="1">
@@ -3516,9 +3476,11 @@
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="7">
+      <c r="K35" s="7">
         <v>2</v>
+      </c>
+      <c r="L35" t="s" s="7">
+        <v>27</v>
       </c>
       <c r="M35" t="s" s="7">
         <v>28</v>
@@ -3526,33 +3488,30 @@
       <c r="N35" t="s" s="7">
         <v>29</v>
       </c>
-      <c r="O35" t="s" s="7">
+      <c r="O35" s="7">
+        <v>1954</v>
+      </c>
+      <c r="P35" t="s" s="7">
         <v>30</v>
       </c>
-      <c r="P35" s="7">
-        <v>1954</v>
-      </c>
-      <c r="Q35" t="s" s="7">
+      <c r="Q35" s="8"/>
+      <c r="R35" s="8"/>
+      <c r="S35" s="7">
+        <v>203.387341351136</v>
+      </c>
+      <c r="T35" s="8"/>
+      <c r="U35" s="8"/>
+      <c r="V35" t="s" s="7">
         <v>31</v>
       </c>
-      <c r="R35" s="8"/>
-      <c r="S35" s="8"/>
-      <c r="T35" s="7">
-        <v>203.387341351136</v>
-      </c>
-      <c r="U35" s="8"/>
-      <c r="V35" s="8"/>
-      <c r="W35" t="s" s="7">
-        <v>32</v>
-      </c>
+      <c r="W35" s="8"/>
       <c r="X35" s="8"/>
       <c r="Y35" s="8"/>
-      <c r="Z35" s="8"/>
-      <c r="AA35" s="7">
+      <c r="Z35" s="7">
         <v>167</v>
       </c>
-      <c r="AB35" t="s" s="7">
-        <v>33</v>
+      <c r="AA35" t="s" s="7">
+        <v>32</v>
       </c>
     </row>
     <row r="36" ht="20.35" customHeight="1">
@@ -3572,9 +3531,11 @@
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="7">
+      <c r="K36" s="7">
         <v>2</v>
+      </c>
+      <c r="L36" t="s" s="7">
+        <v>27</v>
       </c>
       <c r="M36" t="s" s="7">
         <v>28</v>
@@ -3582,33 +3543,30 @@
       <c r="N36" t="s" s="7">
         <v>29</v>
       </c>
-      <c r="O36" t="s" s="7">
+      <c r="O36" s="7">
+        <v>1954</v>
+      </c>
+      <c r="P36" t="s" s="7">
         <v>30</v>
       </c>
-      <c r="P36" s="7">
-        <v>1954</v>
-      </c>
-      <c r="Q36" t="s" s="7">
+      <c r="Q36" s="8"/>
+      <c r="R36" s="8"/>
+      <c r="S36" s="7">
+        <v>28.9563702365887</v>
+      </c>
+      <c r="T36" s="8"/>
+      <c r="U36" s="8"/>
+      <c r="V36" t="s" s="7">
         <v>31</v>
       </c>
-      <c r="R36" s="8"/>
-      <c r="S36" s="8"/>
-      <c r="T36" s="7">
-        <v>28.9563702365887</v>
-      </c>
-      <c r="U36" s="8"/>
-      <c r="V36" s="8"/>
-      <c r="W36" t="s" s="7">
-        <v>32</v>
-      </c>
+      <c r="W36" s="8"/>
       <c r="X36" s="8"/>
       <c r="Y36" s="8"/>
-      <c r="Z36" s="8"/>
-      <c r="AA36" s="7">
+      <c r="Z36" s="7">
         <v>167</v>
       </c>
-      <c r="AB36" t="s" s="7">
-        <v>34</v>
+      <c r="AA36" t="s" s="7">
+        <v>33</v>
       </c>
     </row>
     <row r="37" ht="20.35" customHeight="1">
@@ -3628,9 +3586,11 @@
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="7">
+      <c r="K37" s="7">
         <v>2</v>
+      </c>
+      <c r="L37" t="s" s="7">
+        <v>27</v>
       </c>
       <c r="M37" t="s" s="7">
         <v>28</v>
@@ -3638,33 +3598,30 @@
       <c r="N37" t="s" s="7">
         <v>29</v>
       </c>
-      <c r="O37" t="s" s="7">
+      <c r="O37" s="7">
+        <v>1955</v>
+      </c>
+      <c r="P37" t="s" s="7">
         <v>30</v>
       </c>
-      <c r="P37" s="7">
-        <v>1955</v>
-      </c>
-      <c r="Q37" t="s" s="7">
+      <c r="Q37" s="8"/>
+      <c r="R37" s="8"/>
+      <c r="S37" s="7">
+        <v>316.865073859446</v>
+      </c>
+      <c r="T37" s="8"/>
+      <c r="U37" s="8"/>
+      <c r="V37" t="s" s="7">
         <v>31</v>
       </c>
-      <c r="R37" s="8"/>
-      <c r="S37" s="8"/>
-      <c r="T37" s="7">
-        <v>316.865073859446</v>
-      </c>
-      <c r="U37" s="8"/>
-      <c r="V37" s="8"/>
-      <c r="W37" t="s" s="7">
-        <v>32</v>
-      </c>
+      <c r="W37" s="8"/>
       <c r="X37" s="8"/>
       <c r="Y37" s="8"/>
-      <c r="Z37" s="8"/>
-      <c r="AA37" s="7">
+      <c r="Z37" s="7">
         <v>167</v>
       </c>
-      <c r="AB37" t="s" s="7">
-        <v>33</v>
+      <c r="AA37" t="s" s="7">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/test_uploads/new_test_data_multipage.xlsx
+++ b/test_uploads/new_test_data_multipage.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
   <si>
     <t>fishing entity</t>
   </si>
@@ -87,9 +87,6 @@
   </si>
   <si>
     <t>layer rule</t>
-  </si>
-  <si>
-    <t>reference id</t>
   </si>
   <si>
     <t>notes</t>
@@ -1525,7 +1522,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AA37"/>
+  <dimension ref="A1:Z37"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1557,8 +1554,7 @@
     <col min="24" max="24" width="9.125" style="1" customWidth="1"/>
     <col min="25" max="25" width="9.125" style="1" customWidth="1"/>
     <col min="26" max="26" width="9.125" style="1" customWidth="1"/>
-    <col min="27" max="27" width="9.125" style="1" customWidth="1"/>
-    <col min="28" max="256" width="9" style="1" customWidth="1"/>
+    <col min="27" max="256" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
@@ -1637,11 +1633,8 @@
       <c r="Y1" t="s" s="3">
         <v>24</v>
       </c>
-      <c r="Z1" t="s" s="3">
+      <c r="Z1" t="s" s="4">
         <v>25</v>
-      </c>
-      <c r="AA1" t="s" s="4">
-        <v>26</v>
       </c>
     </row>
     <row r="2" ht="20.15" customHeight="1">
@@ -1665,19 +1658,19 @@
         <v>2</v>
       </c>
       <c r="L2" t="s" s="5">
+        <v>26</v>
+      </c>
+      <c r="M2" t="s" s="5">
         <v>27</v>
       </c>
-      <c r="M2" t="s" s="5">
+      <c r="N2" t="s" s="5">
         <v>28</v>
-      </c>
-      <c r="N2" t="s" s="5">
-        <v>29</v>
       </c>
       <c r="O2" s="5">
         <v>1951</v>
       </c>
       <c r="P2" t="s" s="5">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
@@ -1687,16 +1680,13 @@
       <c r="T2" s="6"/>
       <c r="U2" s="6"/>
       <c r="V2" t="s" s="5">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W2" s="6"/>
       <c r="X2" s="6"/>
       <c r="Y2" s="6"/>
-      <c r="Z2" s="5">
-        <v>167</v>
-      </c>
-      <c r="AA2" t="s" s="5">
-        <v>32</v>
+      <c r="Z2" t="s" s="5">
+        <v>31</v>
       </c>
     </row>
     <row r="3" ht="20.35" customHeight="1">
@@ -1720,19 +1710,19 @@
         <v>2</v>
       </c>
       <c r="L3" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="M3" t="s" s="7">
         <v>27</v>
       </c>
-      <c r="M3" t="s" s="7">
+      <c r="N3" t="s" s="7">
         <v>28</v>
-      </c>
-      <c r="N3" t="s" s="7">
-        <v>29</v>
       </c>
       <c r="O3" s="7">
         <v>1951</v>
       </c>
       <c r="P3" t="s" s="7">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q3" s="8"/>
       <c r="R3" s="8"/>
@@ -1742,16 +1732,13 @@
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
       <c r="V3" t="s" s="7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W3" s="8"/>
       <c r="X3" s="8"/>
       <c r="Y3" s="8"/>
-      <c r="Z3" s="7">
-        <v>167</v>
-      </c>
-      <c r="AA3" t="s" s="7">
-        <v>33</v>
+      <c r="Z3" t="s" s="7">
+        <v>32</v>
       </c>
     </row>
     <row r="4" ht="20.35" customHeight="1">
@@ -1775,19 +1762,19 @@
         <v>2</v>
       </c>
       <c r="L4" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="M4" t="s" s="7">
         <v>27</v>
       </c>
-      <c r="M4" t="s" s="7">
+      <c r="N4" t="s" s="7">
         <v>28</v>
-      </c>
-      <c r="N4" t="s" s="7">
-        <v>29</v>
       </c>
       <c r="O4" s="7">
         <v>1952</v>
       </c>
       <c r="P4" t="s" s="7">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q4" s="8"/>
       <c r="R4" s="8"/>
@@ -1797,16 +1784,13 @@
       <c r="T4" s="8"/>
       <c r="U4" s="8"/>
       <c r="V4" t="s" s="7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W4" s="8"/>
       <c r="X4" s="8"/>
       <c r="Y4" s="8"/>
-      <c r="Z4" s="7">
-        <v>167</v>
-      </c>
-      <c r="AA4" t="s" s="7">
-        <v>32</v>
+      <c r="Z4" t="s" s="7">
+        <v>31</v>
       </c>
     </row>
     <row r="5" ht="20.35" customHeight="1">
@@ -1830,19 +1814,19 @@
         <v>2</v>
       </c>
       <c r="L5" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="M5" t="s" s="7">
         <v>27</v>
       </c>
-      <c r="M5" t="s" s="7">
+      <c r="N5" t="s" s="7">
         <v>28</v>
-      </c>
-      <c r="N5" t="s" s="7">
-        <v>29</v>
       </c>
       <c r="O5" s="7">
         <v>1952</v>
       </c>
       <c r="P5" t="s" s="7">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q5" s="8"/>
       <c r="R5" s="8"/>
@@ -1852,16 +1836,13 @@
       <c r="T5" s="8"/>
       <c r="U5" s="8"/>
       <c r="V5" t="s" s="7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W5" s="8"/>
       <c r="X5" s="8"/>
       <c r="Y5" s="8"/>
-      <c r="Z5" s="7">
-        <v>167</v>
-      </c>
-      <c r="AA5" t="s" s="7">
-        <v>33</v>
+      <c r="Z5" t="s" s="7">
+        <v>32</v>
       </c>
     </row>
     <row r="6" ht="20.35" customHeight="1">
@@ -1885,19 +1866,19 @@
         <v>2</v>
       </c>
       <c r="L6" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="M6" t="s" s="7">
         <v>27</v>
       </c>
-      <c r="M6" t="s" s="7">
+      <c r="N6" t="s" s="7">
         <v>28</v>
-      </c>
-      <c r="N6" t="s" s="7">
-        <v>29</v>
       </c>
       <c r="O6" s="7">
         <v>1953</v>
       </c>
       <c r="P6" t="s" s="7">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q6" s="8"/>
       <c r="R6" s="8"/>
@@ -1907,16 +1888,13 @@
       <c r="T6" s="8"/>
       <c r="U6" s="8"/>
       <c r="V6" t="s" s="7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W6" s="8"/>
       <c r="X6" s="8"/>
       <c r="Y6" s="8"/>
-      <c r="Z6" s="7">
-        <v>167</v>
-      </c>
-      <c r="AA6" t="s" s="7">
-        <v>32</v>
+      <c r="Z6" t="s" s="7">
+        <v>31</v>
       </c>
     </row>
     <row r="7" ht="20.35" customHeight="1">
@@ -1940,19 +1918,19 @@
         <v>2</v>
       </c>
       <c r="L7" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="M7" t="s" s="7">
         <v>27</v>
       </c>
-      <c r="M7" t="s" s="7">
+      <c r="N7" t="s" s="7">
         <v>28</v>
-      </c>
-      <c r="N7" t="s" s="7">
-        <v>29</v>
       </c>
       <c r="O7" s="7">
         <v>1953</v>
       </c>
       <c r="P7" t="s" s="7">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
@@ -1962,16 +1940,13 @@
       <c r="T7" s="8"/>
       <c r="U7" s="8"/>
       <c r="V7" t="s" s="7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W7" s="8"/>
       <c r="X7" s="8"/>
       <c r="Y7" s="8"/>
-      <c r="Z7" s="7">
-        <v>167</v>
-      </c>
-      <c r="AA7" t="s" s="7">
-        <v>33</v>
+      <c r="Z7" t="s" s="7">
+        <v>32</v>
       </c>
     </row>
     <row r="8" ht="20.35" customHeight="1">
@@ -1995,19 +1970,19 @@
         <v>2</v>
       </c>
       <c r="L8" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="M8" t="s" s="7">
         <v>27</v>
       </c>
-      <c r="M8" t="s" s="7">
+      <c r="N8" t="s" s="7">
         <v>28</v>
-      </c>
-      <c r="N8" t="s" s="7">
-        <v>29</v>
       </c>
       <c r="O8" s="7">
         <v>1954</v>
       </c>
       <c r="P8" t="s" s="7">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
@@ -2017,16 +1992,13 @@
       <c r="T8" s="8"/>
       <c r="U8" s="8"/>
       <c r="V8" t="s" s="7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W8" s="8"/>
       <c r="X8" s="8"/>
       <c r="Y8" s="8"/>
-      <c r="Z8" s="7">
-        <v>167</v>
-      </c>
-      <c r="AA8" t="s" s="7">
-        <v>32</v>
+      <c r="Z8" t="s" s="7">
+        <v>31</v>
       </c>
     </row>
     <row r="9" ht="23.35" customHeight="1">
@@ -2050,19 +2022,19 @@
         <v>2</v>
       </c>
       <c r="L9" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="M9" t="s" s="7">
         <v>27</v>
       </c>
-      <c r="M9" t="s" s="7">
+      <c r="N9" t="s" s="7">
         <v>28</v>
-      </c>
-      <c r="N9" t="s" s="7">
-        <v>29</v>
       </c>
       <c r="O9" s="7">
         <v>1954</v>
       </c>
       <c r="P9" t="s" s="7">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q9" s="8"/>
       <c r="R9" s="8"/>
@@ -2072,16 +2044,13 @@
       <c r="T9" s="8"/>
       <c r="U9" s="8"/>
       <c r="V9" t="s" s="7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W9" s="8"/>
       <c r="X9" s="8"/>
       <c r="Y9" s="8"/>
-      <c r="Z9" s="7">
-        <v>167</v>
-      </c>
-      <c r="AA9" t="s" s="7">
-        <v>33</v>
+      <c r="Z9" t="s" s="7">
+        <v>32</v>
       </c>
     </row>
     <row r="10" ht="20.35" customHeight="1">
@@ -2105,19 +2074,19 @@
         <v>2</v>
       </c>
       <c r="L10" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="M10" t="s" s="7">
         <v>27</v>
       </c>
-      <c r="M10" t="s" s="7">
+      <c r="N10" t="s" s="7">
         <v>28</v>
-      </c>
-      <c r="N10" t="s" s="7">
-        <v>29</v>
       </c>
       <c r="O10" s="7">
         <v>1955</v>
       </c>
       <c r="P10" t="s" s="7">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
@@ -2127,16 +2096,13 @@
       <c r="T10" s="8"/>
       <c r="U10" s="8"/>
       <c r="V10" t="s" s="7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W10" s="8"/>
       <c r="X10" s="8"/>
       <c r="Y10" s="8"/>
-      <c r="Z10" s="7">
-        <v>167</v>
-      </c>
-      <c r="AA10" t="s" s="7">
-        <v>32</v>
+      <c r="Z10" t="s" s="7">
+        <v>31</v>
       </c>
     </row>
     <row r="11" ht="20.35" customHeight="1">
@@ -2160,19 +2126,19 @@
         <v>2</v>
       </c>
       <c r="L11" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="M11" t="s" s="7">
         <v>27</v>
       </c>
-      <c r="M11" t="s" s="7">
+      <c r="N11" t="s" s="7">
         <v>28</v>
-      </c>
-      <c r="N11" t="s" s="7">
-        <v>29</v>
       </c>
       <c r="O11" s="7">
         <v>1951</v>
       </c>
       <c r="P11" t="s" s="7">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
@@ -2182,16 +2148,13 @@
       <c r="T11" s="8"/>
       <c r="U11" s="8"/>
       <c r="V11" t="s" s="7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W11" s="8"/>
       <c r="X11" s="8"/>
       <c r="Y11" s="8"/>
-      <c r="Z11" s="7">
-        <v>167</v>
-      </c>
-      <c r="AA11" t="s" s="7">
-        <v>32</v>
+      <c r="Z11" t="s" s="7">
+        <v>31</v>
       </c>
     </row>
     <row r="12" ht="20.35" customHeight="1">
@@ -2215,19 +2178,19 @@
         <v>2</v>
       </c>
       <c r="L12" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="M12" t="s" s="7">
         <v>27</v>
       </c>
-      <c r="M12" t="s" s="7">
+      <c r="N12" t="s" s="7">
         <v>28</v>
-      </c>
-      <c r="N12" t="s" s="7">
-        <v>29</v>
       </c>
       <c r="O12" s="7">
         <v>1951</v>
       </c>
       <c r="P12" t="s" s="7">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
@@ -2237,16 +2200,13 @@
       <c r="T12" s="8"/>
       <c r="U12" s="8"/>
       <c r="V12" t="s" s="7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W12" s="8"/>
       <c r="X12" s="8"/>
       <c r="Y12" s="8"/>
-      <c r="Z12" s="7">
-        <v>167</v>
-      </c>
-      <c r="AA12" t="s" s="7">
-        <v>33</v>
+      <c r="Z12" t="s" s="7">
+        <v>32</v>
       </c>
     </row>
     <row r="13" ht="20.35" customHeight="1">
@@ -2270,19 +2230,19 @@
         <v>2</v>
       </c>
       <c r="L13" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="M13" t="s" s="7">
         <v>27</v>
       </c>
-      <c r="M13" t="s" s="7">
+      <c r="N13" t="s" s="7">
         <v>28</v>
-      </c>
-      <c r="N13" t="s" s="7">
-        <v>29</v>
       </c>
       <c r="O13" s="7">
         <v>1952</v>
       </c>
       <c r="P13" t="s" s="7">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q13" s="8"/>
       <c r="R13" s="8"/>
@@ -2292,16 +2252,13 @@
       <c r="T13" s="8"/>
       <c r="U13" s="8"/>
       <c r="V13" t="s" s="7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W13" s="8"/>
       <c r="X13" s="8"/>
       <c r="Y13" s="8"/>
-      <c r="Z13" s="7">
-        <v>167</v>
-      </c>
-      <c r="AA13" t="s" s="7">
-        <v>32</v>
+      <c r="Z13" t="s" s="7">
+        <v>31</v>
       </c>
     </row>
     <row r="14" ht="20.35" customHeight="1">
@@ -2325,19 +2282,19 @@
         <v>2</v>
       </c>
       <c r="L14" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="M14" t="s" s="7">
         <v>27</v>
       </c>
-      <c r="M14" t="s" s="7">
+      <c r="N14" t="s" s="7">
         <v>28</v>
-      </c>
-      <c r="N14" t="s" s="7">
-        <v>29</v>
       </c>
       <c r="O14" s="7">
         <v>1952</v>
       </c>
       <c r="P14" t="s" s="7">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q14" s="8"/>
       <c r="R14" s="8"/>
@@ -2347,16 +2304,13 @@
       <c r="T14" s="8"/>
       <c r="U14" s="8"/>
       <c r="V14" t="s" s="7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W14" s="8"/>
       <c r="X14" s="8"/>
       <c r="Y14" s="8"/>
-      <c r="Z14" s="7">
-        <v>167</v>
-      </c>
-      <c r="AA14" t="s" s="7">
-        <v>33</v>
+      <c r="Z14" t="s" s="7">
+        <v>32</v>
       </c>
     </row>
     <row r="15" ht="20.35" customHeight="1">
@@ -2380,19 +2334,19 @@
         <v>2</v>
       </c>
       <c r="L15" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="M15" t="s" s="7">
         <v>27</v>
       </c>
-      <c r="M15" t="s" s="7">
+      <c r="N15" t="s" s="7">
         <v>28</v>
-      </c>
-      <c r="N15" t="s" s="7">
-        <v>29</v>
       </c>
       <c r="O15" s="7">
         <v>1953</v>
       </c>
       <c r="P15" t="s" s="7">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q15" s="8"/>
       <c r="R15" s="8"/>
@@ -2402,16 +2356,13 @@
       <c r="T15" s="8"/>
       <c r="U15" s="8"/>
       <c r="V15" t="s" s="7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W15" s="8"/>
       <c r="X15" s="8"/>
       <c r="Y15" s="8"/>
-      <c r="Z15" s="7">
-        <v>167</v>
-      </c>
-      <c r="AA15" t="s" s="7">
-        <v>32</v>
+      <c r="Z15" t="s" s="7">
+        <v>31</v>
       </c>
     </row>
     <row r="16" ht="20.35" customHeight="1">
@@ -2435,19 +2386,19 @@
         <v>2</v>
       </c>
       <c r="L16" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="M16" t="s" s="7">
         <v>27</v>
       </c>
-      <c r="M16" t="s" s="7">
+      <c r="N16" t="s" s="7">
         <v>28</v>
-      </c>
-      <c r="N16" t="s" s="7">
-        <v>29</v>
       </c>
       <c r="O16" s="7">
         <v>1953</v>
       </c>
       <c r="P16" t="s" s="7">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q16" s="8"/>
       <c r="R16" s="8"/>
@@ -2457,16 +2408,13 @@
       <c r="T16" s="8"/>
       <c r="U16" s="8"/>
       <c r="V16" t="s" s="7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W16" s="8"/>
       <c r="X16" s="8"/>
       <c r="Y16" s="8"/>
-      <c r="Z16" s="7">
-        <v>167</v>
-      </c>
-      <c r="AA16" t="s" s="7">
-        <v>33</v>
+      <c r="Z16" t="s" s="7">
+        <v>32</v>
       </c>
     </row>
     <row r="17" ht="20.35" customHeight="1">
@@ -2490,19 +2438,19 @@
         <v>2</v>
       </c>
       <c r="L17" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="M17" t="s" s="7">
         <v>27</v>
       </c>
-      <c r="M17" t="s" s="7">
+      <c r="N17" t="s" s="7">
         <v>28</v>
-      </c>
-      <c r="N17" t="s" s="7">
-        <v>29</v>
       </c>
       <c r="O17" s="7">
         <v>1954</v>
       </c>
       <c r="P17" t="s" s="7">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q17" s="8"/>
       <c r="R17" s="8"/>
@@ -2512,16 +2460,13 @@
       <c r="T17" s="8"/>
       <c r="U17" s="8"/>
       <c r="V17" t="s" s="7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W17" s="8"/>
       <c r="X17" s="8"/>
       <c r="Y17" s="8"/>
-      <c r="Z17" s="7">
-        <v>167</v>
-      </c>
-      <c r="AA17" t="s" s="7">
-        <v>32</v>
+      <c r="Z17" t="s" s="7">
+        <v>31</v>
       </c>
     </row>
     <row r="18" ht="20.35" customHeight="1">
@@ -2545,19 +2490,19 @@
         <v>2</v>
       </c>
       <c r="L18" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="M18" t="s" s="7">
         <v>27</v>
       </c>
-      <c r="M18" t="s" s="7">
+      <c r="N18" t="s" s="7">
         <v>28</v>
-      </c>
-      <c r="N18" t="s" s="7">
-        <v>29</v>
       </c>
       <c r="O18" s="7">
         <v>1954</v>
       </c>
       <c r="P18" t="s" s="7">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q18" s="8"/>
       <c r="R18" s="8"/>
@@ -2567,16 +2512,13 @@
       <c r="T18" s="8"/>
       <c r="U18" s="8"/>
       <c r="V18" t="s" s="7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W18" s="8"/>
       <c r="X18" s="8"/>
       <c r="Y18" s="8"/>
-      <c r="Z18" s="7">
-        <v>167</v>
-      </c>
-      <c r="AA18" t="s" s="7">
-        <v>33</v>
+      <c r="Z18" t="s" s="7">
+        <v>32</v>
       </c>
     </row>
     <row r="19" ht="20.35" customHeight="1">
@@ -2600,19 +2542,19 @@
         <v>2</v>
       </c>
       <c r="L19" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="M19" t="s" s="7">
         <v>27</v>
       </c>
-      <c r="M19" t="s" s="7">
+      <c r="N19" t="s" s="7">
         <v>28</v>
-      </c>
-      <c r="N19" t="s" s="7">
-        <v>29</v>
       </c>
       <c r="O19" s="7">
         <v>1955</v>
       </c>
       <c r="P19" t="s" s="7">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q19" s="8"/>
       <c r="R19" s="8"/>
@@ -2622,16 +2564,13 @@
       <c r="T19" s="8"/>
       <c r="U19" s="8"/>
       <c r="V19" t="s" s="7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W19" s="8"/>
       <c r="X19" s="8"/>
       <c r="Y19" s="8"/>
-      <c r="Z19" s="7">
-        <v>167</v>
-      </c>
-      <c r="AA19" t="s" s="7">
-        <v>32</v>
+      <c r="Z19" t="s" s="7">
+        <v>31</v>
       </c>
     </row>
     <row r="20" ht="20.35" customHeight="1">
@@ -2655,19 +2594,19 @@
         <v>2</v>
       </c>
       <c r="L20" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="M20" t="s" s="7">
         <v>27</v>
       </c>
-      <c r="M20" t="s" s="7">
+      <c r="N20" t="s" s="7">
         <v>28</v>
-      </c>
-      <c r="N20" t="s" s="7">
-        <v>29</v>
       </c>
       <c r="O20" s="7">
         <v>1951</v>
       </c>
       <c r="P20" t="s" s="7">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q20" s="8"/>
       <c r="R20" s="8"/>
@@ -2677,16 +2616,13 @@
       <c r="T20" s="8"/>
       <c r="U20" s="8"/>
       <c r="V20" t="s" s="7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W20" s="8"/>
       <c r="X20" s="8"/>
       <c r="Y20" s="8"/>
-      <c r="Z20" s="7">
-        <v>167</v>
-      </c>
-      <c r="AA20" t="s" s="7">
-        <v>32</v>
+      <c r="Z20" t="s" s="7">
+        <v>31</v>
       </c>
     </row>
     <row r="21" ht="20.35" customHeight="1">
@@ -2710,19 +2646,19 @@
         <v>2</v>
       </c>
       <c r="L21" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="M21" t="s" s="7">
         <v>27</v>
       </c>
-      <c r="M21" t="s" s="7">
+      <c r="N21" t="s" s="7">
         <v>28</v>
-      </c>
-      <c r="N21" t="s" s="7">
-        <v>29</v>
       </c>
       <c r="O21" s="7">
         <v>1951</v>
       </c>
       <c r="P21" t="s" s="7">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q21" s="8"/>
       <c r="R21" s="8"/>
@@ -2732,16 +2668,13 @@
       <c r="T21" s="8"/>
       <c r="U21" s="8"/>
       <c r="V21" t="s" s="7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W21" s="8"/>
       <c r="X21" s="8"/>
       <c r="Y21" s="8"/>
-      <c r="Z21" s="7">
-        <v>167</v>
-      </c>
-      <c r="AA21" t="s" s="7">
-        <v>33</v>
+      <c r="Z21" t="s" s="7">
+        <v>32</v>
       </c>
     </row>
     <row r="22" ht="20.35" customHeight="1">
@@ -2765,19 +2698,19 @@
         <v>2</v>
       </c>
       <c r="L22" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="M22" t="s" s="7">
         <v>27</v>
       </c>
-      <c r="M22" t="s" s="7">
+      <c r="N22" t="s" s="7">
         <v>28</v>
-      </c>
-      <c r="N22" t="s" s="7">
-        <v>29</v>
       </c>
       <c r="O22" s="7">
         <v>1952</v>
       </c>
       <c r="P22" t="s" s="7">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q22" s="8"/>
       <c r="R22" s="8"/>
@@ -2787,16 +2720,13 @@
       <c r="T22" s="8"/>
       <c r="U22" s="8"/>
       <c r="V22" t="s" s="7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W22" s="8"/>
       <c r="X22" s="8"/>
       <c r="Y22" s="8"/>
-      <c r="Z22" s="7">
-        <v>167</v>
-      </c>
-      <c r="AA22" t="s" s="7">
-        <v>32</v>
+      <c r="Z22" t="s" s="7">
+        <v>31</v>
       </c>
     </row>
     <row r="23" ht="20.35" customHeight="1">
@@ -2820,19 +2750,19 @@
         <v>2</v>
       </c>
       <c r="L23" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="M23" t="s" s="7">
         <v>27</v>
       </c>
-      <c r="M23" t="s" s="7">
+      <c r="N23" t="s" s="7">
         <v>28</v>
-      </c>
-      <c r="N23" t="s" s="7">
-        <v>29</v>
       </c>
       <c r="O23" s="7">
         <v>1952</v>
       </c>
       <c r="P23" t="s" s="7">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q23" s="8"/>
       <c r="R23" s="8"/>
@@ -2842,16 +2772,13 @@
       <c r="T23" s="8"/>
       <c r="U23" s="8"/>
       <c r="V23" t="s" s="7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W23" s="8"/>
       <c r="X23" s="8"/>
       <c r="Y23" s="8"/>
-      <c r="Z23" s="7">
-        <v>167</v>
-      </c>
-      <c r="AA23" t="s" s="7">
-        <v>33</v>
+      <c r="Z23" t="s" s="7">
+        <v>32</v>
       </c>
     </row>
     <row r="24" ht="20.35" customHeight="1">
@@ -2875,19 +2802,19 @@
         <v>2</v>
       </c>
       <c r="L24" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="M24" t="s" s="7">
         <v>27</v>
       </c>
-      <c r="M24" t="s" s="7">
+      <c r="N24" t="s" s="7">
         <v>28</v>
-      </c>
-      <c r="N24" t="s" s="7">
-        <v>29</v>
       </c>
       <c r="O24" s="7">
         <v>1953</v>
       </c>
       <c r="P24" t="s" s="7">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q24" s="8"/>
       <c r="R24" s="8"/>
@@ -2897,16 +2824,13 @@
       <c r="T24" s="8"/>
       <c r="U24" s="8"/>
       <c r="V24" t="s" s="7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W24" s="8"/>
       <c r="X24" s="8"/>
       <c r="Y24" s="8"/>
-      <c r="Z24" s="7">
-        <v>167</v>
-      </c>
-      <c r="AA24" t="s" s="7">
-        <v>32</v>
+      <c r="Z24" t="s" s="7">
+        <v>31</v>
       </c>
     </row>
     <row r="25" ht="20.35" customHeight="1">
@@ -2930,19 +2854,19 @@
         <v>2</v>
       </c>
       <c r="L25" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="M25" t="s" s="7">
         <v>27</v>
       </c>
-      <c r="M25" t="s" s="7">
+      <c r="N25" t="s" s="7">
         <v>28</v>
-      </c>
-      <c r="N25" t="s" s="7">
-        <v>29</v>
       </c>
       <c r="O25" s="7">
         <v>1953</v>
       </c>
       <c r="P25" t="s" s="7">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q25" s="8"/>
       <c r="R25" s="8"/>
@@ -2952,16 +2876,13 @@
       <c r="T25" s="8"/>
       <c r="U25" s="8"/>
       <c r="V25" t="s" s="7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W25" s="8"/>
       <c r="X25" s="8"/>
       <c r="Y25" s="8"/>
-      <c r="Z25" s="7">
-        <v>167</v>
-      </c>
-      <c r="AA25" t="s" s="7">
-        <v>33</v>
+      <c r="Z25" t="s" s="7">
+        <v>32</v>
       </c>
     </row>
     <row r="26" ht="20.35" customHeight="1">
@@ -2985,19 +2906,19 @@
         <v>2</v>
       </c>
       <c r="L26" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="M26" t="s" s="7">
         <v>27</v>
       </c>
-      <c r="M26" t="s" s="7">
+      <c r="N26" t="s" s="7">
         <v>28</v>
-      </c>
-      <c r="N26" t="s" s="7">
-        <v>29</v>
       </c>
       <c r="O26" s="7">
         <v>1954</v>
       </c>
       <c r="P26" t="s" s="7">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q26" s="8"/>
       <c r="R26" s="8"/>
@@ -3007,16 +2928,13 @@
       <c r="T26" s="8"/>
       <c r="U26" s="8"/>
       <c r="V26" t="s" s="7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W26" s="8"/>
       <c r="X26" s="8"/>
       <c r="Y26" s="8"/>
-      <c r="Z26" s="7">
-        <v>167</v>
-      </c>
-      <c r="AA26" t="s" s="7">
-        <v>32</v>
+      <c r="Z26" t="s" s="7">
+        <v>31</v>
       </c>
     </row>
     <row r="27" ht="20.35" customHeight="1">
@@ -3040,19 +2958,19 @@
         <v>2</v>
       </c>
       <c r="L27" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="M27" t="s" s="7">
         <v>27</v>
       </c>
-      <c r="M27" t="s" s="7">
+      <c r="N27" t="s" s="7">
         <v>28</v>
-      </c>
-      <c r="N27" t="s" s="7">
-        <v>29</v>
       </c>
       <c r="O27" s="7">
         <v>1954</v>
       </c>
       <c r="P27" t="s" s="7">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q27" s="8"/>
       <c r="R27" s="8"/>
@@ -3062,16 +2980,13 @@
       <c r="T27" s="8"/>
       <c r="U27" s="8"/>
       <c r="V27" t="s" s="7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W27" s="8"/>
       <c r="X27" s="8"/>
       <c r="Y27" s="8"/>
-      <c r="Z27" s="7">
-        <v>167</v>
-      </c>
-      <c r="AA27" t="s" s="7">
-        <v>33</v>
+      <c r="Z27" t="s" s="7">
+        <v>32</v>
       </c>
     </row>
     <row r="28" ht="20.35" customHeight="1">
@@ -3095,19 +3010,19 @@
         <v>2</v>
       </c>
       <c r="L28" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="M28" t="s" s="7">
         <v>27</v>
       </c>
-      <c r="M28" t="s" s="7">
+      <c r="N28" t="s" s="7">
         <v>28</v>
-      </c>
-      <c r="N28" t="s" s="7">
-        <v>29</v>
       </c>
       <c r="O28" s="7">
         <v>1955</v>
       </c>
       <c r="P28" t="s" s="7">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q28" s="8"/>
       <c r="R28" s="8"/>
@@ -3117,16 +3032,13 @@
       <c r="T28" s="8"/>
       <c r="U28" s="8"/>
       <c r="V28" t="s" s="7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W28" s="8"/>
       <c r="X28" s="8"/>
       <c r="Y28" s="8"/>
-      <c r="Z28" s="7">
-        <v>167</v>
-      </c>
-      <c r="AA28" t="s" s="7">
-        <v>32</v>
+      <c r="Z28" t="s" s="7">
+        <v>31</v>
       </c>
     </row>
     <row r="29" ht="20.35" customHeight="1">
@@ -3150,19 +3062,19 @@
         <v>2</v>
       </c>
       <c r="L29" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="M29" t="s" s="7">
         <v>27</v>
       </c>
-      <c r="M29" t="s" s="7">
+      <c r="N29" t="s" s="7">
         <v>28</v>
-      </c>
-      <c r="N29" t="s" s="7">
-        <v>29</v>
       </c>
       <c r="O29" s="7">
         <v>1951</v>
       </c>
       <c r="P29" t="s" s="7">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q29" s="8"/>
       <c r="R29" s="8"/>
@@ -3172,16 +3084,13 @@
       <c r="T29" s="8"/>
       <c r="U29" s="8"/>
       <c r="V29" t="s" s="7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W29" s="8"/>
       <c r="X29" s="8"/>
       <c r="Y29" s="8"/>
-      <c r="Z29" s="7">
-        <v>167</v>
-      </c>
-      <c r="AA29" t="s" s="7">
-        <v>32</v>
+      <c r="Z29" t="s" s="7">
+        <v>31</v>
       </c>
     </row>
     <row r="30" ht="20.35" customHeight="1">
@@ -3205,19 +3114,19 @@
         <v>2</v>
       </c>
       <c r="L30" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="M30" t="s" s="7">
         <v>27</v>
       </c>
-      <c r="M30" t="s" s="7">
+      <c r="N30" t="s" s="7">
         <v>28</v>
-      </c>
-      <c r="N30" t="s" s="7">
-        <v>29</v>
       </c>
       <c r="O30" s="7">
         <v>1951</v>
       </c>
       <c r="P30" t="s" s="7">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q30" s="8"/>
       <c r="R30" s="8"/>
@@ -3227,16 +3136,13 @@
       <c r="T30" s="8"/>
       <c r="U30" s="8"/>
       <c r="V30" t="s" s="7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W30" s="8"/>
       <c r="X30" s="8"/>
       <c r="Y30" s="8"/>
-      <c r="Z30" s="7">
-        <v>167</v>
-      </c>
-      <c r="AA30" t="s" s="7">
-        <v>33</v>
+      <c r="Z30" t="s" s="7">
+        <v>32</v>
       </c>
     </row>
     <row r="31" ht="20.35" customHeight="1">
@@ -3260,19 +3166,19 @@
         <v>2</v>
       </c>
       <c r="L31" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="M31" t="s" s="7">
         <v>27</v>
       </c>
-      <c r="M31" t="s" s="7">
+      <c r="N31" t="s" s="7">
         <v>28</v>
-      </c>
-      <c r="N31" t="s" s="7">
-        <v>29</v>
       </c>
       <c r="O31" s="7">
         <v>1952</v>
       </c>
       <c r="P31" t="s" s="7">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q31" s="8"/>
       <c r="R31" s="8"/>
@@ -3282,16 +3188,13 @@
       <c r="T31" s="8"/>
       <c r="U31" s="8"/>
       <c r="V31" t="s" s="7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W31" s="8"/>
       <c r="X31" s="8"/>
       <c r="Y31" s="8"/>
-      <c r="Z31" s="7">
-        <v>167</v>
-      </c>
-      <c r="AA31" t="s" s="7">
-        <v>32</v>
+      <c r="Z31" t="s" s="7">
+        <v>31</v>
       </c>
     </row>
     <row r="32" ht="20.35" customHeight="1">
@@ -3315,19 +3218,19 @@
         <v>2</v>
       </c>
       <c r="L32" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="M32" t="s" s="7">
         <v>27</v>
       </c>
-      <c r="M32" t="s" s="7">
+      <c r="N32" t="s" s="7">
         <v>28</v>
-      </c>
-      <c r="N32" t="s" s="7">
-        <v>29</v>
       </c>
       <c r="O32" s="7">
         <v>1952</v>
       </c>
       <c r="P32" t="s" s="7">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q32" s="8"/>
       <c r="R32" s="8"/>
@@ -3337,16 +3240,13 @@
       <c r="T32" s="8"/>
       <c r="U32" s="8"/>
       <c r="V32" t="s" s="7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W32" s="8"/>
       <c r="X32" s="8"/>
       <c r="Y32" s="8"/>
-      <c r="Z32" s="7">
-        <v>167</v>
-      </c>
-      <c r="AA32" t="s" s="7">
-        <v>33</v>
+      <c r="Z32" t="s" s="7">
+        <v>32</v>
       </c>
     </row>
     <row r="33" ht="20.35" customHeight="1">
@@ -3370,19 +3270,19 @@
         <v>2</v>
       </c>
       <c r="L33" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="M33" t="s" s="7">
         <v>27</v>
       </c>
-      <c r="M33" t="s" s="7">
+      <c r="N33" t="s" s="7">
         <v>28</v>
-      </c>
-      <c r="N33" t="s" s="7">
-        <v>29</v>
       </c>
       <c r="O33" s="7">
         <v>1953</v>
       </c>
       <c r="P33" t="s" s="7">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q33" s="8"/>
       <c r="R33" s="8"/>
@@ -3392,16 +3292,13 @@
       <c r="T33" s="8"/>
       <c r="U33" s="8"/>
       <c r="V33" t="s" s="7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W33" s="8"/>
       <c r="X33" s="8"/>
       <c r="Y33" s="8"/>
-      <c r="Z33" s="7">
-        <v>167</v>
-      </c>
-      <c r="AA33" t="s" s="7">
-        <v>32</v>
+      <c r="Z33" t="s" s="7">
+        <v>31</v>
       </c>
     </row>
     <row r="34" ht="20.35" customHeight="1">
@@ -3425,19 +3322,19 @@
         <v>2</v>
       </c>
       <c r="L34" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="M34" t="s" s="7">
         <v>27</v>
       </c>
-      <c r="M34" t="s" s="7">
+      <c r="N34" t="s" s="7">
         <v>28</v>
-      </c>
-      <c r="N34" t="s" s="7">
-        <v>29</v>
       </c>
       <c r="O34" s="7">
         <v>1953</v>
       </c>
       <c r="P34" t="s" s="7">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q34" s="8"/>
       <c r="R34" s="8"/>
@@ -3447,16 +3344,13 @@
       <c r="T34" s="8"/>
       <c r="U34" s="8"/>
       <c r="V34" t="s" s="7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W34" s="8"/>
       <c r="X34" s="8"/>
       <c r="Y34" s="8"/>
-      <c r="Z34" s="7">
-        <v>167</v>
-      </c>
-      <c r="AA34" t="s" s="7">
-        <v>33</v>
+      <c r="Z34" t="s" s="7">
+        <v>32</v>
       </c>
     </row>
     <row r="35" ht="20.35" customHeight="1">
@@ -3480,19 +3374,19 @@
         <v>2</v>
       </c>
       <c r="L35" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="M35" t="s" s="7">
         <v>27</v>
       </c>
-      <c r="M35" t="s" s="7">
+      <c r="N35" t="s" s="7">
         <v>28</v>
-      </c>
-      <c r="N35" t="s" s="7">
-        <v>29</v>
       </c>
       <c r="O35" s="7">
         <v>1954</v>
       </c>
       <c r="P35" t="s" s="7">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q35" s="8"/>
       <c r="R35" s="8"/>
@@ -3502,16 +3396,13 @@
       <c r="T35" s="8"/>
       <c r="U35" s="8"/>
       <c r="V35" t="s" s="7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W35" s="8"/>
       <c r="X35" s="8"/>
       <c r="Y35" s="8"/>
-      <c r="Z35" s="7">
-        <v>167</v>
-      </c>
-      <c r="AA35" t="s" s="7">
-        <v>32</v>
+      <c r="Z35" t="s" s="7">
+        <v>31</v>
       </c>
     </row>
     <row r="36" ht="20.35" customHeight="1">
@@ -3535,19 +3426,19 @@
         <v>2</v>
       </c>
       <c r="L36" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="M36" t="s" s="7">
         <v>27</v>
       </c>
-      <c r="M36" t="s" s="7">
+      <c r="N36" t="s" s="7">
         <v>28</v>
-      </c>
-      <c r="N36" t="s" s="7">
-        <v>29</v>
       </c>
       <c r="O36" s="7">
         <v>1954</v>
       </c>
       <c r="P36" t="s" s="7">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q36" s="8"/>
       <c r="R36" s="8"/>
@@ -3557,16 +3448,13 @@
       <c r="T36" s="8"/>
       <c r="U36" s="8"/>
       <c r="V36" t="s" s="7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W36" s="8"/>
       <c r="X36" s="8"/>
       <c r="Y36" s="8"/>
-      <c r="Z36" s="7">
-        <v>167</v>
-      </c>
-      <c r="AA36" t="s" s="7">
-        <v>33</v>
+      <c r="Z36" t="s" s="7">
+        <v>32</v>
       </c>
     </row>
     <row r="37" ht="20.35" customHeight="1">
@@ -3590,19 +3478,19 @@
         <v>2</v>
       </c>
       <c r="L37" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="M37" t="s" s="7">
         <v>27</v>
       </c>
-      <c r="M37" t="s" s="7">
+      <c r="N37" t="s" s="7">
         <v>28</v>
-      </c>
-      <c r="N37" t="s" s="7">
-        <v>29</v>
       </c>
       <c r="O37" s="7">
         <v>1955</v>
       </c>
       <c r="P37" t="s" s="7">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q37" s="8"/>
       <c r="R37" s="8"/>
@@ -3612,16 +3500,13 @@
       <c r="T37" s="8"/>
       <c r="U37" s="8"/>
       <c r="V37" t="s" s="7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W37" s="8"/>
       <c r="X37" s="8"/>
       <c r="Y37" s="8"/>
-      <c r="Z37" s="7">
-        <v>167</v>
-      </c>
-      <c r="AA37" t="s" s="7">
-        <v>32</v>
+      <c r="Z37" t="s" s="7">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/test_uploads/new_test_data_multipage.xlsx
+++ b/test_uploads/new_test_data_multipage.xlsx
@@ -33,15 +33,6 @@
   </si>
   <si>
     <t>province state</t>
-  </si>
-  <si>
-    <t>ICES area</t>
-  </si>
-  <si>
-    <t>NAFO division</t>
-  </si>
-  <si>
-    <t>CCAMLR area</t>
   </si>
   <si>
     <t>layer</t>
@@ -90,6 +81,15 @@
   </si>
   <si>
     <t>notes</t>
+  </si>
+  <si>
+    <t>ICES area</t>
+  </si>
+  <si>
+    <t>NAFO division</t>
+  </si>
+  <si>
+    <t>CCAMLR area</t>
   </si>
   <si>
     <t>Industrial</t>
@@ -171,7 +171,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -201,6 +201,19 @@
     </border>
     <border>
       <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
       <right style="thin">
         <color indexed="10"/>
       </right>
@@ -244,7 +257,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -260,17 +273,26 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="1" fontId="6" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1624,1890 +1646,1890 @@
       <c r="V1" t="s" s="3">
         <v>21</v>
       </c>
-      <c r="W1" t="s" s="3">
+      <c r="W1" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="X1" t="s" s="3">
+      <c r="X1" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="Y1" t="s" s="3">
+      <c r="Y1" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="Z1" t="s" s="4">
+      <c r="Z1" t="s" s="5">
         <v>25</v>
       </c>
     </row>
     <row r="2" ht="20.15" customHeight="1">
-      <c r="A2" s="5">
+      <c r="A2" s="6">
         <v>165</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="5">
+      <c r="B2" s="7"/>
+      <c r="C2" s="6">
         <v>686</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="5">
+      <c r="D2" s="7"/>
+      <c r="E2" s="6">
         <v>34</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="5">
-        <v>2</v>
-      </c>
-      <c r="L2" t="s" s="5">
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="6">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s" s="6">
         <v>26</v>
       </c>
-      <c r="M2" t="s" s="5">
+      <c r="J2" t="s" s="6">
         <v>27</v>
       </c>
-      <c r="N2" t="s" s="5">
+      <c r="K2" t="s" s="6">
         <v>28</v>
       </c>
-      <c r="O2" s="5">
+      <c r="L2" s="6">
         <v>1951</v>
       </c>
-      <c r="P2" t="s" s="5">
+      <c r="M2" t="s" s="6">
         <v>29</v>
       </c>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="5">
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="6">
         <v>12.8212595279804</v>
       </c>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" t="s" s="5">
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" t="s" s="6">
         <v>30</v>
       </c>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" t="s" s="5">
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" t="s" s="6">
         <v>31</v>
       </c>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
     </row>
     <row r="3" ht="20.35" customHeight="1">
-      <c r="A3" s="7">
+      <c r="A3" s="9">
         <v>165</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="7">
+      <c r="B3" s="10"/>
+      <c r="C3" s="9">
         <v>686</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="7">
+      <c r="D3" s="10"/>
+      <c r="E3" s="9">
         <v>34</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="7">
-        <v>2</v>
-      </c>
-      <c r="L3" t="s" s="7">
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="9">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s" s="9">
         <v>26</v>
       </c>
-      <c r="M3" t="s" s="7">
+      <c r="J3" t="s" s="9">
         <v>27</v>
       </c>
-      <c r="N3" t="s" s="7">
+      <c r="K3" t="s" s="9">
         <v>28</v>
       </c>
-      <c r="O3" s="7">
+      <c r="L3" s="9">
         <v>1951</v>
       </c>
-      <c r="P3" t="s" s="7">
+      <c r="M3" t="s" s="9">
         <v>29</v>
       </c>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="7">
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="9">
         <v>7.23909255914716</v>
       </c>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" t="s" s="7">
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" t="s" s="9">
         <v>30</v>
       </c>
-      <c r="W3" s="8"/>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="8"/>
-      <c r="Z3" t="s" s="7">
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" t="s" s="9">
         <v>32</v>
       </c>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
     </row>
     <row r="4" ht="20.35" customHeight="1">
-      <c r="A4" s="7">
+      <c r="A4" s="9">
         <v>165</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="7">
+      <c r="B4" s="10"/>
+      <c r="C4" s="9">
         <v>686</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="7">
+      <c r="D4" s="10"/>
+      <c r="E4" s="9">
         <v>34</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="7">
-        <v>2</v>
-      </c>
-      <c r="L4" t="s" s="7">
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="9">
+        <v>2</v>
+      </c>
+      <c r="I4" t="s" s="9">
         <v>26</v>
       </c>
-      <c r="M4" t="s" s="7">
+      <c r="J4" t="s" s="9">
         <v>27</v>
       </c>
-      <c r="N4" t="s" s="7">
+      <c r="K4" t="s" s="9">
         <v>28</v>
       </c>
-      <c r="O4" s="7">
+      <c r="L4" s="9">
         <v>1952</v>
       </c>
-      <c r="P4" t="s" s="7">
+      <c r="M4" t="s" s="9">
         <v>29</v>
       </c>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="7">
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="9">
         <v>51.140148484989</v>
       </c>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" t="s" s="7">
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" t="s" s="9">
         <v>30</v>
       </c>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" t="s" s="7">
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" t="s" s="9">
         <v>31</v>
       </c>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
     </row>
     <row r="5" ht="20.35" customHeight="1">
-      <c r="A5" s="7">
+      <c r="A5" s="9">
         <v>165</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="7">
+      <c r="B5" s="10"/>
+      <c r="C5" s="9">
         <v>686</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="7">
+      <c r="D5" s="10"/>
+      <c r="E5" s="9">
         <v>34</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="7">
-        <v>2</v>
-      </c>
-      <c r="L5" t="s" s="7">
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="9">
+        <v>2</v>
+      </c>
+      <c r="I5" t="s" s="9">
         <v>26</v>
       </c>
-      <c r="M5" t="s" s="7">
+      <c r="J5" t="s" s="9">
         <v>27</v>
       </c>
-      <c r="N5" t="s" s="7">
+      <c r="K5" t="s" s="9">
         <v>28</v>
       </c>
-      <c r="O5" s="7">
+      <c r="L5" s="9">
         <v>1952</v>
       </c>
-      <c r="P5" t="s" s="7">
+      <c r="M5" t="s" s="9">
         <v>29</v>
       </c>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="7">
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="9">
         <v>14.4781851182943</v>
       </c>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" t="s" s="7">
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" t="s" s="9">
         <v>30</v>
       </c>
-      <c r="W5" s="8"/>
-      <c r="X5" s="8"/>
-      <c r="Y5" s="8"/>
-      <c r="Z5" t="s" s="7">
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" t="s" s="9">
         <v>32</v>
       </c>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
     </row>
     <row r="6" ht="20.35" customHeight="1">
-      <c r="A6" s="7">
+      <c r="A6" s="9">
         <v>165</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="7">
+      <c r="B6" s="10"/>
+      <c r="C6" s="9">
         <v>686</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="7">
+      <c r="D6" s="10"/>
+      <c r="E6" s="9">
         <v>34</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="7">
-        <v>2</v>
-      </c>
-      <c r="L6" t="s" s="7">
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="9">
+        <v>2</v>
+      </c>
+      <c r="I6" t="s" s="9">
         <v>26</v>
       </c>
-      <c r="M6" t="s" s="7">
+      <c r="J6" t="s" s="9">
         <v>27</v>
       </c>
-      <c r="N6" t="s" s="7">
+      <c r="K6" t="s" s="9">
         <v>28</v>
       </c>
-      <c r="O6" s="7">
+      <c r="L6" s="9">
         <v>1953</v>
       </c>
-      <c r="P6" t="s" s="7">
+      <c r="M6" t="s" s="9">
         <v>29</v>
       </c>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="7">
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="9">
         <v>114.736682010622</v>
       </c>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" t="s" s="7">
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" t="s" s="9">
         <v>30</v>
       </c>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="8"/>
-      <c r="Z6" t="s" s="7">
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" t="s" s="9">
         <v>31</v>
       </c>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
     </row>
     <row r="7" ht="20.35" customHeight="1">
-      <c r="A7" s="7">
+      <c r="A7" s="9">
         <v>165</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="7">
+      <c r="B7" s="10"/>
+      <c r="C7" s="9">
         <v>686</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="7">
+      <c r="D7" s="10"/>
+      <c r="E7" s="9">
         <v>34</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="7">
-        <v>2</v>
-      </c>
-      <c r="L7" t="s" s="7">
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="9">
+        <v>2</v>
+      </c>
+      <c r="I7" t="s" s="9">
         <v>26</v>
       </c>
-      <c r="M7" t="s" s="7">
+      <c r="J7" t="s" s="9">
         <v>27</v>
       </c>
-      <c r="N7" t="s" s="7">
+      <c r="K7" t="s" s="9">
         <v>28</v>
       </c>
-      <c r="O7" s="7">
+      <c r="L7" s="9">
         <v>1953</v>
       </c>
-      <c r="P7" t="s" s="7">
+      <c r="M7" t="s" s="9">
         <v>29</v>
       </c>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="7">
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="9">
         <v>21.7172776774415</v>
       </c>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" t="s" s="7">
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" t="s" s="9">
         <v>30</v>
       </c>
-      <c r="W7" s="8"/>
-      <c r="X7" s="8"/>
-      <c r="Y7" s="8"/>
-      <c r="Z7" t="s" s="7">
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" t="s" s="9">
         <v>32</v>
       </c>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
     </row>
     <row r="8" ht="20.35" customHeight="1">
-      <c r="A8" s="7">
+      <c r="A8" s="9">
         <v>165</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="7">
+      <c r="B8" s="10"/>
+      <c r="C8" s="9">
         <v>686</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="7">
+      <c r="D8" s="10"/>
+      <c r="E8" s="9">
         <v>34</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="7">
-        <v>2</v>
-      </c>
-      <c r="L8" t="s" s="7">
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="9">
+        <v>2</v>
+      </c>
+      <c r="I8" t="s" s="9">
         <v>26</v>
       </c>
-      <c r="M8" t="s" s="7">
+      <c r="J8" t="s" s="9">
         <v>27</v>
       </c>
-      <c r="N8" t="s" s="7">
+      <c r="K8" t="s" s="9">
         <v>28</v>
       </c>
-      <c r="O8" s="7">
+      <c r="L8" s="9">
         <v>1954</v>
       </c>
-      <c r="P8" t="s" s="7">
+      <c r="M8" t="s" s="9">
         <v>29</v>
       </c>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="7">
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="9">
         <v>203.387341351136</v>
       </c>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" t="s" s="7">
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" t="s" s="9">
         <v>30</v>
       </c>
-      <c r="W8" s="8"/>
-      <c r="X8" s="8"/>
-      <c r="Y8" s="8"/>
-      <c r="Z8" t="s" s="7">
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" t="s" s="9">
         <v>31</v>
       </c>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
     </row>
     <row r="9" ht="23.35" customHeight="1">
-      <c r="A9" s="7">
+      <c r="A9" s="9">
         <v>165</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="7">
+      <c r="B9" s="10"/>
+      <c r="C9" s="9">
         <v>686</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="7">
+      <c r="D9" s="10"/>
+      <c r="E9" s="9">
         <v>34</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="7">
-        <v>2</v>
-      </c>
-      <c r="L9" t="s" s="7">
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="9">
+        <v>2</v>
+      </c>
+      <c r="I9" t="s" s="9">
         <v>26</v>
       </c>
-      <c r="M9" t="s" s="7">
+      <c r="J9" t="s" s="9">
         <v>27</v>
       </c>
-      <c r="N9" t="s" s="7">
+      <c r="K9" t="s" s="9">
         <v>28</v>
       </c>
-      <c r="O9" s="7">
+      <c r="L9" s="9">
         <v>1954</v>
       </c>
-      <c r="P9" t="s" s="7">
+      <c r="M9" t="s" s="9">
         <v>29</v>
       </c>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="7">
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="9">
         <v>28.9563702365887</v>
       </c>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" t="s" s="7">
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" t="s" s="9">
         <v>30</v>
       </c>
-      <c r="W9" s="8"/>
-      <c r="X9" s="8"/>
-      <c r="Y9" s="8"/>
-      <c r="Z9" t="s" s="7">
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" t="s" s="9">
         <v>32</v>
       </c>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
     </row>
     <row r="10" ht="20.35" customHeight="1">
-      <c r="A10" s="7">
+      <c r="A10" s="9">
         <v>165</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="7">
+      <c r="B10" s="10"/>
+      <c r="C10" s="9">
         <v>686</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="7">
+      <c r="D10" s="10"/>
+      <c r="E10" s="9">
         <v>34</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="7">
-        <v>2</v>
-      </c>
-      <c r="L10" t="s" s="7">
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="9">
+        <v>2</v>
+      </c>
+      <c r="I10" t="s" s="9">
         <v>26</v>
       </c>
-      <c r="M10" t="s" s="7">
+      <c r="J10" t="s" s="9">
         <v>27</v>
       </c>
-      <c r="N10" t="s" s="7">
+      <c r="K10" t="s" s="9">
         <v>28</v>
       </c>
-      <c r="O10" s="7">
+      <c r="L10" s="9">
         <v>1955</v>
       </c>
-      <c r="P10" t="s" s="7">
+      <c r="M10" t="s" s="9">
         <v>29</v>
       </c>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="7">
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="9">
         <v>316.865073859446</v>
       </c>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" t="s" s="7">
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" t="s" s="9">
         <v>30</v>
       </c>
-      <c r="W10" s="8"/>
-      <c r="X10" s="8"/>
-      <c r="Y10" s="8"/>
-      <c r="Z10" t="s" s="7">
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" t="s" s="9">
         <v>31</v>
       </c>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
     </row>
     <row r="11" ht="20.35" customHeight="1">
-      <c r="A11" s="7">
+      <c r="A11" s="9">
         <v>165</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="7">
+      <c r="B11" s="10"/>
+      <c r="C11" s="9">
         <v>686</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="7">
+      <c r="D11" s="10"/>
+      <c r="E11" s="9">
         <v>34</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="7">
-        <v>2</v>
-      </c>
-      <c r="L11" t="s" s="7">
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="9">
+        <v>2</v>
+      </c>
+      <c r="I11" t="s" s="9">
         <v>26</v>
       </c>
-      <c r="M11" t="s" s="7">
+      <c r="J11" t="s" s="9">
         <v>27</v>
       </c>
-      <c r="N11" t="s" s="7">
+      <c r="K11" t="s" s="9">
         <v>28</v>
       </c>
-      <c r="O11" s="7">
+      <c r="L11" s="9">
         <v>1951</v>
       </c>
-      <c r="P11" t="s" s="7">
+      <c r="M11" t="s" s="9">
         <v>29</v>
       </c>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="7">
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="9">
         <v>12.8212595279804</v>
       </c>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" t="s" s="7">
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" t="s" s="9">
         <v>30</v>
       </c>
-      <c r="W11" s="8"/>
-      <c r="X11" s="8"/>
-      <c r="Y11" s="8"/>
-      <c r="Z11" t="s" s="7">
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" t="s" s="9">
         <v>31</v>
       </c>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
     </row>
     <row r="12" ht="20.35" customHeight="1">
-      <c r="A12" s="7">
+      <c r="A12" s="9">
         <v>165</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="7">
+      <c r="B12" s="10"/>
+      <c r="C12" s="9">
         <v>686</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="7">
+      <c r="D12" s="10"/>
+      <c r="E12" s="9">
         <v>34</v>
       </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="7">
-        <v>2</v>
-      </c>
-      <c r="L12" t="s" s="7">
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="9">
+        <v>2</v>
+      </c>
+      <c r="I12" t="s" s="9">
         <v>26</v>
       </c>
-      <c r="M12" t="s" s="7">
+      <c r="J12" t="s" s="9">
         <v>27</v>
       </c>
-      <c r="N12" t="s" s="7">
+      <c r="K12" t="s" s="9">
         <v>28</v>
       </c>
-      <c r="O12" s="7">
+      <c r="L12" s="9">
         <v>1951</v>
       </c>
-      <c r="P12" t="s" s="7">
+      <c r="M12" t="s" s="9">
         <v>29</v>
       </c>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="7">
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="9">
         <v>7.23909255914716</v>
       </c>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-      <c r="V12" t="s" s="7">
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" t="s" s="9">
         <v>30</v>
       </c>
-      <c r="W12" s="8"/>
-      <c r="X12" s="8"/>
-      <c r="Y12" s="8"/>
-      <c r="Z12" t="s" s="7">
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" t="s" s="9">
         <v>32</v>
       </c>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
     </row>
     <row r="13" ht="20.35" customHeight="1">
-      <c r="A13" s="7">
+      <c r="A13" s="9">
         <v>165</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="7">
+      <c r="B13" s="10"/>
+      <c r="C13" s="9">
         <v>686</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="7">
+      <c r="D13" s="10"/>
+      <c r="E13" s="9">
         <v>34</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="7">
-        <v>2</v>
-      </c>
-      <c r="L13" t="s" s="7">
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="9">
+        <v>2</v>
+      </c>
+      <c r="I13" t="s" s="9">
         <v>26</v>
       </c>
-      <c r="M13" t="s" s="7">
+      <c r="J13" t="s" s="9">
         <v>27</v>
       </c>
-      <c r="N13" t="s" s="7">
+      <c r="K13" t="s" s="9">
         <v>28</v>
       </c>
-      <c r="O13" s="7">
+      <c r="L13" s="9">
         <v>1952</v>
       </c>
-      <c r="P13" t="s" s="7">
+      <c r="M13" t="s" s="9">
         <v>29</v>
       </c>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="7">
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="9">
         <v>51.140148484989</v>
       </c>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
-      <c r="V13" t="s" s="7">
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" t="s" s="9">
         <v>30</v>
       </c>
-      <c r="W13" s="8"/>
-      <c r="X13" s="8"/>
-      <c r="Y13" s="8"/>
-      <c r="Z13" t="s" s="7">
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" t="s" s="9">
         <v>31</v>
       </c>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="11"/>
     </row>
     <row r="14" ht="20.35" customHeight="1">
-      <c r="A14" s="7">
+      <c r="A14" s="9">
         <v>165</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="7">
+      <c r="B14" s="10"/>
+      <c r="C14" s="9">
         <v>686</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="7">
+      <c r="D14" s="10"/>
+      <c r="E14" s="9">
         <v>34</v>
       </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="7">
-        <v>2</v>
-      </c>
-      <c r="L14" t="s" s="7">
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="9">
+        <v>2</v>
+      </c>
+      <c r="I14" t="s" s="9">
         <v>26</v>
       </c>
-      <c r="M14" t="s" s="7">
+      <c r="J14" t="s" s="9">
         <v>27</v>
       </c>
-      <c r="N14" t="s" s="7">
+      <c r="K14" t="s" s="9">
         <v>28</v>
       </c>
-      <c r="O14" s="7">
+      <c r="L14" s="9">
         <v>1952</v>
       </c>
-      <c r="P14" t="s" s="7">
+      <c r="M14" t="s" s="9">
         <v>29</v>
       </c>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="7">
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="9">
         <v>14.4781851182943</v>
       </c>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" t="s" s="7">
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" t="s" s="9">
         <v>30</v>
       </c>
-      <c r="W14" s="8"/>
-      <c r="X14" s="8"/>
-      <c r="Y14" s="8"/>
-      <c r="Z14" t="s" s="7">
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" t="s" s="9">
         <v>32</v>
       </c>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="11"/>
     </row>
     <row r="15" ht="20.35" customHeight="1">
-      <c r="A15" s="7">
+      <c r="A15" s="9">
         <v>165</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="7">
+      <c r="B15" s="10"/>
+      <c r="C15" s="9">
         <v>686</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="7">
+      <c r="D15" s="10"/>
+      <c r="E15" s="9">
         <v>34</v>
       </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="7">
-        <v>2</v>
-      </c>
-      <c r="L15" t="s" s="7">
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="9">
+        <v>2</v>
+      </c>
+      <c r="I15" t="s" s="9">
         <v>26</v>
       </c>
-      <c r="M15" t="s" s="7">
+      <c r="J15" t="s" s="9">
         <v>27</v>
       </c>
-      <c r="N15" t="s" s="7">
+      <c r="K15" t="s" s="9">
         <v>28</v>
       </c>
-      <c r="O15" s="7">
+      <c r="L15" s="9">
         <v>1953</v>
       </c>
-      <c r="P15" t="s" s="7">
+      <c r="M15" t="s" s="9">
         <v>29</v>
       </c>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="7">
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="9">
         <v>114.736682010622</v>
       </c>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
-      <c r="V15" t="s" s="7">
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" t="s" s="9">
         <v>30</v>
       </c>
-      <c r="W15" s="8"/>
-      <c r="X15" s="8"/>
-      <c r="Y15" s="8"/>
-      <c r="Z15" t="s" s="7">
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" t="s" s="9">
         <v>31</v>
       </c>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
     </row>
     <row r="16" ht="20.35" customHeight="1">
-      <c r="A16" s="7">
+      <c r="A16" s="9">
         <v>165</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="7">
+      <c r="B16" s="10"/>
+      <c r="C16" s="9">
         <v>686</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="7">
+      <c r="D16" s="10"/>
+      <c r="E16" s="9">
         <v>34</v>
       </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="7">
-        <v>2</v>
-      </c>
-      <c r="L16" t="s" s="7">
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="9">
+        <v>2</v>
+      </c>
+      <c r="I16" t="s" s="9">
         <v>26</v>
       </c>
-      <c r="M16" t="s" s="7">
+      <c r="J16" t="s" s="9">
         <v>27</v>
       </c>
-      <c r="N16" t="s" s="7">
+      <c r="K16" t="s" s="9">
         <v>28</v>
       </c>
-      <c r="O16" s="7">
+      <c r="L16" s="9">
         <v>1953</v>
       </c>
-      <c r="P16" t="s" s="7">
+      <c r="M16" t="s" s="9">
         <v>29</v>
       </c>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="7">
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="9">
         <v>21.7172776774415</v>
       </c>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-      <c r="V16" t="s" s="7">
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" t="s" s="9">
         <v>30</v>
       </c>
-      <c r="W16" s="8"/>
-      <c r="X16" s="8"/>
-      <c r="Y16" s="8"/>
-      <c r="Z16" t="s" s="7">
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" t="s" s="9">
         <v>32</v>
       </c>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
     </row>
     <row r="17" ht="20.35" customHeight="1">
-      <c r="A17" s="7">
+      <c r="A17" s="9">
         <v>165</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="7">
+      <c r="B17" s="10"/>
+      <c r="C17" s="9">
         <v>686</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="7">
+      <c r="D17" s="10"/>
+      <c r="E17" s="9">
         <v>34</v>
       </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="7">
-        <v>2</v>
-      </c>
-      <c r="L17" t="s" s="7">
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="9">
+        <v>2</v>
+      </c>
+      <c r="I17" t="s" s="9">
         <v>26</v>
       </c>
-      <c r="M17" t="s" s="7">
+      <c r="J17" t="s" s="9">
         <v>27</v>
       </c>
-      <c r="N17" t="s" s="7">
+      <c r="K17" t="s" s="9">
         <v>28</v>
       </c>
-      <c r="O17" s="7">
+      <c r="L17" s="9">
         <v>1954</v>
       </c>
-      <c r="P17" t="s" s="7">
+      <c r="M17" t="s" s="9">
         <v>29</v>
       </c>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="7">
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="9">
         <v>203.387341351136</v>
       </c>
-      <c r="T17" s="8"/>
-      <c r="U17" s="8"/>
-      <c r="V17" t="s" s="7">
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" t="s" s="9">
         <v>30</v>
       </c>
-      <c r="W17" s="8"/>
-      <c r="X17" s="8"/>
-      <c r="Y17" s="8"/>
-      <c r="Z17" t="s" s="7">
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" t="s" s="9">
         <v>31</v>
       </c>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
     </row>
     <row r="18" ht="20.35" customHeight="1">
-      <c r="A18" s="7">
+      <c r="A18" s="9">
         <v>165</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="7">
+      <c r="B18" s="10"/>
+      <c r="C18" s="9">
         <v>686</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="7">
+      <c r="D18" s="10"/>
+      <c r="E18" s="9">
         <v>34</v>
       </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="7">
-        <v>2</v>
-      </c>
-      <c r="L18" t="s" s="7">
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="9">
+        <v>2</v>
+      </c>
+      <c r="I18" t="s" s="9">
         <v>26</v>
       </c>
-      <c r="M18" t="s" s="7">
+      <c r="J18" t="s" s="9">
         <v>27</v>
       </c>
-      <c r="N18" t="s" s="7">
+      <c r="K18" t="s" s="9">
         <v>28</v>
       </c>
-      <c r="O18" s="7">
+      <c r="L18" s="9">
         <v>1954</v>
       </c>
-      <c r="P18" t="s" s="7">
+      <c r="M18" t="s" s="9">
         <v>29</v>
       </c>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="7">
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="9">
         <v>28.9563702365887</v>
       </c>
-      <c r="T18" s="8"/>
-      <c r="U18" s="8"/>
-      <c r="V18" t="s" s="7">
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" t="s" s="9">
         <v>30</v>
       </c>
-      <c r="W18" s="8"/>
-      <c r="X18" s="8"/>
-      <c r="Y18" s="8"/>
-      <c r="Z18" t="s" s="7">
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" t="s" s="9">
         <v>32</v>
       </c>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="11"/>
     </row>
     <row r="19" ht="20.35" customHeight="1">
-      <c r="A19" s="7">
+      <c r="A19" s="9">
         <v>165</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="7">
+      <c r="B19" s="10"/>
+      <c r="C19" s="9">
         <v>686</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="7">
+      <c r="D19" s="10"/>
+      <c r="E19" s="9">
         <v>34</v>
       </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="7">
-        <v>2</v>
-      </c>
-      <c r="L19" t="s" s="7">
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="9">
+        <v>2</v>
+      </c>
+      <c r="I19" t="s" s="9">
         <v>26</v>
       </c>
-      <c r="M19" t="s" s="7">
+      <c r="J19" t="s" s="9">
         <v>27</v>
       </c>
-      <c r="N19" t="s" s="7">
+      <c r="K19" t="s" s="9">
         <v>28</v>
       </c>
-      <c r="O19" s="7">
+      <c r="L19" s="9">
         <v>1955</v>
       </c>
-      <c r="P19" t="s" s="7">
+      <c r="M19" t="s" s="9">
         <v>29</v>
       </c>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="7">
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="9">
         <v>316.865073859446</v>
       </c>
-      <c r="T19" s="8"/>
-      <c r="U19" s="8"/>
-      <c r="V19" t="s" s="7">
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" t="s" s="9">
         <v>30</v>
       </c>
-      <c r="W19" s="8"/>
-      <c r="X19" s="8"/>
-      <c r="Y19" s="8"/>
-      <c r="Z19" t="s" s="7">
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" t="s" s="9">
         <v>31</v>
       </c>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="11"/>
     </row>
     <row r="20" ht="20.35" customHeight="1">
-      <c r="A20" s="7">
+      <c r="A20" s="9">
         <v>165</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="7">
+      <c r="B20" s="10"/>
+      <c r="C20" s="9">
         <v>686</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="7">
+      <c r="D20" s="10"/>
+      <c r="E20" s="9">
         <v>34</v>
       </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="7">
-        <v>2</v>
-      </c>
-      <c r="L20" t="s" s="7">
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="9">
+        <v>2</v>
+      </c>
+      <c r="I20" t="s" s="9">
         <v>26</v>
       </c>
-      <c r="M20" t="s" s="7">
+      <c r="J20" t="s" s="9">
         <v>27</v>
       </c>
-      <c r="N20" t="s" s="7">
+      <c r="K20" t="s" s="9">
         <v>28</v>
       </c>
-      <c r="O20" s="7">
+      <c r="L20" s="9">
         <v>1951</v>
       </c>
-      <c r="P20" t="s" s="7">
+      <c r="M20" t="s" s="9">
         <v>29</v>
       </c>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="7">
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="9">
         <v>12.8212595279804</v>
       </c>
-      <c r="T20" s="8"/>
-      <c r="U20" s="8"/>
-      <c r="V20" t="s" s="7">
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" t="s" s="9">
         <v>30</v>
       </c>
-      <c r="W20" s="8"/>
-      <c r="X20" s="8"/>
-      <c r="Y20" s="8"/>
-      <c r="Z20" t="s" s="7">
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
+      <c r="W20" t="s" s="9">
         <v>31</v>
       </c>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="11"/>
     </row>
     <row r="21" ht="20.35" customHeight="1">
-      <c r="A21" s="7">
+      <c r="A21" s="9">
         <v>165</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="7">
+      <c r="B21" s="10"/>
+      <c r="C21" s="9">
         <v>686</v>
       </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="7">
+      <c r="D21" s="10"/>
+      <c r="E21" s="9">
         <v>34</v>
       </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="7">
-        <v>2</v>
-      </c>
-      <c r="L21" t="s" s="7">
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="9">
+        <v>2</v>
+      </c>
+      <c r="I21" t="s" s="9">
         <v>26</v>
       </c>
-      <c r="M21" t="s" s="7">
+      <c r="J21" t="s" s="9">
         <v>27</v>
       </c>
-      <c r="N21" t="s" s="7">
+      <c r="K21" t="s" s="9">
         <v>28</v>
       </c>
-      <c r="O21" s="7">
+      <c r="L21" s="9">
         <v>1951</v>
       </c>
-      <c r="P21" t="s" s="7">
+      <c r="M21" t="s" s="9">
         <v>29</v>
       </c>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="7">
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="9">
         <v>7.23909255914716</v>
       </c>
-      <c r="T21" s="8"/>
-      <c r="U21" s="8"/>
-      <c r="V21" t="s" s="7">
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" t="s" s="9">
         <v>30</v>
       </c>
-      <c r="W21" s="8"/>
-      <c r="X21" s="8"/>
-      <c r="Y21" s="8"/>
-      <c r="Z21" t="s" s="7">
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" t="s" s="9">
         <v>32</v>
       </c>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="11"/>
     </row>
     <row r="22" ht="20.35" customHeight="1">
-      <c r="A22" s="7">
+      <c r="A22" s="9">
         <v>165</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="7">
+      <c r="B22" s="10"/>
+      <c r="C22" s="9">
         <v>686</v>
       </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="7">
+      <c r="D22" s="10"/>
+      <c r="E22" s="9">
         <v>34</v>
       </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="7">
-        <v>2</v>
-      </c>
-      <c r="L22" t="s" s="7">
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="9">
+        <v>2</v>
+      </c>
+      <c r="I22" t="s" s="9">
         <v>26</v>
       </c>
-      <c r="M22" t="s" s="7">
+      <c r="J22" t="s" s="9">
         <v>27</v>
       </c>
-      <c r="N22" t="s" s="7">
+      <c r="K22" t="s" s="9">
         <v>28</v>
       </c>
-      <c r="O22" s="7">
+      <c r="L22" s="9">
         <v>1952</v>
       </c>
-      <c r="P22" t="s" s="7">
+      <c r="M22" t="s" s="9">
         <v>29</v>
       </c>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="7">
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="9">
         <v>51.140148484989</v>
       </c>
-      <c r="T22" s="8"/>
-      <c r="U22" s="8"/>
-      <c r="V22" t="s" s="7">
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" t="s" s="9">
         <v>30</v>
       </c>
-      <c r="W22" s="8"/>
-      <c r="X22" s="8"/>
-      <c r="Y22" s="8"/>
-      <c r="Z22" t="s" s="7">
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" t="s" s="9">
         <v>31</v>
       </c>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="11"/>
     </row>
     <row r="23" ht="20.35" customHeight="1">
-      <c r="A23" s="7">
+      <c r="A23" s="9">
         <v>165</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="7">
+      <c r="B23" s="10"/>
+      <c r="C23" s="9">
         <v>686</v>
       </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="7">
+      <c r="D23" s="10"/>
+      <c r="E23" s="9">
         <v>34</v>
       </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="7">
-        <v>2</v>
-      </c>
-      <c r="L23" t="s" s="7">
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="9">
+        <v>2</v>
+      </c>
+      <c r="I23" t="s" s="9">
         <v>26</v>
       </c>
-      <c r="M23" t="s" s="7">
+      <c r="J23" t="s" s="9">
         <v>27</v>
       </c>
-      <c r="N23" t="s" s="7">
+      <c r="K23" t="s" s="9">
         <v>28</v>
       </c>
-      <c r="O23" s="7">
+      <c r="L23" s="9">
         <v>1952</v>
       </c>
-      <c r="P23" t="s" s="7">
+      <c r="M23" t="s" s="9">
         <v>29</v>
       </c>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="7">
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="9">
         <v>14.4781851182943</v>
       </c>
-      <c r="T23" s="8"/>
-      <c r="U23" s="8"/>
-      <c r="V23" t="s" s="7">
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" t="s" s="9">
         <v>30</v>
       </c>
-      <c r="W23" s="8"/>
-      <c r="X23" s="8"/>
-      <c r="Y23" s="8"/>
-      <c r="Z23" t="s" s="7">
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" t="s" s="9">
         <v>32</v>
       </c>
+      <c r="X23" s="11"/>
+      <c r="Y23" s="11"/>
+      <c r="Z23" s="11"/>
     </row>
     <row r="24" ht="20.35" customHeight="1">
-      <c r="A24" s="7">
+      <c r="A24" s="9">
         <v>165</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="7">
+      <c r="B24" s="10"/>
+      <c r="C24" s="9">
         <v>686</v>
       </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="7">
+      <c r="D24" s="10"/>
+      <c r="E24" s="9">
         <v>34</v>
       </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="7">
-        <v>2</v>
-      </c>
-      <c r="L24" t="s" s="7">
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="9">
+        <v>2</v>
+      </c>
+      <c r="I24" t="s" s="9">
         <v>26</v>
       </c>
-      <c r="M24" t="s" s="7">
+      <c r="J24" t="s" s="9">
         <v>27</v>
       </c>
-      <c r="N24" t="s" s="7">
+      <c r="K24" t="s" s="9">
         <v>28</v>
       </c>
-      <c r="O24" s="7">
+      <c r="L24" s="9">
         <v>1953</v>
       </c>
-      <c r="P24" t="s" s="7">
+      <c r="M24" t="s" s="9">
         <v>29</v>
       </c>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="7">
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="9">
         <v>114.736682010622</v>
       </c>
-      <c r="T24" s="8"/>
-      <c r="U24" s="8"/>
-      <c r="V24" t="s" s="7">
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" t="s" s="9">
         <v>30</v>
       </c>
-      <c r="W24" s="8"/>
-      <c r="X24" s="8"/>
-      <c r="Y24" s="8"/>
-      <c r="Z24" t="s" s="7">
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" t="s" s="9">
         <v>31</v>
       </c>
+      <c r="X24" s="11"/>
+      <c r="Y24" s="11"/>
+      <c r="Z24" s="11"/>
     </row>
     <row r="25" ht="20.35" customHeight="1">
-      <c r="A25" s="7">
+      <c r="A25" s="9">
         <v>165</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="7">
+      <c r="B25" s="10"/>
+      <c r="C25" s="9">
         <v>686</v>
       </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="7">
+      <c r="D25" s="10"/>
+      <c r="E25" s="9">
         <v>34</v>
       </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="7">
-        <v>2</v>
-      </c>
-      <c r="L25" t="s" s="7">
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="9">
+        <v>2</v>
+      </c>
+      <c r="I25" t="s" s="9">
         <v>26</v>
       </c>
-      <c r="M25" t="s" s="7">
+      <c r="J25" t="s" s="9">
         <v>27</v>
       </c>
-      <c r="N25" t="s" s="7">
+      <c r="K25" t="s" s="9">
         <v>28</v>
       </c>
-      <c r="O25" s="7">
+      <c r="L25" s="9">
         <v>1953</v>
       </c>
-      <c r="P25" t="s" s="7">
+      <c r="M25" t="s" s="9">
         <v>29</v>
       </c>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
-      <c r="S25" s="7">
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="9">
         <v>21.7172776774415</v>
       </c>
-      <c r="T25" s="8"/>
-      <c r="U25" s="8"/>
-      <c r="V25" t="s" s="7">
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" t="s" s="9">
         <v>30</v>
       </c>
-      <c r="W25" s="8"/>
-      <c r="X25" s="8"/>
-      <c r="Y25" s="8"/>
-      <c r="Z25" t="s" s="7">
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
+      <c r="W25" t="s" s="9">
         <v>32</v>
       </c>
+      <c r="X25" s="11"/>
+      <c r="Y25" s="11"/>
+      <c r="Z25" s="11"/>
     </row>
     <row r="26" ht="20.35" customHeight="1">
-      <c r="A26" s="7">
+      <c r="A26" s="9">
         <v>165</v>
       </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="7">
+      <c r="B26" s="10"/>
+      <c r="C26" s="9">
         <v>686</v>
       </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="7">
+      <c r="D26" s="10"/>
+      <c r="E26" s="9">
         <v>34</v>
       </c>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="7">
-        <v>2</v>
-      </c>
-      <c r="L26" t="s" s="7">
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="9">
+        <v>2</v>
+      </c>
+      <c r="I26" t="s" s="9">
         <v>26</v>
       </c>
-      <c r="M26" t="s" s="7">
+      <c r="J26" t="s" s="9">
         <v>27</v>
       </c>
-      <c r="N26" t="s" s="7">
+      <c r="K26" t="s" s="9">
         <v>28</v>
       </c>
-      <c r="O26" s="7">
+      <c r="L26" s="9">
         <v>1954</v>
       </c>
-      <c r="P26" t="s" s="7">
+      <c r="M26" t="s" s="9">
         <v>29</v>
       </c>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="8"/>
-      <c r="S26" s="7">
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="9">
         <v>203.387341351136</v>
       </c>
-      <c r="T26" s="8"/>
-      <c r="U26" s="8"/>
-      <c r="V26" t="s" s="7">
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
+      <c r="S26" t="s" s="9">
         <v>30</v>
       </c>
-      <c r="W26" s="8"/>
-      <c r="X26" s="8"/>
-      <c r="Y26" s="8"/>
-      <c r="Z26" t="s" s="7">
+      <c r="T26" s="10"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="10"/>
+      <c r="W26" t="s" s="9">
         <v>31</v>
       </c>
+      <c r="X26" s="11"/>
+      <c r="Y26" s="11"/>
+      <c r="Z26" s="11"/>
     </row>
     <row r="27" ht="20.35" customHeight="1">
-      <c r="A27" s="7">
+      <c r="A27" s="9">
         <v>165</v>
       </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="7">
+      <c r="B27" s="10"/>
+      <c r="C27" s="9">
         <v>686</v>
       </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="7">
+      <c r="D27" s="10"/>
+      <c r="E27" s="9">
         <v>34</v>
       </c>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="7">
-        <v>2</v>
-      </c>
-      <c r="L27" t="s" s="7">
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="9">
+        <v>2</v>
+      </c>
+      <c r="I27" t="s" s="9">
         <v>26</v>
       </c>
-      <c r="M27" t="s" s="7">
+      <c r="J27" t="s" s="9">
         <v>27</v>
       </c>
-      <c r="N27" t="s" s="7">
+      <c r="K27" t="s" s="9">
         <v>28</v>
       </c>
-      <c r="O27" s="7">
+      <c r="L27" s="9">
         <v>1954</v>
       </c>
-      <c r="P27" t="s" s="7">
+      <c r="M27" t="s" s="9">
         <v>29</v>
       </c>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="8"/>
-      <c r="S27" s="7">
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="9">
         <v>28.9563702365887</v>
       </c>
-      <c r="T27" s="8"/>
-      <c r="U27" s="8"/>
-      <c r="V27" t="s" s="7">
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+      <c r="S27" t="s" s="9">
         <v>30</v>
       </c>
-      <c r="W27" s="8"/>
-      <c r="X27" s="8"/>
-      <c r="Y27" s="8"/>
-      <c r="Z27" t="s" s="7">
+      <c r="T27" s="10"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="10"/>
+      <c r="W27" t="s" s="9">
         <v>32</v>
       </c>
+      <c r="X27" s="11"/>
+      <c r="Y27" s="11"/>
+      <c r="Z27" s="11"/>
     </row>
     <row r="28" ht="20.35" customHeight="1">
-      <c r="A28" s="7">
+      <c r="A28" s="9">
         <v>165</v>
       </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="7">
+      <c r="B28" s="10"/>
+      <c r="C28" s="9">
         <v>686</v>
       </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="7">
+      <c r="D28" s="10"/>
+      <c r="E28" s="9">
         <v>34</v>
       </c>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="7">
-        <v>2</v>
-      </c>
-      <c r="L28" t="s" s="7">
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="9">
+        <v>2</v>
+      </c>
+      <c r="I28" t="s" s="9">
         <v>26</v>
       </c>
-      <c r="M28" t="s" s="7">
+      <c r="J28" t="s" s="9">
         <v>27</v>
       </c>
-      <c r="N28" t="s" s="7">
+      <c r="K28" t="s" s="9">
         <v>28</v>
       </c>
-      <c r="O28" s="7">
+      <c r="L28" s="9">
         <v>1955</v>
       </c>
-      <c r="P28" t="s" s="7">
+      <c r="M28" t="s" s="9">
         <v>29</v>
       </c>
-      <c r="Q28" s="8"/>
-      <c r="R28" s="8"/>
-      <c r="S28" s="7">
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="9">
         <v>316.865073859446</v>
       </c>
-      <c r="T28" s="8"/>
-      <c r="U28" s="8"/>
-      <c r="V28" t="s" s="7">
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+      <c r="S28" t="s" s="9">
         <v>30</v>
       </c>
-      <c r="W28" s="8"/>
-      <c r="X28" s="8"/>
-      <c r="Y28" s="8"/>
-      <c r="Z28" t="s" s="7">
+      <c r="T28" s="10"/>
+      <c r="U28" s="10"/>
+      <c r="V28" s="10"/>
+      <c r="W28" t="s" s="9">
         <v>31</v>
       </c>
+      <c r="X28" s="11"/>
+      <c r="Y28" s="11"/>
+      <c r="Z28" s="11"/>
     </row>
     <row r="29" ht="20.35" customHeight="1">
-      <c r="A29" s="7">
+      <c r="A29" s="9">
         <v>165</v>
       </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="7">
+      <c r="B29" s="10"/>
+      <c r="C29" s="9">
         <v>686</v>
       </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="7">
+      <c r="D29" s="10"/>
+      <c r="E29" s="9">
         <v>34</v>
       </c>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="7">
-        <v>2</v>
-      </c>
-      <c r="L29" t="s" s="7">
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="9">
+        <v>2</v>
+      </c>
+      <c r="I29" t="s" s="9">
         <v>26</v>
       </c>
-      <c r="M29" t="s" s="7">
+      <c r="J29" t="s" s="9">
         <v>27</v>
       </c>
-      <c r="N29" t="s" s="7">
+      <c r="K29" t="s" s="9">
         <v>28</v>
       </c>
-      <c r="O29" s="7">
+      <c r="L29" s="9">
         <v>1951</v>
       </c>
-      <c r="P29" t="s" s="7">
+      <c r="M29" t="s" s="9">
         <v>29</v>
       </c>
-      <c r="Q29" s="8"/>
-      <c r="R29" s="8"/>
-      <c r="S29" s="7">
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="9">
         <v>12.8212595279804</v>
       </c>
-      <c r="T29" s="8"/>
-      <c r="U29" s="8"/>
-      <c r="V29" t="s" s="7">
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+      <c r="S29" t="s" s="9">
         <v>30</v>
       </c>
-      <c r="W29" s="8"/>
-      <c r="X29" s="8"/>
-      <c r="Y29" s="8"/>
-      <c r="Z29" t="s" s="7">
+      <c r="T29" s="10"/>
+      <c r="U29" s="10"/>
+      <c r="V29" s="10"/>
+      <c r="W29" t="s" s="9">
         <v>31</v>
       </c>
+      <c r="X29" s="11"/>
+      <c r="Y29" s="11"/>
+      <c r="Z29" s="11"/>
     </row>
     <row r="30" ht="20.35" customHeight="1">
-      <c r="A30" s="7">
+      <c r="A30" s="9">
         <v>165</v>
       </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="7">
+      <c r="B30" s="10"/>
+      <c r="C30" s="9">
         <v>686</v>
       </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="7">
+      <c r="D30" s="10"/>
+      <c r="E30" s="9">
         <v>34</v>
       </c>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="7">
-        <v>2</v>
-      </c>
-      <c r="L30" t="s" s="7">
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="9">
+        <v>2</v>
+      </c>
+      <c r="I30" t="s" s="9">
         <v>26</v>
       </c>
-      <c r="M30" t="s" s="7">
+      <c r="J30" t="s" s="9">
         <v>27</v>
       </c>
-      <c r="N30" t="s" s="7">
+      <c r="K30" t="s" s="9">
         <v>28</v>
       </c>
-      <c r="O30" s="7">
+      <c r="L30" s="9">
         <v>1951</v>
       </c>
-      <c r="P30" t="s" s="7">
+      <c r="M30" t="s" s="9">
         <v>29</v>
       </c>
-      <c r="Q30" s="8"/>
-      <c r="R30" s="8"/>
-      <c r="S30" s="7">
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="9">
         <v>7.23909255914716</v>
       </c>
-      <c r="T30" s="8"/>
-      <c r="U30" s="8"/>
-      <c r="V30" t="s" s="7">
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
+      <c r="S30" t="s" s="9">
         <v>30</v>
       </c>
-      <c r="W30" s="8"/>
-      <c r="X30" s="8"/>
-      <c r="Y30" s="8"/>
-      <c r="Z30" t="s" s="7">
+      <c r="T30" s="10"/>
+      <c r="U30" s="10"/>
+      <c r="V30" s="10"/>
+      <c r="W30" t="s" s="9">
         <v>32</v>
       </c>
+      <c r="X30" s="11"/>
+      <c r="Y30" s="11"/>
+      <c r="Z30" s="11"/>
     </row>
     <row r="31" ht="20.35" customHeight="1">
-      <c r="A31" s="7">
+      <c r="A31" s="9">
         <v>165</v>
       </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="7">
+      <c r="B31" s="10"/>
+      <c r="C31" s="9">
         <v>686</v>
       </c>
-      <c r="D31" s="8"/>
-      <c r="E31" s="7">
+      <c r="D31" s="10"/>
+      <c r="E31" s="9">
         <v>34</v>
       </c>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="7">
-        <v>2</v>
-      </c>
-      <c r="L31" t="s" s="7">
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="9">
+        <v>2</v>
+      </c>
+      <c r="I31" t="s" s="9">
         <v>26</v>
       </c>
-      <c r="M31" t="s" s="7">
+      <c r="J31" t="s" s="9">
         <v>27</v>
       </c>
-      <c r="N31" t="s" s="7">
+      <c r="K31" t="s" s="9">
         <v>28</v>
       </c>
-      <c r="O31" s="7">
+      <c r="L31" s="9">
         <v>1952</v>
       </c>
-      <c r="P31" t="s" s="7">
+      <c r="M31" t="s" s="9">
         <v>29</v>
       </c>
-      <c r="Q31" s="8"/>
-      <c r="R31" s="8"/>
-      <c r="S31" s="7">
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="9">
         <v>51.140148484989</v>
       </c>
-      <c r="T31" s="8"/>
-      <c r="U31" s="8"/>
-      <c r="V31" t="s" s="7">
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10"/>
+      <c r="S31" t="s" s="9">
         <v>30</v>
       </c>
-      <c r="W31" s="8"/>
-      <c r="X31" s="8"/>
-      <c r="Y31" s="8"/>
-      <c r="Z31" t="s" s="7">
+      <c r="T31" s="10"/>
+      <c r="U31" s="10"/>
+      <c r="V31" s="10"/>
+      <c r="W31" t="s" s="9">
         <v>31</v>
       </c>
+      <c r="X31" s="11"/>
+      <c r="Y31" s="11"/>
+      <c r="Z31" s="11"/>
     </row>
     <row r="32" ht="20.35" customHeight="1">
-      <c r="A32" s="7">
+      <c r="A32" s="9">
         <v>165</v>
       </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="7">
+      <c r="B32" s="10"/>
+      <c r="C32" s="9">
         <v>686</v>
       </c>
-      <c r="D32" s="8"/>
-      <c r="E32" s="7">
+      <c r="D32" s="10"/>
+      <c r="E32" s="9">
         <v>34</v>
       </c>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="7">
-        <v>2</v>
-      </c>
-      <c r="L32" t="s" s="7">
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="9">
+        <v>2</v>
+      </c>
+      <c r="I32" t="s" s="9">
         <v>26</v>
       </c>
-      <c r="M32" t="s" s="7">
+      <c r="J32" t="s" s="9">
         <v>27</v>
       </c>
-      <c r="N32" t="s" s="7">
+      <c r="K32" t="s" s="9">
         <v>28</v>
       </c>
-      <c r="O32" s="7">
+      <c r="L32" s="9">
         <v>1952</v>
       </c>
-      <c r="P32" t="s" s="7">
+      <c r="M32" t="s" s="9">
         <v>29</v>
       </c>
-      <c r="Q32" s="8"/>
-      <c r="R32" s="8"/>
-      <c r="S32" s="7">
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="9">
         <v>14.4781851182943</v>
       </c>
-      <c r="T32" s="8"/>
-      <c r="U32" s="8"/>
-      <c r="V32" t="s" s="7">
+      <c r="Q32" s="10"/>
+      <c r="R32" s="10"/>
+      <c r="S32" t="s" s="9">
         <v>30</v>
       </c>
-      <c r="W32" s="8"/>
-      <c r="X32" s="8"/>
-      <c r="Y32" s="8"/>
-      <c r="Z32" t="s" s="7">
+      <c r="T32" s="10"/>
+      <c r="U32" s="10"/>
+      <c r="V32" s="10"/>
+      <c r="W32" t="s" s="9">
         <v>32</v>
       </c>
+      <c r="X32" s="11"/>
+      <c r="Y32" s="11"/>
+      <c r="Z32" s="11"/>
     </row>
     <row r="33" ht="20.35" customHeight="1">
-      <c r="A33" s="7">
+      <c r="A33" s="9">
         <v>165</v>
       </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="7">
+      <c r="B33" s="10"/>
+      <c r="C33" s="9">
         <v>686</v>
       </c>
-      <c r="D33" s="8"/>
-      <c r="E33" s="7">
+      <c r="D33" s="10"/>
+      <c r="E33" s="9">
         <v>34</v>
       </c>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="7">
-        <v>2</v>
-      </c>
-      <c r="L33" t="s" s="7">
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="9">
+        <v>2</v>
+      </c>
+      <c r="I33" t="s" s="9">
         <v>26</v>
       </c>
-      <c r="M33" t="s" s="7">
+      <c r="J33" t="s" s="9">
         <v>27</v>
       </c>
-      <c r="N33" t="s" s="7">
+      <c r="K33" t="s" s="9">
         <v>28</v>
       </c>
-      <c r="O33" s="7">
+      <c r="L33" s="9">
         <v>1953</v>
       </c>
-      <c r="P33" t="s" s="7">
+      <c r="M33" t="s" s="9">
         <v>29</v>
       </c>
-      <c r="Q33" s="8"/>
-      <c r="R33" s="8"/>
-      <c r="S33" s="7">
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="9">
         <v>114.736682010622</v>
       </c>
-      <c r="T33" s="8"/>
-      <c r="U33" s="8"/>
-      <c r="V33" t="s" s="7">
+      <c r="Q33" s="10"/>
+      <c r="R33" s="10"/>
+      <c r="S33" t="s" s="9">
         <v>30</v>
       </c>
-      <c r="W33" s="8"/>
-      <c r="X33" s="8"/>
-      <c r="Y33" s="8"/>
-      <c r="Z33" t="s" s="7">
+      <c r="T33" s="10"/>
+      <c r="U33" s="10"/>
+      <c r="V33" s="10"/>
+      <c r="W33" t="s" s="9">
         <v>31</v>
       </c>
+      <c r="X33" s="11"/>
+      <c r="Y33" s="11"/>
+      <c r="Z33" s="11"/>
     </row>
     <row r="34" ht="20.35" customHeight="1">
-      <c r="A34" s="7">
+      <c r="A34" s="9">
         <v>165</v>
       </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="7">
+      <c r="B34" s="10"/>
+      <c r="C34" s="9">
         <v>686</v>
       </c>
-      <c r="D34" s="8"/>
-      <c r="E34" s="7">
+      <c r="D34" s="10"/>
+      <c r="E34" s="9">
         <v>34</v>
       </c>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="7">
-        <v>2</v>
-      </c>
-      <c r="L34" t="s" s="7">
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="9">
+        <v>2</v>
+      </c>
+      <c r="I34" t="s" s="9">
         <v>26</v>
       </c>
-      <c r="M34" t="s" s="7">
+      <c r="J34" t="s" s="9">
         <v>27</v>
       </c>
-      <c r="N34" t="s" s="7">
+      <c r="K34" t="s" s="9">
         <v>28</v>
       </c>
-      <c r="O34" s="7">
+      <c r="L34" s="9">
         <v>1953</v>
       </c>
-      <c r="P34" t="s" s="7">
+      <c r="M34" t="s" s="9">
         <v>29</v>
       </c>
-      <c r="Q34" s="8"/>
-      <c r="R34" s="8"/>
-      <c r="S34" s="7">
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="9">
         <v>21.7172776774415</v>
       </c>
-      <c r="T34" s="8"/>
-      <c r="U34" s="8"/>
-      <c r="V34" t="s" s="7">
+      <c r="Q34" s="10"/>
+      <c r="R34" s="10"/>
+      <c r="S34" t="s" s="9">
         <v>30</v>
       </c>
-      <c r="W34" s="8"/>
-      <c r="X34" s="8"/>
-      <c r="Y34" s="8"/>
-      <c r="Z34" t="s" s="7">
+      <c r="T34" s="10"/>
+      <c r="U34" s="10"/>
+      <c r="V34" s="10"/>
+      <c r="W34" t="s" s="9">
         <v>32</v>
       </c>
+      <c r="X34" s="11"/>
+      <c r="Y34" s="11"/>
+      <c r="Z34" s="11"/>
     </row>
     <row r="35" ht="20.35" customHeight="1">
-      <c r="A35" s="7">
+      <c r="A35" s="9">
         <v>165</v>
       </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="7">
+      <c r="B35" s="10"/>
+      <c r="C35" s="9">
         <v>686</v>
       </c>
-      <c r="D35" s="8"/>
-      <c r="E35" s="7">
+      <c r="D35" s="10"/>
+      <c r="E35" s="9">
         <v>34</v>
       </c>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="7">
-        <v>2</v>
-      </c>
-      <c r="L35" t="s" s="7">
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="9">
+        <v>2</v>
+      </c>
+      <c r="I35" t="s" s="9">
         <v>26</v>
       </c>
-      <c r="M35" t="s" s="7">
+      <c r="J35" t="s" s="9">
         <v>27</v>
       </c>
-      <c r="N35" t="s" s="7">
+      <c r="K35" t="s" s="9">
         <v>28</v>
       </c>
-      <c r="O35" s="7">
+      <c r="L35" s="9">
         <v>1954</v>
       </c>
-      <c r="P35" t="s" s="7">
+      <c r="M35" t="s" s="9">
         <v>29</v>
       </c>
-      <c r="Q35" s="8"/>
-      <c r="R35" s="8"/>
-      <c r="S35" s="7">
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="9">
         <v>203.387341351136</v>
       </c>
-      <c r="T35" s="8"/>
-      <c r="U35" s="8"/>
-      <c r="V35" t="s" s="7">
+      <c r="Q35" s="10"/>
+      <c r="R35" s="10"/>
+      <c r="S35" t="s" s="9">
         <v>30</v>
       </c>
-      <c r="W35" s="8"/>
-      <c r="X35" s="8"/>
-      <c r="Y35" s="8"/>
-      <c r="Z35" t="s" s="7">
+      <c r="T35" s="10"/>
+      <c r="U35" s="10"/>
+      <c r="V35" s="10"/>
+      <c r="W35" t="s" s="9">
         <v>31</v>
       </c>
+      <c r="X35" s="11"/>
+      <c r="Y35" s="11"/>
+      <c r="Z35" s="11"/>
     </row>
     <row r="36" ht="20.35" customHeight="1">
-      <c r="A36" s="7">
+      <c r="A36" s="9">
         <v>165</v>
       </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="7">
+      <c r="B36" s="10"/>
+      <c r="C36" s="9">
         <v>686</v>
       </c>
-      <c r="D36" s="8"/>
-      <c r="E36" s="7">
+      <c r="D36" s="10"/>
+      <c r="E36" s="9">
         <v>34</v>
       </c>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="7">
-        <v>2</v>
-      </c>
-      <c r="L36" t="s" s="7">
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="9">
+        <v>2</v>
+      </c>
+      <c r="I36" t="s" s="9">
         <v>26</v>
       </c>
-      <c r="M36" t="s" s="7">
+      <c r="J36" t="s" s="9">
         <v>27</v>
       </c>
-      <c r="N36" t="s" s="7">
+      <c r="K36" t="s" s="9">
         <v>28</v>
       </c>
-      <c r="O36" s="7">
+      <c r="L36" s="9">
         <v>1954</v>
       </c>
-      <c r="P36" t="s" s="7">
+      <c r="M36" t="s" s="9">
         <v>29</v>
       </c>
-      <c r="Q36" s="8"/>
-      <c r="R36" s="8"/>
-      <c r="S36" s="7">
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="9">
         <v>28.9563702365887</v>
       </c>
-      <c r="T36" s="8"/>
-      <c r="U36" s="8"/>
-      <c r="V36" t="s" s="7">
+      <c r="Q36" s="10"/>
+      <c r="R36" s="10"/>
+      <c r="S36" t="s" s="9">
         <v>30</v>
       </c>
-      <c r="W36" s="8"/>
-      <c r="X36" s="8"/>
-      <c r="Y36" s="8"/>
-      <c r="Z36" t="s" s="7">
+      <c r="T36" s="10"/>
+      <c r="U36" s="10"/>
+      <c r="V36" s="10"/>
+      <c r="W36" t="s" s="9">
         <v>32</v>
       </c>
+      <c r="X36" s="11"/>
+      <c r="Y36" s="11"/>
+      <c r="Z36" s="11"/>
     </row>
     <row r="37" ht="20.35" customHeight="1">
-      <c r="A37" s="7">
+      <c r="A37" s="9">
         <v>165</v>
       </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="7">
+      <c r="B37" s="10"/>
+      <c r="C37" s="9">
         <v>686</v>
       </c>
-      <c r="D37" s="8"/>
-      <c r="E37" s="7">
+      <c r="D37" s="10"/>
+      <c r="E37" s="9">
         <v>34</v>
       </c>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="7">
-        <v>2</v>
-      </c>
-      <c r="L37" t="s" s="7">
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="9">
+        <v>2</v>
+      </c>
+      <c r="I37" t="s" s="9">
         <v>26</v>
       </c>
-      <c r="M37" t="s" s="7">
+      <c r="J37" t="s" s="9">
         <v>27</v>
       </c>
-      <c r="N37" t="s" s="7">
+      <c r="K37" t="s" s="9">
         <v>28</v>
       </c>
-      <c r="O37" s="7">
+      <c r="L37" s="9">
         <v>1955</v>
       </c>
-      <c r="P37" t="s" s="7">
+      <c r="M37" t="s" s="9">
         <v>29</v>
       </c>
-      <c r="Q37" s="8"/>
-      <c r="R37" s="8"/>
-      <c r="S37" s="7">
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="9">
         <v>316.865073859446</v>
       </c>
-      <c r="T37" s="8"/>
-      <c r="U37" s="8"/>
-      <c r="V37" t="s" s="7">
+      <c r="Q37" s="10"/>
+      <c r="R37" s="10"/>
+      <c r="S37" t="s" s="9">
         <v>30</v>
       </c>
-      <c r="W37" s="8"/>
-      <c r="X37" s="8"/>
-      <c r="Y37" s="8"/>
-      <c r="Z37" t="s" s="7">
+      <c r="T37" s="10"/>
+      <c r="U37" s="10"/>
+      <c r="V37" s="10"/>
+      <c r="W37" t="s" s="9">
         <v>31</v>
       </c>
+      <c r="X37" s="11"/>
+      <c r="Y37" s="11"/>
+      <c r="Z37" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/test_uploads/new_test_data_multipage.xlsx
+++ b/test_uploads/new_test_data_multipage.xlsx
@@ -17,31 +17,16 @@
     <t>fishing entity</t>
   </si>
   <si>
-    <t xml:space="preserve">original country fishing </t>
-  </si>
-  <si>
     <t>EEZ</t>
   </si>
   <si>
-    <t>EEZ sub area</t>
-  </si>
-  <si>
     <t>FAO area</t>
-  </si>
-  <si>
-    <t>subregional area</t>
-  </si>
-  <si>
-    <t>province state</t>
   </si>
   <si>
     <t>layer</t>
   </si>
   <si>
     <t>sector</t>
-  </si>
-  <si>
-    <t>original sector</t>
   </si>
   <si>
     <t>catch type</t>
@@ -53,22 +38,37 @@
     <t>taxon name</t>
   </si>
   <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>input type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">original country fishing </t>
+  </si>
+  <si>
+    <t>original sector</t>
+  </si>
+  <si>
+    <t>EEZ sub area</t>
+  </si>
+  <si>
+    <t>subregional area</t>
+  </si>
+  <si>
+    <t>province state</t>
+  </si>
+  <si>
     <t>original taxon name</t>
   </si>
   <si>
     <t>original FAO name</t>
   </si>
   <si>
-    <t>amount</t>
-  </si>
-  <si>
     <t>adjustment factor</t>
   </si>
   <si>
     <t>gear type</t>
-  </si>
-  <si>
-    <t>input type</t>
   </si>
   <si>
     <t>forward carry rule</t>
@@ -95,9 +95,6 @@
     <t>Industrial</t>
   </si>
   <si>
-    <t>LS, C</t>
-  </si>
-  <si>
     <t>Discards</t>
   </si>
   <si>
@@ -105,6 +102,9 @@
   </si>
   <si>
     <t>Reconstructed</t>
+  </si>
+  <si>
+    <t>LS, C</t>
   </si>
   <si>
     <t xml:space="preserve">Trawlers, legal; ; ; </t>
@@ -1663,44 +1663,44 @@
       <c r="A2" s="6">
         <v>165</v>
       </c>
-      <c r="B2" s="7"/>
+      <c r="B2" s="6">
+        <v>686</v>
+      </c>
       <c r="C2" s="6">
-        <v>686</v>
-      </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="6">
         <v>34</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="6">
-        <v>2</v>
-      </c>
-      <c r="I2" t="s" s="6">
+      <c r="D2" s="6">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s" s="6">
         <v>26</v>
       </c>
+      <c r="F2" t="s" s="6">
+        <v>27</v>
+      </c>
+      <c r="G2" s="6">
+        <v>1951</v>
+      </c>
+      <c r="H2" t="s" s="6">
+        <v>28</v>
+      </c>
+      <c r="I2" s="6">
+        <v>12.8212595279804</v>
+      </c>
       <c r="J2" t="s" s="6">
-        <v>27</v>
-      </c>
-      <c r="K2" t="s" s="6">
-        <v>28</v>
-      </c>
-      <c r="L2" s="6">
-        <v>1951</v>
-      </c>
-      <c r="M2" t="s" s="6">
         <v>29</v>
       </c>
+      <c r="K2" s="7"/>
+      <c r="L2" t="s" s="6">
+        <v>30</v>
+      </c>
+      <c r="M2" s="7"/>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
-      <c r="P2" s="6">
-        <v>12.8212595279804</v>
-      </c>
+      <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
-      <c r="S2" t="s" s="6">
-        <v>30</v>
-      </c>
+      <c r="S2" s="7"/>
       <c r="T2" s="7"/>
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
@@ -1715,44 +1715,44 @@
       <c r="A3" s="9">
         <v>165</v>
       </c>
-      <c r="B3" s="10"/>
+      <c r="B3" s="9">
+        <v>686</v>
+      </c>
       <c r="C3" s="9">
-        <v>686</v>
-      </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="9">
         <v>34</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="9">
-        <v>2</v>
-      </c>
-      <c r="I3" t="s" s="9">
+      <c r="D3" s="9">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s" s="9">
         <v>26</v>
       </c>
+      <c r="F3" t="s" s="9">
+        <v>27</v>
+      </c>
+      <c r="G3" s="9">
+        <v>1951</v>
+      </c>
+      <c r="H3" t="s" s="9">
+        <v>28</v>
+      </c>
+      <c r="I3" s="9">
+        <v>7.23909255914716</v>
+      </c>
       <c r="J3" t="s" s="9">
-        <v>27</v>
-      </c>
-      <c r="K3" t="s" s="9">
-        <v>28</v>
-      </c>
-      <c r="L3" s="9">
-        <v>1951</v>
-      </c>
-      <c r="M3" t="s" s="9">
         <v>29</v>
       </c>
+      <c r="K3" s="10"/>
+      <c r="L3" t="s" s="9">
+        <v>30</v>
+      </c>
+      <c r="M3" s="10"/>
       <c r="N3" s="10"/>
       <c r="O3" s="10"/>
-      <c r="P3" s="9">
-        <v>7.23909255914716</v>
-      </c>
+      <c r="P3" s="10"/>
       <c r="Q3" s="10"/>
       <c r="R3" s="10"/>
-      <c r="S3" t="s" s="9">
-        <v>30</v>
-      </c>
+      <c r="S3" s="10"/>
       <c r="T3" s="10"/>
       <c r="U3" s="10"/>
       <c r="V3" s="10"/>
@@ -1767,44 +1767,44 @@
       <c r="A4" s="9">
         <v>165</v>
       </c>
-      <c r="B4" s="10"/>
+      <c r="B4" s="9">
+        <v>686</v>
+      </c>
       <c r="C4" s="9">
-        <v>686</v>
-      </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="9">
         <v>34</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="9">
-        <v>2</v>
-      </c>
-      <c r="I4" t="s" s="9">
+      <c r="D4" s="9">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s" s="9">
         <v>26</v>
       </c>
+      <c r="F4" t="s" s="9">
+        <v>27</v>
+      </c>
+      <c r="G4" s="9">
+        <v>1952</v>
+      </c>
+      <c r="H4" t="s" s="9">
+        <v>28</v>
+      </c>
+      <c r="I4" s="9">
+        <v>51.140148484989</v>
+      </c>
       <c r="J4" t="s" s="9">
-        <v>27</v>
-      </c>
-      <c r="K4" t="s" s="9">
-        <v>28</v>
-      </c>
-      <c r="L4" s="9">
-        <v>1952</v>
-      </c>
-      <c r="M4" t="s" s="9">
         <v>29</v>
       </c>
+      <c r="K4" s="10"/>
+      <c r="L4" t="s" s="9">
+        <v>30</v>
+      </c>
+      <c r="M4" s="10"/>
       <c r="N4" s="10"/>
       <c r="O4" s="10"/>
-      <c r="P4" s="9">
-        <v>51.140148484989</v>
-      </c>
+      <c r="P4" s="10"/>
       <c r="Q4" s="10"/>
       <c r="R4" s="10"/>
-      <c r="S4" t="s" s="9">
-        <v>30</v>
-      </c>
+      <c r="S4" s="10"/>
       <c r="T4" s="10"/>
       <c r="U4" s="10"/>
       <c r="V4" s="10"/>
@@ -1819,44 +1819,44 @@
       <c r="A5" s="9">
         <v>165</v>
       </c>
-      <c r="B5" s="10"/>
+      <c r="B5" s="9">
+        <v>686</v>
+      </c>
       <c r="C5" s="9">
-        <v>686</v>
-      </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="9">
         <v>34</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="9">
-        <v>2</v>
-      </c>
-      <c r="I5" t="s" s="9">
+      <c r="D5" s="9">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s" s="9">
         <v>26</v>
       </c>
+      <c r="F5" t="s" s="9">
+        <v>27</v>
+      </c>
+      <c r="G5" s="9">
+        <v>1952</v>
+      </c>
+      <c r="H5" t="s" s="9">
+        <v>28</v>
+      </c>
+      <c r="I5" s="9">
+        <v>14.4781851182943</v>
+      </c>
       <c r="J5" t="s" s="9">
-        <v>27</v>
-      </c>
-      <c r="K5" t="s" s="9">
-        <v>28</v>
-      </c>
-      <c r="L5" s="9">
-        <v>1952</v>
-      </c>
-      <c r="M5" t="s" s="9">
         <v>29</v>
       </c>
+      <c r="K5" s="10"/>
+      <c r="L5" t="s" s="9">
+        <v>30</v>
+      </c>
+      <c r="M5" s="10"/>
       <c r="N5" s="10"/>
       <c r="O5" s="10"/>
-      <c r="P5" s="9">
-        <v>14.4781851182943</v>
-      </c>
+      <c r="P5" s="10"/>
       <c r="Q5" s="10"/>
       <c r="R5" s="10"/>
-      <c r="S5" t="s" s="9">
-        <v>30</v>
-      </c>
+      <c r="S5" s="10"/>
       <c r="T5" s="10"/>
       <c r="U5" s="10"/>
       <c r="V5" s="10"/>
@@ -1871,44 +1871,44 @@
       <c r="A6" s="9">
         <v>165</v>
       </c>
-      <c r="B6" s="10"/>
+      <c r="B6" s="9">
+        <v>686</v>
+      </c>
       <c r="C6" s="9">
-        <v>686</v>
-      </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="9">
         <v>34</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="9">
-        <v>2</v>
-      </c>
-      <c r="I6" t="s" s="9">
+      <c r="D6" s="9">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s" s="9">
         <v>26</v>
       </c>
+      <c r="F6" t="s" s="9">
+        <v>27</v>
+      </c>
+      <c r="G6" s="9">
+        <v>1953</v>
+      </c>
+      <c r="H6" t="s" s="9">
+        <v>28</v>
+      </c>
+      <c r="I6" s="9">
+        <v>114.736682010622</v>
+      </c>
       <c r="J6" t="s" s="9">
-        <v>27</v>
-      </c>
-      <c r="K6" t="s" s="9">
-        <v>28</v>
-      </c>
-      <c r="L6" s="9">
-        <v>1953</v>
-      </c>
-      <c r="M6" t="s" s="9">
         <v>29</v>
       </c>
+      <c r="K6" s="10"/>
+      <c r="L6" t="s" s="9">
+        <v>30</v>
+      </c>
+      <c r="M6" s="10"/>
       <c r="N6" s="10"/>
       <c r="O6" s="10"/>
-      <c r="P6" s="9">
-        <v>114.736682010622</v>
-      </c>
+      <c r="P6" s="10"/>
       <c r="Q6" s="10"/>
       <c r="R6" s="10"/>
-      <c r="S6" t="s" s="9">
-        <v>30</v>
-      </c>
+      <c r="S6" s="10"/>
       <c r="T6" s="10"/>
       <c r="U6" s="10"/>
       <c r="V6" s="10"/>
@@ -1923,44 +1923,44 @@
       <c r="A7" s="9">
         <v>165</v>
       </c>
-      <c r="B7" s="10"/>
+      <c r="B7" s="9">
+        <v>686</v>
+      </c>
       <c r="C7" s="9">
-        <v>686</v>
-      </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="9">
         <v>34</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="9">
-        <v>2</v>
-      </c>
-      <c r="I7" t="s" s="9">
+      <c r="D7" s="9">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s" s="9">
         <v>26</v>
       </c>
+      <c r="F7" t="s" s="9">
+        <v>27</v>
+      </c>
+      <c r="G7" s="9">
+        <v>1953</v>
+      </c>
+      <c r="H7" t="s" s="9">
+        <v>28</v>
+      </c>
+      <c r="I7" s="9">
+        <v>21.7172776774415</v>
+      </c>
       <c r="J7" t="s" s="9">
-        <v>27</v>
-      </c>
-      <c r="K7" t="s" s="9">
-        <v>28</v>
-      </c>
-      <c r="L7" s="9">
-        <v>1953</v>
-      </c>
-      <c r="M7" t="s" s="9">
         <v>29</v>
       </c>
+      <c r="K7" s="10"/>
+      <c r="L7" t="s" s="9">
+        <v>30</v>
+      </c>
+      <c r="M7" s="10"/>
       <c r="N7" s="10"/>
       <c r="O7" s="10"/>
-      <c r="P7" s="9">
-        <v>21.7172776774415</v>
-      </c>
+      <c r="P7" s="10"/>
       <c r="Q7" s="10"/>
       <c r="R7" s="10"/>
-      <c r="S7" t="s" s="9">
-        <v>30</v>
-      </c>
+      <c r="S7" s="10"/>
       <c r="T7" s="10"/>
       <c r="U7" s="10"/>
       <c r="V7" s="10"/>
@@ -1975,44 +1975,44 @@
       <c r="A8" s="9">
         <v>165</v>
       </c>
-      <c r="B8" s="10"/>
+      <c r="B8" s="9">
+        <v>686</v>
+      </c>
       <c r="C8" s="9">
-        <v>686</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="9">
         <v>34</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="9">
-        <v>2</v>
-      </c>
-      <c r="I8" t="s" s="9">
+      <c r="D8" s="9">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s" s="9">
         <v>26</v>
       </c>
+      <c r="F8" t="s" s="9">
+        <v>27</v>
+      </c>
+      <c r="G8" s="9">
+        <v>1954</v>
+      </c>
+      <c r="H8" t="s" s="9">
+        <v>28</v>
+      </c>
+      <c r="I8" s="9">
+        <v>203.387341351136</v>
+      </c>
       <c r="J8" t="s" s="9">
-        <v>27</v>
-      </c>
-      <c r="K8" t="s" s="9">
-        <v>28</v>
-      </c>
-      <c r="L8" s="9">
-        <v>1954</v>
-      </c>
-      <c r="M8" t="s" s="9">
         <v>29</v>
       </c>
+      <c r="K8" s="10"/>
+      <c r="L8" t="s" s="9">
+        <v>30</v>
+      </c>
+      <c r="M8" s="10"/>
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
-      <c r="P8" s="9">
-        <v>203.387341351136</v>
-      </c>
+      <c r="P8" s="10"/>
       <c r="Q8" s="10"/>
       <c r="R8" s="10"/>
-      <c r="S8" t="s" s="9">
-        <v>30</v>
-      </c>
+      <c r="S8" s="10"/>
       <c r="T8" s="10"/>
       <c r="U8" s="10"/>
       <c r="V8" s="10"/>
@@ -2027,44 +2027,44 @@
       <c r="A9" s="9">
         <v>165</v>
       </c>
-      <c r="B9" s="10"/>
+      <c r="B9" s="9">
+        <v>686</v>
+      </c>
       <c r="C9" s="9">
-        <v>686</v>
-      </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="9">
         <v>34</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="9">
-        <v>2</v>
-      </c>
-      <c r="I9" t="s" s="9">
+      <c r="D9" s="9">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s" s="9">
         <v>26</v>
       </c>
+      <c r="F9" t="s" s="9">
+        <v>27</v>
+      </c>
+      <c r="G9" s="9">
+        <v>1954</v>
+      </c>
+      <c r="H9" t="s" s="9">
+        <v>28</v>
+      </c>
+      <c r="I9" s="9">
+        <v>28.9563702365887</v>
+      </c>
       <c r="J9" t="s" s="9">
-        <v>27</v>
-      </c>
-      <c r="K9" t="s" s="9">
-        <v>28</v>
-      </c>
-      <c r="L9" s="9">
-        <v>1954</v>
-      </c>
-      <c r="M9" t="s" s="9">
         <v>29</v>
       </c>
+      <c r="K9" s="10"/>
+      <c r="L9" t="s" s="9">
+        <v>30</v>
+      </c>
+      <c r="M9" s="10"/>
       <c r="N9" s="10"/>
       <c r="O9" s="10"/>
-      <c r="P9" s="9">
-        <v>28.9563702365887</v>
-      </c>
+      <c r="P9" s="10"/>
       <c r="Q9" s="10"/>
       <c r="R9" s="10"/>
-      <c r="S9" t="s" s="9">
-        <v>30</v>
-      </c>
+      <c r="S9" s="10"/>
       <c r="T9" s="10"/>
       <c r="U9" s="10"/>
       <c r="V9" s="10"/>
@@ -2079,44 +2079,44 @@
       <c r="A10" s="9">
         <v>165</v>
       </c>
-      <c r="B10" s="10"/>
+      <c r="B10" s="9">
+        <v>686</v>
+      </c>
       <c r="C10" s="9">
-        <v>686</v>
-      </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="9">
         <v>34</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="9">
-        <v>2</v>
-      </c>
-      <c r="I10" t="s" s="9">
+      <c r="D10" s="9">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s" s="9">
         <v>26</v>
       </c>
+      <c r="F10" t="s" s="9">
+        <v>27</v>
+      </c>
+      <c r="G10" s="9">
+        <v>1955</v>
+      </c>
+      <c r="H10" t="s" s="9">
+        <v>28</v>
+      </c>
+      <c r="I10" s="9">
+        <v>316.865073859446</v>
+      </c>
       <c r="J10" t="s" s="9">
-        <v>27</v>
-      </c>
-      <c r="K10" t="s" s="9">
-        <v>28</v>
-      </c>
-      <c r="L10" s="9">
-        <v>1955</v>
-      </c>
-      <c r="M10" t="s" s="9">
         <v>29</v>
       </c>
+      <c r="K10" s="10"/>
+      <c r="L10" t="s" s="9">
+        <v>30</v>
+      </c>
+      <c r="M10" s="10"/>
       <c r="N10" s="10"/>
       <c r="O10" s="10"/>
-      <c r="P10" s="9">
-        <v>316.865073859446</v>
-      </c>
+      <c r="P10" s="10"/>
       <c r="Q10" s="10"/>
       <c r="R10" s="10"/>
-      <c r="S10" t="s" s="9">
-        <v>30</v>
-      </c>
+      <c r="S10" s="10"/>
       <c r="T10" s="10"/>
       <c r="U10" s="10"/>
       <c r="V10" s="10"/>
@@ -2131,44 +2131,44 @@
       <c r="A11" s="9">
         <v>165</v>
       </c>
-      <c r="B11" s="10"/>
+      <c r="B11" s="9">
+        <v>686</v>
+      </c>
       <c r="C11" s="9">
-        <v>686</v>
-      </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="9">
         <v>34</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="9">
-        <v>2</v>
-      </c>
-      <c r="I11" t="s" s="9">
+      <c r="D11" s="9">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s" s="9">
         <v>26</v>
       </c>
+      <c r="F11" t="s" s="9">
+        <v>27</v>
+      </c>
+      <c r="G11" s="9">
+        <v>1951</v>
+      </c>
+      <c r="H11" t="s" s="9">
+        <v>28</v>
+      </c>
+      <c r="I11" s="9">
+        <v>12.8212595279804</v>
+      </c>
       <c r="J11" t="s" s="9">
-        <v>27</v>
-      </c>
-      <c r="K11" t="s" s="9">
-        <v>28</v>
-      </c>
-      <c r="L11" s="9">
-        <v>1951</v>
-      </c>
-      <c r="M11" t="s" s="9">
         <v>29</v>
       </c>
+      <c r="K11" s="10"/>
+      <c r="L11" t="s" s="9">
+        <v>30</v>
+      </c>
+      <c r="M11" s="10"/>
       <c r="N11" s="10"/>
       <c r="O11" s="10"/>
-      <c r="P11" s="9">
-        <v>12.8212595279804</v>
-      </c>
+      <c r="P11" s="10"/>
       <c r="Q11" s="10"/>
       <c r="R11" s="10"/>
-      <c r="S11" t="s" s="9">
-        <v>30</v>
-      </c>
+      <c r="S11" s="10"/>
       <c r="T11" s="10"/>
       <c r="U11" s="10"/>
       <c r="V11" s="10"/>
@@ -2183,44 +2183,44 @@
       <c r="A12" s="9">
         <v>165</v>
       </c>
-      <c r="B12" s="10"/>
+      <c r="B12" s="9">
+        <v>686</v>
+      </c>
       <c r="C12" s="9">
-        <v>686</v>
-      </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="9">
         <v>34</v>
       </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="9">
-        <v>2</v>
-      </c>
-      <c r="I12" t="s" s="9">
+      <c r="D12" s="9">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s" s="9">
         <v>26</v>
       </c>
+      <c r="F12" t="s" s="9">
+        <v>27</v>
+      </c>
+      <c r="G12" s="9">
+        <v>1951</v>
+      </c>
+      <c r="H12" t="s" s="9">
+        <v>28</v>
+      </c>
+      <c r="I12" s="9">
+        <v>7.23909255914716</v>
+      </c>
       <c r="J12" t="s" s="9">
-        <v>27</v>
-      </c>
-      <c r="K12" t="s" s="9">
-        <v>28</v>
-      </c>
-      <c r="L12" s="9">
-        <v>1951</v>
-      </c>
-      <c r="M12" t="s" s="9">
         <v>29</v>
       </c>
+      <c r="K12" s="10"/>
+      <c r="L12" t="s" s="9">
+        <v>30</v>
+      </c>
+      <c r="M12" s="10"/>
       <c r="N12" s="10"/>
       <c r="O12" s="10"/>
-      <c r="P12" s="9">
-        <v>7.23909255914716</v>
-      </c>
+      <c r="P12" s="10"/>
       <c r="Q12" s="10"/>
       <c r="R12" s="10"/>
-      <c r="S12" t="s" s="9">
-        <v>30</v>
-      </c>
+      <c r="S12" s="10"/>
       <c r="T12" s="10"/>
       <c r="U12" s="10"/>
       <c r="V12" s="10"/>
@@ -2235,44 +2235,44 @@
       <c r="A13" s="9">
         <v>165</v>
       </c>
-      <c r="B13" s="10"/>
+      <c r="B13" s="9">
+        <v>686</v>
+      </c>
       <c r="C13" s="9">
-        <v>686</v>
-      </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="9">
         <v>34</v>
       </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="9">
-        <v>2</v>
-      </c>
-      <c r="I13" t="s" s="9">
+      <c r="D13" s="9">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s" s="9">
         <v>26</v>
       </c>
+      <c r="F13" t="s" s="9">
+        <v>27</v>
+      </c>
+      <c r="G13" s="9">
+        <v>1952</v>
+      </c>
+      <c r="H13" t="s" s="9">
+        <v>28</v>
+      </c>
+      <c r="I13" s="9">
+        <v>51.140148484989</v>
+      </c>
       <c r="J13" t="s" s="9">
-        <v>27</v>
-      </c>
-      <c r="K13" t="s" s="9">
-        <v>28</v>
-      </c>
-      <c r="L13" s="9">
-        <v>1952</v>
-      </c>
-      <c r="M13" t="s" s="9">
         <v>29</v>
       </c>
+      <c r="K13" s="10"/>
+      <c r="L13" t="s" s="9">
+        <v>30</v>
+      </c>
+      <c r="M13" s="10"/>
       <c r="N13" s="10"/>
       <c r="O13" s="10"/>
-      <c r="P13" s="9">
-        <v>51.140148484989</v>
-      </c>
+      <c r="P13" s="10"/>
       <c r="Q13" s="10"/>
       <c r="R13" s="10"/>
-      <c r="S13" t="s" s="9">
-        <v>30</v>
-      </c>
+      <c r="S13" s="10"/>
       <c r="T13" s="10"/>
       <c r="U13" s="10"/>
       <c r="V13" s="10"/>
@@ -2287,44 +2287,44 @@
       <c r="A14" s="9">
         <v>165</v>
       </c>
-      <c r="B14" s="10"/>
+      <c r="B14" s="9">
+        <v>686</v>
+      </c>
       <c r="C14" s="9">
-        <v>686</v>
-      </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="9">
         <v>34</v>
       </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="9">
-        <v>2</v>
-      </c>
-      <c r="I14" t="s" s="9">
+      <c r="D14" s="9">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s" s="9">
         <v>26</v>
       </c>
+      <c r="F14" t="s" s="9">
+        <v>27</v>
+      </c>
+      <c r="G14" s="9">
+        <v>1952</v>
+      </c>
+      <c r="H14" t="s" s="9">
+        <v>28</v>
+      </c>
+      <c r="I14" s="9">
+        <v>14.4781851182943</v>
+      </c>
       <c r="J14" t="s" s="9">
-        <v>27</v>
-      </c>
-      <c r="K14" t="s" s="9">
-        <v>28</v>
-      </c>
-      <c r="L14" s="9">
-        <v>1952</v>
-      </c>
-      <c r="M14" t="s" s="9">
         <v>29</v>
       </c>
+      <c r="K14" s="10"/>
+      <c r="L14" t="s" s="9">
+        <v>30</v>
+      </c>
+      <c r="M14" s="10"/>
       <c r="N14" s="10"/>
       <c r="O14" s="10"/>
-      <c r="P14" s="9">
-        <v>14.4781851182943</v>
-      </c>
+      <c r="P14" s="10"/>
       <c r="Q14" s="10"/>
       <c r="R14" s="10"/>
-      <c r="S14" t="s" s="9">
-        <v>30</v>
-      </c>
+      <c r="S14" s="10"/>
       <c r="T14" s="10"/>
       <c r="U14" s="10"/>
       <c r="V14" s="10"/>
@@ -2339,44 +2339,44 @@
       <c r="A15" s="9">
         <v>165</v>
       </c>
-      <c r="B15" s="10"/>
+      <c r="B15" s="9">
+        <v>686</v>
+      </c>
       <c r="C15" s="9">
-        <v>686</v>
-      </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="9">
         <v>34</v>
       </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="9">
-        <v>2</v>
-      </c>
-      <c r="I15" t="s" s="9">
+      <c r="D15" s="9">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s" s="9">
         <v>26</v>
       </c>
+      <c r="F15" t="s" s="9">
+        <v>27</v>
+      </c>
+      <c r="G15" s="9">
+        <v>1953</v>
+      </c>
+      <c r="H15" t="s" s="9">
+        <v>28</v>
+      </c>
+      <c r="I15" s="9">
+        <v>114.736682010622</v>
+      </c>
       <c r="J15" t="s" s="9">
-        <v>27</v>
-      </c>
-      <c r="K15" t="s" s="9">
-        <v>28</v>
-      </c>
-      <c r="L15" s="9">
-        <v>1953</v>
-      </c>
-      <c r="M15" t="s" s="9">
         <v>29</v>
       </c>
+      <c r="K15" s="10"/>
+      <c r="L15" t="s" s="9">
+        <v>30</v>
+      </c>
+      <c r="M15" s="10"/>
       <c r="N15" s="10"/>
       <c r="O15" s="10"/>
-      <c r="P15" s="9">
-        <v>114.736682010622</v>
-      </c>
+      <c r="P15" s="10"/>
       <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
-      <c r="S15" t="s" s="9">
-        <v>30</v>
-      </c>
+      <c r="S15" s="10"/>
       <c r="T15" s="10"/>
       <c r="U15" s="10"/>
       <c r="V15" s="10"/>
@@ -2391,44 +2391,44 @@
       <c r="A16" s="9">
         <v>165</v>
       </c>
-      <c r="B16" s="10"/>
+      <c r="B16" s="9">
+        <v>686</v>
+      </c>
       <c r="C16" s="9">
-        <v>686</v>
-      </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="9">
         <v>34</v>
       </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="9">
-        <v>2</v>
-      </c>
-      <c r="I16" t="s" s="9">
+      <c r="D16" s="9">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s" s="9">
         <v>26</v>
       </c>
+      <c r="F16" t="s" s="9">
+        <v>27</v>
+      </c>
+      <c r="G16" s="9">
+        <v>1953</v>
+      </c>
+      <c r="H16" t="s" s="9">
+        <v>28</v>
+      </c>
+      <c r="I16" s="9">
+        <v>21.7172776774415</v>
+      </c>
       <c r="J16" t="s" s="9">
-        <v>27</v>
-      </c>
-      <c r="K16" t="s" s="9">
-        <v>28</v>
-      </c>
-      <c r="L16" s="9">
-        <v>1953</v>
-      </c>
-      <c r="M16" t="s" s="9">
         <v>29</v>
       </c>
+      <c r="K16" s="10"/>
+      <c r="L16" t="s" s="9">
+        <v>30</v>
+      </c>
+      <c r="M16" s="10"/>
       <c r="N16" s="10"/>
       <c r="O16" s="10"/>
-      <c r="P16" s="9">
-        <v>21.7172776774415</v>
-      </c>
+      <c r="P16" s="10"/>
       <c r="Q16" s="10"/>
       <c r="R16" s="10"/>
-      <c r="S16" t="s" s="9">
-        <v>30</v>
-      </c>
+      <c r="S16" s="10"/>
       <c r="T16" s="10"/>
       <c r="U16" s="10"/>
       <c r="V16" s="10"/>
@@ -2443,44 +2443,44 @@
       <c r="A17" s="9">
         <v>165</v>
       </c>
-      <c r="B17" s="10"/>
+      <c r="B17" s="9">
+        <v>686</v>
+      </c>
       <c r="C17" s="9">
-        <v>686</v>
-      </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="9">
         <v>34</v>
       </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="9">
-        <v>2</v>
-      </c>
-      <c r="I17" t="s" s="9">
+      <c r="D17" s="9">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s" s="9">
         <v>26</v>
       </c>
+      <c r="F17" t="s" s="9">
+        <v>27</v>
+      </c>
+      <c r="G17" s="9">
+        <v>1954</v>
+      </c>
+      <c r="H17" t="s" s="9">
+        <v>28</v>
+      </c>
+      <c r="I17" s="9">
+        <v>203.387341351136</v>
+      </c>
       <c r="J17" t="s" s="9">
-        <v>27</v>
-      </c>
-      <c r="K17" t="s" s="9">
-        <v>28</v>
-      </c>
-      <c r="L17" s="9">
-        <v>1954</v>
-      </c>
-      <c r="M17" t="s" s="9">
         <v>29</v>
       </c>
+      <c r="K17" s="10"/>
+      <c r="L17" t="s" s="9">
+        <v>30</v>
+      </c>
+      <c r="M17" s="10"/>
       <c r="N17" s="10"/>
       <c r="O17" s="10"/>
-      <c r="P17" s="9">
-        <v>203.387341351136</v>
-      </c>
+      <c r="P17" s="10"/>
       <c r="Q17" s="10"/>
       <c r="R17" s="10"/>
-      <c r="S17" t="s" s="9">
-        <v>30</v>
-      </c>
+      <c r="S17" s="10"/>
       <c r="T17" s="10"/>
       <c r="U17" s="10"/>
       <c r="V17" s="10"/>
@@ -2495,44 +2495,44 @@
       <c r="A18" s="9">
         <v>165</v>
       </c>
-      <c r="B18" s="10"/>
+      <c r="B18" s="9">
+        <v>686</v>
+      </c>
       <c r="C18" s="9">
-        <v>686</v>
-      </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="9">
         <v>34</v>
       </c>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="9">
-        <v>2</v>
-      </c>
-      <c r="I18" t="s" s="9">
+      <c r="D18" s="9">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s" s="9">
         <v>26</v>
       </c>
+      <c r="F18" t="s" s="9">
+        <v>27</v>
+      </c>
+      <c r="G18" s="9">
+        <v>1954</v>
+      </c>
+      <c r="H18" t="s" s="9">
+        <v>28</v>
+      </c>
+      <c r="I18" s="9">
+        <v>28.9563702365887</v>
+      </c>
       <c r="J18" t="s" s="9">
-        <v>27</v>
-      </c>
-      <c r="K18" t="s" s="9">
-        <v>28</v>
-      </c>
-      <c r="L18" s="9">
-        <v>1954</v>
-      </c>
-      <c r="M18" t="s" s="9">
         <v>29</v>
       </c>
+      <c r="K18" s="10"/>
+      <c r="L18" t="s" s="9">
+        <v>30</v>
+      </c>
+      <c r="M18" s="10"/>
       <c r="N18" s="10"/>
       <c r="O18" s="10"/>
-      <c r="P18" s="9">
-        <v>28.9563702365887</v>
-      </c>
+      <c r="P18" s="10"/>
       <c r="Q18" s="10"/>
       <c r="R18" s="10"/>
-      <c r="S18" t="s" s="9">
-        <v>30</v>
-      </c>
+      <c r="S18" s="10"/>
       <c r="T18" s="10"/>
       <c r="U18" s="10"/>
       <c r="V18" s="10"/>
@@ -2547,44 +2547,44 @@
       <c r="A19" s="9">
         <v>165</v>
       </c>
-      <c r="B19" s="10"/>
+      <c r="B19" s="9">
+        <v>686</v>
+      </c>
       <c r="C19" s="9">
-        <v>686</v>
-      </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="9">
         <v>34</v>
       </c>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="9">
-        <v>2</v>
-      </c>
-      <c r="I19" t="s" s="9">
+      <c r="D19" s="9">
+        <v>2</v>
+      </c>
+      <c r="E19" t="s" s="9">
         <v>26</v>
       </c>
+      <c r="F19" t="s" s="9">
+        <v>27</v>
+      </c>
+      <c r="G19" s="9">
+        <v>1955</v>
+      </c>
+      <c r="H19" t="s" s="9">
+        <v>28</v>
+      </c>
+      <c r="I19" s="9">
+        <v>316.865073859446</v>
+      </c>
       <c r="J19" t="s" s="9">
-        <v>27</v>
-      </c>
-      <c r="K19" t="s" s="9">
-        <v>28</v>
-      </c>
-      <c r="L19" s="9">
-        <v>1955</v>
-      </c>
-      <c r="M19" t="s" s="9">
         <v>29</v>
       </c>
+      <c r="K19" s="10"/>
+      <c r="L19" t="s" s="9">
+        <v>30</v>
+      </c>
+      <c r="M19" s="10"/>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
-      <c r="P19" s="9">
-        <v>316.865073859446</v>
-      </c>
+      <c r="P19" s="10"/>
       <c r="Q19" s="10"/>
       <c r="R19" s="10"/>
-      <c r="S19" t="s" s="9">
-        <v>30</v>
-      </c>
+      <c r="S19" s="10"/>
       <c r="T19" s="10"/>
       <c r="U19" s="10"/>
       <c r="V19" s="10"/>
@@ -2599,44 +2599,44 @@
       <c r="A20" s="9">
         <v>165</v>
       </c>
-      <c r="B20" s="10"/>
+      <c r="B20" s="9">
+        <v>686</v>
+      </c>
       <c r="C20" s="9">
-        <v>686</v>
-      </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="9">
         <v>34</v>
       </c>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="9">
-        <v>2</v>
-      </c>
-      <c r="I20" t="s" s="9">
+      <c r="D20" s="9">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s" s="9">
         <v>26</v>
       </c>
+      <c r="F20" t="s" s="9">
+        <v>27</v>
+      </c>
+      <c r="G20" s="9">
+        <v>1951</v>
+      </c>
+      <c r="H20" t="s" s="9">
+        <v>28</v>
+      </c>
+      <c r="I20" s="9">
+        <v>12.8212595279804</v>
+      </c>
       <c r="J20" t="s" s="9">
-        <v>27</v>
-      </c>
-      <c r="K20" t="s" s="9">
-        <v>28</v>
-      </c>
-      <c r="L20" s="9">
-        <v>1951</v>
-      </c>
-      <c r="M20" t="s" s="9">
         <v>29</v>
       </c>
+      <c r="K20" s="10"/>
+      <c r="L20" t="s" s="9">
+        <v>30</v>
+      </c>
+      <c r="M20" s="10"/>
       <c r="N20" s="10"/>
       <c r="O20" s="10"/>
-      <c r="P20" s="9">
-        <v>12.8212595279804</v>
-      </c>
+      <c r="P20" s="10"/>
       <c r="Q20" s="10"/>
       <c r="R20" s="10"/>
-      <c r="S20" t="s" s="9">
-        <v>30</v>
-      </c>
+      <c r="S20" s="10"/>
       <c r="T20" s="10"/>
       <c r="U20" s="10"/>
       <c r="V20" s="10"/>
@@ -2651,44 +2651,44 @@
       <c r="A21" s="9">
         <v>165</v>
       </c>
-      <c r="B21" s="10"/>
+      <c r="B21" s="9">
+        <v>686</v>
+      </c>
       <c r="C21" s="9">
-        <v>686</v>
-      </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="9">
         <v>34</v>
       </c>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="9">
-        <v>2</v>
-      </c>
-      <c r="I21" t="s" s="9">
+      <c r="D21" s="9">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s" s="9">
         <v>26</v>
       </c>
+      <c r="F21" t="s" s="9">
+        <v>27</v>
+      </c>
+      <c r="G21" s="9">
+        <v>1951</v>
+      </c>
+      <c r="H21" t="s" s="9">
+        <v>28</v>
+      </c>
+      <c r="I21" s="9">
+        <v>7.23909255914716</v>
+      </c>
       <c r="J21" t="s" s="9">
-        <v>27</v>
-      </c>
-      <c r="K21" t="s" s="9">
-        <v>28</v>
-      </c>
-      <c r="L21" s="9">
-        <v>1951</v>
-      </c>
-      <c r="M21" t="s" s="9">
         <v>29</v>
       </c>
+      <c r="K21" s="10"/>
+      <c r="L21" t="s" s="9">
+        <v>30</v>
+      </c>
+      <c r="M21" s="10"/>
       <c r="N21" s="10"/>
       <c r="O21" s="10"/>
-      <c r="P21" s="9">
-        <v>7.23909255914716</v>
-      </c>
+      <c r="P21" s="10"/>
       <c r="Q21" s="10"/>
       <c r="R21" s="10"/>
-      <c r="S21" t="s" s="9">
-        <v>30</v>
-      </c>
+      <c r="S21" s="10"/>
       <c r="T21" s="10"/>
       <c r="U21" s="10"/>
       <c r="V21" s="10"/>
@@ -2703,44 +2703,44 @@
       <c r="A22" s="9">
         <v>165</v>
       </c>
-      <c r="B22" s="10"/>
+      <c r="B22" s="9">
+        <v>686</v>
+      </c>
       <c r="C22" s="9">
-        <v>686</v>
-      </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="9">
         <v>34</v>
       </c>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="9">
-        <v>2</v>
-      </c>
-      <c r="I22" t="s" s="9">
+      <c r="D22" s="9">
+        <v>2</v>
+      </c>
+      <c r="E22" t="s" s="9">
         <v>26</v>
       </c>
+      <c r="F22" t="s" s="9">
+        <v>27</v>
+      </c>
+      <c r="G22" s="9">
+        <v>1952</v>
+      </c>
+      <c r="H22" t="s" s="9">
+        <v>28</v>
+      </c>
+      <c r="I22" s="9">
+        <v>51.140148484989</v>
+      </c>
       <c r="J22" t="s" s="9">
-        <v>27</v>
-      </c>
-      <c r="K22" t="s" s="9">
-        <v>28</v>
-      </c>
-      <c r="L22" s="9">
-        <v>1952</v>
-      </c>
-      <c r="M22" t="s" s="9">
         <v>29</v>
       </c>
+      <c r="K22" s="10"/>
+      <c r="L22" t="s" s="9">
+        <v>30</v>
+      </c>
+      <c r="M22" s="10"/>
       <c r="N22" s="10"/>
       <c r="O22" s="10"/>
-      <c r="P22" s="9">
-        <v>51.140148484989</v>
-      </c>
+      <c r="P22" s="10"/>
       <c r="Q22" s="10"/>
       <c r="R22" s="10"/>
-      <c r="S22" t="s" s="9">
-        <v>30</v>
-      </c>
+      <c r="S22" s="10"/>
       <c r="T22" s="10"/>
       <c r="U22" s="10"/>
       <c r="V22" s="10"/>
@@ -2755,44 +2755,44 @@
       <c r="A23" s="9">
         <v>165</v>
       </c>
-      <c r="B23" s="10"/>
+      <c r="B23" s="9">
+        <v>686</v>
+      </c>
       <c r="C23" s="9">
-        <v>686</v>
-      </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="9">
         <v>34</v>
       </c>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="9">
-        <v>2</v>
-      </c>
-      <c r="I23" t="s" s="9">
+      <c r="D23" s="9">
+        <v>2</v>
+      </c>
+      <c r="E23" t="s" s="9">
         <v>26</v>
       </c>
+      <c r="F23" t="s" s="9">
+        <v>27</v>
+      </c>
+      <c r="G23" s="9">
+        <v>1952</v>
+      </c>
+      <c r="H23" t="s" s="9">
+        <v>28</v>
+      </c>
+      <c r="I23" s="9">
+        <v>14.4781851182943</v>
+      </c>
       <c r="J23" t="s" s="9">
-        <v>27</v>
-      </c>
-      <c r="K23" t="s" s="9">
-        <v>28</v>
-      </c>
-      <c r="L23" s="9">
-        <v>1952</v>
-      </c>
-      <c r="M23" t="s" s="9">
         <v>29</v>
       </c>
+      <c r="K23" s="10"/>
+      <c r="L23" t="s" s="9">
+        <v>30</v>
+      </c>
+      <c r="M23" s="10"/>
       <c r="N23" s="10"/>
       <c r="O23" s="10"/>
-      <c r="P23" s="9">
-        <v>14.4781851182943</v>
-      </c>
+      <c r="P23" s="10"/>
       <c r="Q23" s="10"/>
       <c r="R23" s="10"/>
-      <c r="S23" t="s" s="9">
-        <v>30</v>
-      </c>
+      <c r="S23" s="10"/>
       <c r="T23" s="10"/>
       <c r="U23" s="10"/>
       <c r="V23" s="10"/>
@@ -2807,44 +2807,44 @@
       <c r="A24" s="9">
         <v>165</v>
       </c>
-      <c r="B24" s="10"/>
+      <c r="B24" s="9">
+        <v>686</v>
+      </c>
       <c r="C24" s="9">
-        <v>686</v>
-      </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="9">
         <v>34</v>
       </c>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="9">
-        <v>2</v>
-      </c>
-      <c r="I24" t="s" s="9">
+      <c r="D24" s="9">
+        <v>2</v>
+      </c>
+      <c r="E24" t="s" s="9">
         <v>26</v>
       </c>
+      <c r="F24" t="s" s="9">
+        <v>27</v>
+      </c>
+      <c r="G24" s="9">
+        <v>1953</v>
+      </c>
+      <c r="H24" t="s" s="9">
+        <v>28</v>
+      </c>
+      <c r="I24" s="9">
+        <v>114.736682010622</v>
+      </c>
       <c r="J24" t="s" s="9">
-        <v>27</v>
-      </c>
-      <c r="K24" t="s" s="9">
-        <v>28</v>
-      </c>
-      <c r="L24" s="9">
-        <v>1953</v>
-      </c>
-      <c r="M24" t="s" s="9">
         <v>29</v>
       </c>
+      <c r="K24" s="10"/>
+      <c r="L24" t="s" s="9">
+        <v>30</v>
+      </c>
+      <c r="M24" s="10"/>
       <c r="N24" s="10"/>
       <c r="O24" s="10"/>
-      <c r="P24" s="9">
-        <v>114.736682010622</v>
-      </c>
+      <c r="P24" s="10"/>
       <c r="Q24" s="10"/>
       <c r="R24" s="10"/>
-      <c r="S24" t="s" s="9">
-        <v>30</v>
-      </c>
+      <c r="S24" s="10"/>
       <c r="T24" s="10"/>
       <c r="U24" s="10"/>
       <c r="V24" s="10"/>
@@ -2859,44 +2859,44 @@
       <c r="A25" s="9">
         <v>165</v>
       </c>
-      <c r="B25" s="10"/>
+      <c r="B25" s="9">
+        <v>686</v>
+      </c>
       <c r="C25" s="9">
-        <v>686</v>
-      </c>
-      <c r="D25" s="10"/>
-      <c r="E25" s="9">
         <v>34</v>
       </c>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="9">
-        <v>2</v>
-      </c>
-      <c r="I25" t="s" s="9">
+      <c r="D25" s="9">
+        <v>2</v>
+      </c>
+      <c r="E25" t="s" s="9">
         <v>26</v>
       </c>
+      <c r="F25" t="s" s="9">
+        <v>27</v>
+      </c>
+      <c r="G25" s="9">
+        <v>1953</v>
+      </c>
+      <c r="H25" t="s" s="9">
+        <v>28</v>
+      </c>
+      <c r="I25" s="9">
+        <v>21.7172776774415</v>
+      </c>
       <c r="J25" t="s" s="9">
-        <v>27</v>
-      </c>
-      <c r="K25" t="s" s="9">
-        <v>28</v>
-      </c>
-      <c r="L25" s="9">
-        <v>1953</v>
-      </c>
-      <c r="M25" t="s" s="9">
         <v>29</v>
       </c>
+      <c r="K25" s="10"/>
+      <c r="L25" t="s" s="9">
+        <v>30</v>
+      </c>
+      <c r="M25" s="10"/>
       <c r="N25" s="10"/>
       <c r="O25" s="10"/>
-      <c r="P25" s="9">
-        <v>21.7172776774415</v>
-      </c>
+      <c r="P25" s="10"/>
       <c r="Q25" s="10"/>
       <c r="R25" s="10"/>
-      <c r="S25" t="s" s="9">
-        <v>30</v>
-      </c>
+      <c r="S25" s="10"/>
       <c r="T25" s="10"/>
       <c r="U25" s="10"/>
       <c r="V25" s="10"/>
@@ -2911,44 +2911,44 @@
       <c r="A26" s="9">
         <v>165</v>
       </c>
-      <c r="B26" s="10"/>
+      <c r="B26" s="9">
+        <v>686</v>
+      </c>
       <c r="C26" s="9">
-        <v>686</v>
-      </c>
-      <c r="D26" s="10"/>
-      <c r="E26" s="9">
         <v>34</v>
       </c>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="9">
-        <v>2</v>
-      </c>
-      <c r="I26" t="s" s="9">
+      <c r="D26" s="9">
+        <v>2</v>
+      </c>
+      <c r="E26" t="s" s="9">
         <v>26</v>
       </c>
+      <c r="F26" t="s" s="9">
+        <v>27</v>
+      </c>
+      <c r="G26" s="9">
+        <v>1954</v>
+      </c>
+      <c r="H26" t="s" s="9">
+        <v>28</v>
+      </c>
+      <c r="I26" s="9">
+        <v>203.387341351136</v>
+      </c>
       <c r="J26" t="s" s="9">
-        <v>27</v>
-      </c>
-      <c r="K26" t="s" s="9">
-        <v>28</v>
-      </c>
-      <c r="L26" s="9">
-        <v>1954</v>
-      </c>
-      <c r="M26" t="s" s="9">
         <v>29</v>
       </c>
+      <c r="K26" s="10"/>
+      <c r="L26" t="s" s="9">
+        <v>30</v>
+      </c>
+      <c r="M26" s="10"/>
       <c r="N26" s="10"/>
       <c r="O26" s="10"/>
-      <c r="P26" s="9">
-        <v>203.387341351136</v>
-      </c>
+      <c r="P26" s="10"/>
       <c r="Q26" s="10"/>
       <c r="R26" s="10"/>
-      <c r="S26" t="s" s="9">
-        <v>30</v>
-      </c>
+      <c r="S26" s="10"/>
       <c r="T26" s="10"/>
       <c r="U26" s="10"/>
       <c r="V26" s="10"/>
@@ -2963,44 +2963,44 @@
       <c r="A27" s="9">
         <v>165</v>
       </c>
-      <c r="B27" s="10"/>
+      <c r="B27" s="9">
+        <v>686</v>
+      </c>
       <c r="C27" s="9">
-        <v>686</v>
-      </c>
-      <c r="D27" s="10"/>
-      <c r="E27" s="9">
         <v>34</v>
       </c>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="9">
-        <v>2</v>
-      </c>
-      <c r="I27" t="s" s="9">
+      <c r="D27" s="9">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s" s="9">
         <v>26</v>
       </c>
+      <c r="F27" t="s" s="9">
+        <v>27</v>
+      </c>
+      <c r="G27" s="9">
+        <v>1954</v>
+      </c>
+      <c r="H27" t="s" s="9">
+        <v>28</v>
+      </c>
+      <c r="I27" s="9">
+        <v>28.9563702365887</v>
+      </c>
       <c r="J27" t="s" s="9">
-        <v>27</v>
-      </c>
-      <c r="K27" t="s" s="9">
-        <v>28</v>
-      </c>
-      <c r="L27" s="9">
-        <v>1954</v>
-      </c>
-      <c r="M27" t="s" s="9">
         <v>29</v>
       </c>
+      <c r="K27" s="10"/>
+      <c r="L27" t="s" s="9">
+        <v>30</v>
+      </c>
+      <c r="M27" s="10"/>
       <c r="N27" s="10"/>
       <c r="O27" s="10"/>
-      <c r="P27" s="9">
-        <v>28.9563702365887</v>
-      </c>
+      <c r="P27" s="10"/>
       <c r="Q27" s="10"/>
       <c r="R27" s="10"/>
-      <c r="S27" t="s" s="9">
-        <v>30</v>
-      </c>
+      <c r="S27" s="10"/>
       <c r="T27" s="10"/>
       <c r="U27" s="10"/>
       <c r="V27" s="10"/>
@@ -3015,44 +3015,44 @@
       <c r="A28" s="9">
         <v>165</v>
       </c>
-      <c r="B28" s="10"/>
+      <c r="B28" s="9">
+        <v>686</v>
+      </c>
       <c r="C28" s="9">
-        <v>686</v>
-      </c>
-      <c r="D28" s="10"/>
-      <c r="E28" s="9">
         <v>34</v>
       </c>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="9">
-        <v>2</v>
-      </c>
-      <c r="I28" t="s" s="9">
+      <c r="D28" s="9">
+        <v>2</v>
+      </c>
+      <c r="E28" t="s" s="9">
         <v>26</v>
       </c>
+      <c r="F28" t="s" s="9">
+        <v>27</v>
+      </c>
+      <c r="G28" s="9">
+        <v>1955</v>
+      </c>
+      <c r="H28" t="s" s="9">
+        <v>28</v>
+      </c>
+      <c r="I28" s="9">
+        <v>316.865073859446</v>
+      </c>
       <c r="J28" t="s" s="9">
-        <v>27</v>
-      </c>
-      <c r="K28" t="s" s="9">
-        <v>28</v>
-      </c>
-      <c r="L28" s="9">
-        <v>1955</v>
-      </c>
-      <c r="M28" t="s" s="9">
         <v>29</v>
       </c>
+      <c r="K28" s="10"/>
+      <c r="L28" t="s" s="9">
+        <v>30</v>
+      </c>
+      <c r="M28" s="10"/>
       <c r="N28" s="10"/>
       <c r="O28" s="10"/>
-      <c r="P28" s="9">
-        <v>316.865073859446</v>
-      </c>
+      <c r="P28" s="10"/>
       <c r="Q28" s="10"/>
       <c r="R28" s="10"/>
-      <c r="S28" t="s" s="9">
-        <v>30</v>
-      </c>
+      <c r="S28" s="10"/>
       <c r="T28" s="10"/>
       <c r="U28" s="10"/>
       <c r="V28" s="10"/>
@@ -3067,44 +3067,44 @@
       <c r="A29" s="9">
         <v>165</v>
       </c>
-      <c r="B29" s="10"/>
+      <c r="B29" s="9">
+        <v>686</v>
+      </c>
       <c r="C29" s="9">
-        <v>686</v>
-      </c>
-      <c r="D29" s="10"/>
-      <c r="E29" s="9">
         <v>34</v>
       </c>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="9">
-        <v>2</v>
-      </c>
-      <c r="I29" t="s" s="9">
+      <c r="D29" s="9">
+        <v>2</v>
+      </c>
+      <c r="E29" t="s" s="9">
         <v>26</v>
       </c>
+      <c r="F29" t="s" s="9">
+        <v>27</v>
+      </c>
+      <c r="G29" s="9">
+        <v>1951</v>
+      </c>
+      <c r="H29" t="s" s="9">
+        <v>28</v>
+      </c>
+      <c r="I29" s="9">
+        <v>12.8212595279804</v>
+      </c>
       <c r="J29" t="s" s="9">
-        <v>27</v>
-      </c>
-      <c r="K29" t="s" s="9">
-        <v>28</v>
-      </c>
-      <c r="L29" s="9">
-        <v>1951</v>
-      </c>
-      <c r="M29" t="s" s="9">
         <v>29</v>
       </c>
+      <c r="K29" s="10"/>
+      <c r="L29" t="s" s="9">
+        <v>30</v>
+      </c>
+      <c r="M29" s="10"/>
       <c r="N29" s="10"/>
       <c r="O29" s="10"/>
-      <c r="P29" s="9">
-        <v>12.8212595279804</v>
-      </c>
+      <c r="P29" s="10"/>
       <c r="Q29" s="10"/>
       <c r="R29" s="10"/>
-      <c r="S29" t="s" s="9">
-        <v>30</v>
-      </c>
+      <c r="S29" s="10"/>
       <c r="T29" s="10"/>
       <c r="U29" s="10"/>
       <c r="V29" s="10"/>
@@ -3119,44 +3119,44 @@
       <c r="A30" s="9">
         <v>165</v>
       </c>
-      <c r="B30" s="10"/>
+      <c r="B30" s="9">
+        <v>686</v>
+      </c>
       <c r="C30" s="9">
-        <v>686</v>
-      </c>
-      <c r="D30" s="10"/>
-      <c r="E30" s="9">
         <v>34</v>
       </c>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="9">
-        <v>2</v>
-      </c>
-      <c r="I30" t="s" s="9">
+      <c r="D30" s="9">
+        <v>2</v>
+      </c>
+      <c r="E30" t="s" s="9">
         <v>26</v>
       </c>
+      <c r="F30" t="s" s="9">
+        <v>27</v>
+      </c>
+      <c r="G30" s="9">
+        <v>1951</v>
+      </c>
+      <c r="H30" t="s" s="9">
+        <v>28</v>
+      </c>
+      <c r="I30" s="9">
+        <v>7.23909255914716</v>
+      </c>
       <c r="J30" t="s" s="9">
-        <v>27</v>
-      </c>
-      <c r="K30" t="s" s="9">
-        <v>28</v>
-      </c>
-      <c r="L30" s="9">
-        <v>1951</v>
-      </c>
-      <c r="M30" t="s" s="9">
         <v>29</v>
       </c>
+      <c r="K30" s="10"/>
+      <c r="L30" t="s" s="9">
+        <v>30</v>
+      </c>
+      <c r="M30" s="10"/>
       <c r="N30" s="10"/>
       <c r="O30" s="10"/>
-      <c r="P30" s="9">
-        <v>7.23909255914716</v>
-      </c>
+      <c r="P30" s="10"/>
       <c r="Q30" s="10"/>
       <c r="R30" s="10"/>
-      <c r="S30" t="s" s="9">
-        <v>30</v>
-      </c>
+      <c r="S30" s="10"/>
       <c r="T30" s="10"/>
       <c r="U30" s="10"/>
       <c r="V30" s="10"/>
@@ -3171,44 +3171,44 @@
       <c r="A31" s="9">
         <v>165</v>
       </c>
-      <c r="B31" s="10"/>
+      <c r="B31" s="9">
+        <v>686</v>
+      </c>
       <c r="C31" s="9">
-        <v>686</v>
-      </c>
-      <c r="D31" s="10"/>
-      <c r="E31" s="9">
         <v>34</v>
       </c>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="9">
-        <v>2</v>
-      </c>
-      <c r="I31" t="s" s="9">
+      <c r="D31" s="9">
+        <v>2</v>
+      </c>
+      <c r="E31" t="s" s="9">
         <v>26</v>
       </c>
+      <c r="F31" t="s" s="9">
+        <v>27</v>
+      </c>
+      <c r="G31" s="9">
+        <v>1952</v>
+      </c>
+      <c r="H31" t="s" s="9">
+        <v>28</v>
+      </c>
+      <c r="I31" s="9">
+        <v>51.140148484989</v>
+      </c>
       <c r="J31" t="s" s="9">
-        <v>27</v>
-      </c>
-      <c r="K31" t="s" s="9">
-        <v>28</v>
-      </c>
-      <c r="L31" s="9">
-        <v>1952</v>
-      </c>
-      <c r="M31" t="s" s="9">
         <v>29</v>
       </c>
+      <c r="K31" s="10"/>
+      <c r="L31" t="s" s="9">
+        <v>30</v>
+      </c>
+      <c r="M31" s="10"/>
       <c r="N31" s="10"/>
       <c r="O31" s="10"/>
-      <c r="P31" s="9">
-        <v>51.140148484989</v>
-      </c>
+      <c r="P31" s="10"/>
       <c r="Q31" s="10"/>
       <c r="R31" s="10"/>
-      <c r="S31" t="s" s="9">
-        <v>30</v>
-      </c>
+      <c r="S31" s="10"/>
       <c r="T31" s="10"/>
       <c r="U31" s="10"/>
       <c r="V31" s="10"/>
@@ -3223,44 +3223,44 @@
       <c r="A32" s="9">
         <v>165</v>
       </c>
-      <c r="B32" s="10"/>
+      <c r="B32" s="9">
+        <v>686</v>
+      </c>
       <c r="C32" s="9">
-        <v>686</v>
-      </c>
-      <c r="D32" s="10"/>
-      <c r="E32" s="9">
         <v>34</v>
       </c>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="9">
-        <v>2</v>
-      </c>
-      <c r="I32" t="s" s="9">
+      <c r="D32" s="9">
+        <v>2</v>
+      </c>
+      <c r="E32" t="s" s="9">
         <v>26</v>
       </c>
+      <c r="F32" t="s" s="9">
+        <v>27</v>
+      </c>
+      <c r="G32" s="9">
+        <v>1952</v>
+      </c>
+      <c r="H32" t="s" s="9">
+        <v>28</v>
+      </c>
+      <c r="I32" s="9">
+        <v>14.4781851182943</v>
+      </c>
       <c r="J32" t="s" s="9">
-        <v>27</v>
-      </c>
-      <c r="K32" t="s" s="9">
-        <v>28</v>
-      </c>
-      <c r="L32" s="9">
-        <v>1952</v>
-      </c>
-      <c r="M32" t="s" s="9">
         <v>29</v>
       </c>
+      <c r="K32" s="10"/>
+      <c r="L32" t="s" s="9">
+        <v>30</v>
+      </c>
+      <c r="M32" s="10"/>
       <c r="N32" s="10"/>
       <c r="O32" s="10"/>
-      <c r="P32" s="9">
-        <v>14.4781851182943</v>
-      </c>
+      <c r="P32" s="10"/>
       <c r="Q32" s="10"/>
       <c r="R32" s="10"/>
-      <c r="S32" t="s" s="9">
-        <v>30</v>
-      </c>
+      <c r="S32" s="10"/>
       <c r="T32" s="10"/>
       <c r="U32" s="10"/>
       <c r="V32" s="10"/>
@@ -3275,44 +3275,44 @@
       <c r="A33" s="9">
         <v>165</v>
       </c>
-      <c r="B33" s="10"/>
+      <c r="B33" s="9">
+        <v>686</v>
+      </c>
       <c r="C33" s="9">
-        <v>686</v>
-      </c>
-      <c r="D33" s="10"/>
-      <c r="E33" s="9">
         <v>34</v>
       </c>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="9">
-        <v>2</v>
-      </c>
-      <c r="I33" t="s" s="9">
+      <c r="D33" s="9">
+        <v>2</v>
+      </c>
+      <c r="E33" t="s" s="9">
         <v>26</v>
       </c>
+      <c r="F33" t="s" s="9">
+        <v>27</v>
+      </c>
+      <c r="G33" s="9">
+        <v>1953</v>
+      </c>
+      <c r="H33" t="s" s="9">
+        <v>28</v>
+      </c>
+      <c r="I33" s="9">
+        <v>114.736682010622</v>
+      </c>
       <c r="J33" t="s" s="9">
-        <v>27</v>
-      </c>
-      <c r="K33" t="s" s="9">
-        <v>28</v>
-      </c>
-      <c r="L33" s="9">
-        <v>1953</v>
-      </c>
-      <c r="M33" t="s" s="9">
         <v>29</v>
       </c>
+      <c r="K33" s="10"/>
+      <c r="L33" t="s" s="9">
+        <v>30</v>
+      </c>
+      <c r="M33" s="10"/>
       <c r="N33" s="10"/>
       <c r="O33" s="10"/>
-      <c r="P33" s="9">
-        <v>114.736682010622</v>
-      </c>
+      <c r="P33" s="10"/>
       <c r="Q33" s="10"/>
       <c r="R33" s="10"/>
-      <c r="S33" t="s" s="9">
-        <v>30</v>
-      </c>
+      <c r="S33" s="10"/>
       <c r="T33" s="10"/>
       <c r="U33" s="10"/>
       <c r="V33" s="10"/>
@@ -3327,44 +3327,44 @@
       <c r="A34" s="9">
         <v>165</v>
       </c>
-      <c r="B34" s="10"/>
+      <c r="B34" s="9">
+        <v>686</v>
+      </c>
       <c r="C34" s="9">
-        <v>686</v>
-      </c>
-      <c r="D34" s="10"/>
-      <c r="E34" s="9">
         <v>34</v>
       </c>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="9">
-        <v>2</v>
-      </c>
-      <c r="I34" t="s" s="9">
+      <c r="D34" s="9">
+        <v>2</v>
+      </c>
+      <c r="E34" t="s" s="9">
         <v>26</v>
       </c>
+      <c r="F34" t="s" s="9">
+        <v>27</v>
+      </c>
+      <c r="G34" s="9">
+        <v>1953</v>
+      </c>
+      <c r="H34" t="s" s="9">
+        <v>28</v>
+      </c>
+      <c r="I34" s="9">
+        <v>21.7172776774415</v>
+      </c>
       <c r="J34" t="s" s="9">
-        <v>27</v>
-      </c>
-      <c r="K34" t="s" s="9">
-        <v>28</v>
-      </c>
-      <c r="L34" s="9">
-        <v>1953</v>
-      </c>
-      <c r="M34" t="s" s="9">
         <v>29</v>
       </c>
+      <c r="K34" s="10"/>
+      <c r="L34" t="s" s="9">
+        <v>30</v>
+      </c>
+      <c r="M34" s="10"/>
       <c r="N34" s="10"/>
       <c r="O34" s="10"/>
-      <c r="P34" s="9">
-        <v>21.7172776774415</v>
-      </c>
+      <c r="P34" s="10"/>
       <c r="Q34" s="10"/>
       <c r="R34" s="10"/>
-      <c r="S34" t="s" s="9">
-        <v>30</v>
-      </c>
+      <c r="S34" s="10"/>
       <c r="T34" s="10"/>
       <c r="U34" s="10"/>
       <c r="V34" s="10"/>
@@ -3379,44 +3379,44 @@
       <c r="A35" s="9">
         <v>165</v>
       </c>
-      <c r="B35" s="10"/>
+      <c r="B35" s="9">
+        <v>686</v>
+      </c>
       <c r="C35" s="9">
-        <v>686</v>
-      </c>
-      <c r="D35" s="10"/>
-      <c r="E35" s="9">
         <v>34</v>
       </c>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="9">
-        <v>2</v>
-      </c>
-      <c r="I35" t="s" s="9">
+      <c r="D35" s="9">
+        <v>2</v>
+      </c>
+      <c r="E35" t="s" s="9">
         <v>26</v>
       </c>
+      <c r="F35" t="s" s="9">
+        <v>27</v>
+      </c>
+      <c r="G35" s="9">
+        <v>1954</v>
+      </c>
+      <c r="H35" t="s" s="9">
+        <v>28</v>
+      </c>
+      <c r="I35" s="9">
+        <v>203.387341351136</v>
+      </c>
       <c r="J35" t="s" s="9">
-        <v>27</v>
-      </c>
-      <c r="K35" t="s" s="9">
-        <v>28</v>
-      </c>
-      <c r="L35" s="9">
-        <v>1954</v>
-      </c>
-      <c r="M35" t="s" s="9">
         <v>29</v>
       </c>
+      <c r="K35" s="10"/>
+      <c r="L35" t="s" s="9">
+        <v>30</v>
+      </c>
+      <c r="M35" s="10"/>
       <c r="N35" s="10"/>
       <c r="O35" s="10"/>
-      <c r="P35" s="9">
-        <v>203.387341351136</v>
-      </c>
+      <c r="P35" s="10"/>
       <c r="Q35" s="10"/>
       <c r="R35" s="10"/>
-      <c r="S35" t="s" s="9">
-        <v>30</v>
-      </c>
+      <c r="S35" s="10"/>
       <c r="T35" s="10"/>
       <c r="U35" s="10"/>
       <c r="V35" s="10"/>
@@ -3431,44 +3431,44 @@
       <c r="A36" s="9">
         <v>165</v>
       </c>
-      <c r="B36" s="10"/>
+      <c r="B36" s="9">
+        <v>686</v>
+      </c>
       <c r="C36" s="9">
-        <v>686</v>
-      </c>
-      <c r="D36" s="10"/>
-      <c r="E36" s="9">
         <v>34</v>
       </c>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="9">
-        <v>2</v>
-      </c>
-      <c r="I36" t="s" s="9">
+      <c r="D36" s="9">
+        <v>2</v>
+      </c>
+      <c r="E36" t="s" s="9">
         <v>26</v>
       </c>
+      <c r="F36" t="s" s="9">
+        <v>27</v>
+      </c>
+      <c r="G36" s="9">
+        <v>1954</v>
+      </c>
+      <c r="H36" t="s" s="9">
+        <v>28</v>
+      </c>
+      <c r="I36" s="9">
+        <v>28.9563702365887</v>
+      </c>
       <c r="J36" t="s" s="9">
-        <v>27</v>
-      </c>
-      <c r="K36" t="s" s="9">
-        <v>28</v>
-      </c>
-      <c r="L36" s="9">
-        <v>1954</v>
-      </c>
-      <c r="M36" t="s" s="9">
         <v>29</v>
       </c>
+      <c r="K36" s="10"/>
+      <c r="L36" t="s" s="9">
+        <v>30</v>
+      </c>
+      <c r="M36" s="10"/>
       <c r="N36" s="10"/>
       <c r="O36" s="10"/>
-      <c r="P36" s="9">
-        <v>28.9563702365887</v>
-      </c>
+      <c r="P36" s="10"/>
       <c r="Q36" s="10"/>
       <c r="R36" s="10"/>
-      <c r="S36" t="s" s="9">
-        <v>30</v>
-      </c>
+      <c r="S36" s="10"/>
       <c r="T36" s="10"/>
       <c r="U36" s="10"/>
       <c r="V36" s="10"/>
@@ -3483,44 +3483,44 @@
       <c r="A37" s="9">
         <v>165</v>
       </c>
-      <c r="B37" s="10"/>
+      <c r="B37" s="9">
+        <v>686</v>
+      </c>
       <c r="C37" s="9">
-        <v>686</v>
-      </c>
-      <c r="D37" s="10"/>
-      <c r="E37" s="9">
         <v>34</v>
       </c>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="9">
-        <v>2</v>
-      </c>
-      <c r="I37" t="s" s="9">
+      <c r="D37" s="9">
+        <v>2</v>
+      </c>
+      <c r="E37" t="s" s="9">
         <v>26</v>
       </c>
+      <c r="F37" t="s" s="9">
+        <v>27</v>
+      </c>
+      <c r="G37" s="9">
+        <v>1955</v>
+      </c>
+      <c r="H37" t="s" s="9">
+        <v>28</v>
+      </c>
+      <c r="I37" s="9">
+        <v>316.865073859446</v>
+      </c>
       <c r="J37" t="s" s="9">
-        <v>27</v>
-      </c>
-      <c r="K37" t="s" s="9">
-        <v>28</v>
-      </c>
-      <c r="L37" s="9">
-        <v>1955</v>
-      </c>
-      <c r="M37" t="s" s="9">
         <v>29</v>
       </c>
+      <c r="K37" s="10"/>
+      <c r="L37" t="s" s="9">
+        <v>30</v>
+      </c>
+      <c r="M37" s="10"/>
       <c r="N37" s="10"/>
       <c r="O37" s="10"/>
-      <c r="P37" s="9">
-        <v>316.865073859446</v>
-      </c>
+      <c r="P37" s="10"/>
       <c r="Q37" s="10"/>
       <c r="R37" s="10"/>
-      <c r="S37" t="s" s="9">
-        <v>30</v>
-      </c>
+      <c r="S37" s="10"/>
       <c r="T37" s="10"/>
       <c r="U37" s="10"/>
       <c r="V37" s="10"/>

--- a/test_uploads/new_test_data_multipage.xlsx
+++ b/test_uploads/new_test_data_multipage.xlsx
@@ -44,7 +44,7 @@
     <t>input type</t>
   </si>
   <si>
-    <t xml:space="preserve">original country fishing </t>
+    <t>original country fishing</t>
   </si>
   <si>
     <t>original sector</t>

--- a/test_uploads/new_test_data_multipage.xlsx
+++ b/test_uploads/new_test_data_multipage.xlsx
@@ -47,9 +47,6 @@
     <t>original country fishing</t>
   </si>
   <si>
-    <t>original sector</t>
-  </si>
-  <si>
     <t>EEZ sub area</t>
   </si>
   <si>
@@ -57,6 +54,9 @@
   </si>
   <si>
     <t>province state</t>
+  </si>
+  <si>
+    <t>original sector</t>
   </si>
   <si>
     <t>original taxon name</t>
@@ -1691,12 +1691,12 @@
         <v>29</v>
       </c>
       <c r="K2" s="7"/>
-      <c r="L2" t="s" s="6">
-        <v>30</v>
-      </c>
+      <c r="L2" s="7"/>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
+      <c r="O2" t="s" s="6">
+        <v>30</v>
+      </c>
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
@@ -1743,12 +1743,12 @@
         <v>29</v>
       </c>
       <c r="K3" s="10"/>
-      <c r="L3" t="s" s="9">
-        <v>30</v>
-      </c>
+      <c r="L3" s="10"/>
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
+      <c r="O3" t="s" s="9">
+        <v>30</v>
+      </c>
       <c r="P3" s="10"/>
       <c r="Q3" s="10"/>
       <c r="R3" s="10"/>
@@ -1795,12 +1795,12 @@
         <v>29</v>
       </c>
       <c r="K4" s="10"/>
-      <c r="L4" t="s" s="9">
-        <v>30</v>
-      </c>
+      <c r="L4" s="10"/>
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
+      <c r="O4" t="s" s="9">
+        <v>30</v>
+      </c>
       <c r="P4" s="10"/>
       <c r="Q4" s="10"/>
       <c r="R4" s="10"/>
@@ -1847,12 +1847,12 @@
         <v>29</v>
       </c>
       <c r="K5" s="10"/>
-      <c r="L5" t="s" s="9">
-        <v>30</v>
-      </c>
+      <c r="L5" s="10"/>
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
+      <c r="O5" t="s" s="9">
+        <v>30</v>
+      </c>
       <c r="P5" s="10"/>
       <c r="Q5" s="10"/>
       <c r="R5" s="10"/>
@@ -1899,12 +1899,12 @@
         <v>29</v>
       </c>
       <c r="K6" s="10"/>
-      <c r="L6" t="s" s="9">
-        <v>30</v>
-      </c>
+      <c r="L6" s="10"/>
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
+      <c r="O6" t="s" s="9">
+        <v>30</v>
+      </c>
       <c r="P6" s="10"/>
       <c r="Q6" s="10"/>
       <c r="R6" s="10"/>
@@ -1951,12 +1951,12 @@
         <v>29</v>
       </c>
       <c r="K7" s="10"/>
-      <c r="L7" t="s" s="9">
-        <v>30</v>
-      </c>
+      <c r="L7" s="10"/>
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
+      <c r="O7" t="s" s="9">
+        <v>30</v>
+      </c>
       <c r="P7" s="10"/>
       <c r="Q7" s="10"/>
       <c r="R7" s="10"/>
@@ -2003,12 +2003,12 @@
         <v>29</v>
       </c>
       <c r="K8" s="10"/>
-      <c r="L8" t="s" s="9">
-        <v>30</v>
-      </c>
+      <c r="L8" s="10"/>
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
+      <c r="O8" t="s" s="9">
+        <v>30</v>
+      </c>
       <c r="P8" s="10"/>
       <c r="Q8" s="10"/>
       <c r="R8" s="10"/>
@@ -2055,12 +2055,12 @@
         <v>29</v>
       </c>
       <c r="K9" s="10"/>
-      <c r="L9" t="s" s="9">
-        <v>30</v>
-      </c>
+      <c r="L9" s="10"/>
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
+      <c r="O9" t="s" s="9">
+        <v>30</v>
+      </c>
       <c r="P9" s="10"/>
       <c r="Q9" s="10"/>
       <c r="R9" s="10"/>
@@ -2107,12 +2107,12 @@
         <v>29</v>
       </c>
       <c r="K10" s="10"/>
-      <c r="L10" t="s" s="9">
-        <v>30</v>
-      </c>
+      <c r="L10" s="10"/>
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
+      <c r="O10" t="s" s="9">
+        <v>30</v>
+      </c>
       <c r="P10" s="10"/>
       <c r="Q10" s="10"/>
       <c r="R10" s="10"/>
@@ -2159,12 +2159,12 @@
         <v>29</v>
       </c>
       <c r="K11" s="10"/>
-      <c r="L11" t="s" s="9">
-        <v>30</v>
-      </c>
+      <c r="L11" s="10"/>
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
+      <c r="O11" t="s" s="9">
+        <v>30</v>
+      </c>
       <c r="P11" s="10"/>
       <c r="Q11" s="10"/>
       <c r="R11" s="10"/>
@@ -2211,12 +2211,12 @@
         <v>29</v>
       </c>
       <c r="K12" s="10"/>
-      <c r="L12" t="s" s="9">
-        <v>30</v>
-      </c>
+      <c r="L12" s="10"/>
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
+      <c r="O12" t="s" s="9">
+        <v>30</v>
+      </c>
       <c r="P12" s="10"/>
       <c r="Q12" s="10"/>
       <c r="R12" s="10"/>
@@ -2263,12 +2263,12 @@
         <v>29</v>
       </c>
       <c r="K13" s="10"/>
-      <c r="L13" t="s" s="9">
-        <v>30</v>
-      </c>
+      <c r="L13" s="10"/>
       <c r="M13" s="10"/>
       <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
+      <c r="O13" t="s" s="9">
+        <v>30</v>
+      </c>
       <c r="P13" s="10"/>
       <c r="Q13" s="10"/>
       <c r="R13" s="10"/>
@@ -2315,12 +2315,12 @@
         <v>29</v>
       </c>
       <c r="K14" s="10"/>
-      <c r="L14" t="s" s="9">
-        <v>30</v>
-      </c>
+      <c r="L14" s="10"/>
       <c r="M14" s="10"/>
       <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
+      <c r="O14" t="s" s="9">
+        <v>30</v>
+      </c>
       <c r="P14" s="10"/>
       <c r="Q14" s="10"/>
       <c r="R14" s="10"/>
@@ -2367,12 +2367,12 @@
         <v>29</v>
       </c>
       <c r="K15" s="10"/>
-      <c r="L15" t="s" s="9">
-        <v>30</v>
-      </c>
+      <c r="L15" s="10"/>
       <c r="M15" s="10"/>
       <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
+      <c r="O15" t="s" s="9">
+        <v>30</v>
+      </c>
       <c r="P15" s="10"/>
       <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
@@ -2419,12 +2419,12 @@
         <v>29</v>
       </c>
       <c r="K16" s="10"/>
-      <c r="L16" t="s" s="9">
-        <v>30</v>
-      </c>
+      <c r="L16" s="10"/>
       <c r="M16" s="10"/>
       <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
+      <c r="O16" t="s" s="9">
+        <v>30</v>
+      </c>
       <c r="P16" s="10"/>
       <c r="Q16" s="10"/>
       <c r="R16" s="10"/>
@@ -2471,12 +2471,12 @@
         <v>29</v>
       </c>
       <c r="K17" s="10"/>
-      <c r="L17" t="s" s="9">
-        <v>30</v>
-      </c>
+      <c r="L17" s="10"/>
       <c r="M17" s="10"/>
       <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
+      <c r="O17" t="s" s="9">
+        <v>30</v>
+      </c>
       <c r="P17" s="10"/>
       <c r="Q17" s="10"/>
       <c r="R17" s="10"/>
@@ -2523,12 +2523,12 @@
         <v>29</v>
       </c>
       <c r="K18" s="10"/>
-      <c r="L18" t="s" s="9">
-        <v>30</v>
-      </c>
+      <c r="L18" s="10"/>
       <c r="M18" s="10"/>
       <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
+      <c r="O18" t="s" s="9">
+        <v>30</v>
+      </c>
       <c r="P18" s="10"/>
       <c r="Q18" s="10"/>
       <c r="R18" s="10"/>
@@ -2575,12 +2575,12 @@
         <v>29</v>
       </c>
       <c r="K19" s="10"/>
-      <c r="L19" t="s" s="9">
-        <v>30</v>
-      </c>
+      <c r="L19" s="10"/>
       <c r="M19" s="10"/>
       <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
+      <c r="O19" t="s" s="9">
+        <v>30</v>
+      </c>
       <c r="P19" s="10"/>
       <c r="Q19" s="10"/>
       <c r="R19" s="10"/>
@@ -2627,12 +2627,12 @@
         <v>29</v>
       </c>
       <c r="K20" s="10"/>
-      <c r="L20" t="s" s="9">
-        <v>30</v>
-      </c>
+      <c r="L20" s="10"/>
       <c r="M20" s="10"/>
       <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
+      <c r="O20" t="s" s="9">
+        <v>30</v>
+      </c>
       <c r="P20" s="10"/>
       <c r="Q20" s="10"/>
       <c r="R20" s="10"/>
@@ -2679,12 +2679,12 @@
         <v>29</v>
       </c>
       <c r="K21" s="10"/>
-      <c r="L21" t="s" s="9">
-        <v>30</v>
-      </c>
+      <c r="L21" s="10"/>
       <c r="M21" s="10"/>
       <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
+      <c r="O21" t="s" s="9">
+        <v>30</v>
+      </c>
       <c r="P21" s="10"/>
       <c r="Q21" s="10"/>
       <c r="R21" s="10"/>
@@ -2731,12 +2731,12 @@
         <v>29</v>
       </c>
       <c r="K22" s="10"/>
-      <c r="L22" t="s" s="9">
-        <v>30</v>
-      </c>
+      <c r="L22" s="10"/>
       <c r="M22" s="10"/>
       <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
+      <c r="O22" t="s" s="9">
+        <v>30</v>
+      </c>
       <c r="P22" s="10"/>
       <c r="Q22" s="10"/>
       <c r="R22" s="10"/>
@@ -2783,12 +2783,12 @@
         <v>29</v>
       </c>
       <c r="K23" s="10"/>
-      <c r="L23" t="s" s="9">
-        <v>30</v>
-      </c>
+      <c r="L23" s="10"/>
       <c r="M23" s="10"/>
       <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
+      <c r="O23" t="s" s="9">
+        <v>30</v>
+      </c>
       <c r="P23" s="10"/>
       <c r="Q23" s="10"/>
       <c r="R23" s="10"/>
@@ -2835,12 +2835,12 @@
         <v>29</v>
       </c>
       <c r="K24" s="10"/>
-      <c r="L24" t="s" s="9">
-        <v>30</v>
-      </c>
+      <c r="L24" s="10"/>
       <c r="M24" s="10"/>
       <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
+      <c r="O24" t="s" s="9">
+        <v>30</v>
+      </c>
       <c r="P24" s="10"/>
       <c r="Q24" s="10"/>
       <c r="R24" s="10"/>
@@ -2887,12 +2887,12 @@
         <v>29</v>
       </c>
       <c r="K25" s="10"/>
-      <c r="L25" t="s" s="9">
-        <v>30</v>
-      </c>
+      <c r="L25" s="10"/>
       <c r="M25" s="10"/>
       <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
+      <c r="O25" t="s" s="9">
+        <v>30</v>
+      </c>
       <c r="P25" s="10"/>
       <c r="Q25" s="10"/>
       <c r="R25" s="10"/>
@@ -2939,12 +2939,12 @@
         <v>29</v>
       </c>
       <c r="K26" s="10"/>
-      <c r="L26" t="s" s="9">
-        <v>30</v>
-      </c>
+      <c r="L26" s="10"/>
       <c r="M26" s="10"/>
       <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
+      <c r="O26" t="s" s="9">
+        <v>30</v>
+      </c>
       <c r="P26" s="10"/>
       <c r="Q26" s="10"/>
       <c r="R26" s="10"/>
@@ -2991,12 +2991,12 @@
         <v>29</v>
       </c>
       <c r="K27" s="10"/>
-      <c r="L27" t="s" s="9">
-        <v>30</v>
-      </c>
+      <c r="L27" s="10"/>
       <c r="M27" s="10"/>
       <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
+      <c r="O27" t="s" s="9">
+        <v>30</v>
+      </c>
       <c r="P27" s="10"/>
       <c r="Q27" s="10"/>
       <c r="R27" s="10"/>
@@ -3043,12 +3043,12 @@
         <v>29</v>
       </c>
       <c r="K28" s="10"/>
-      <c r="L28" t="s" s="9">
-        <v>30</v>
-      </c>
+      <c r="L28" s="10"/>
       <c r="M28" s="10"/>
       <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
+      <c r="O28" t="s" s="9">
+        <v>30</v>
+      </c>
       <c r="P28" s="10"/>
       <c r="Q28" s="10"/>
       <c r="R28" s="10"/>
@@ -3095,12 +3095,12 @@
         <v>29</v>
       </c>
       <c r="K29" s="10"/>
-      <c r="L29" t="s" s="9">
-        <v>30</v>
-      </c>
+      <c r="L29" s="10"/>
       <c r="M29" s="10"/>
       <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
+      <c r="O29" t="s" s="9">
+        <v>30</v>
+      </c>
       <c r="P29" s="10"/>
       <c r="Q29" s="10"/>
       <c r="R29" s="10"/>
@@ -3147,12 +3147,12 @@
         <v>29</v>
       </c>
       <c r="K30" s="10"/>
-      <c r="L30" t="s" s="9">
-        <v>30</v>
-      </c>
+      <c r="L30" s="10"/>
       <c r="M30" s="10"/>
       <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
+      <c r="O30" t="s" s="9">
+        <v>30</v>
+      </c>
       <c r="P30" s="10"/>
       <c r="Q30" s="10"/>
       <c r="R30" s="10"/>
@@ -3199,12 +3199,12 @@
         <v>29</v>
       </c>
       <c r="K31" s="10"/>
-      <c r="L31" t="s" s="9">
-        <v>30</v>
-      </c>
+      <c r="L31" s="10"/>
       <c r="M31" s="10"/>
       <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
+      <c r="O31" t="s" s="9">
+        <v>30</v>
+      </c>
       <c r="P31" s="10"/>
       <c r="Q31" s="10"/>
       <c r="R31" s="10"/>
@@ -3251,12 +3251,12 @@
         <v>29</v>
       </c>
       <c r="K32" s="10"/>
-      <c r="L32" t="s" s="9">
-        <v>30</v>
-      </c>
+      <c r="L32" s="10"/>
       <c r="M32" s="10"/>
       <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
+      <c r="O32" t="s" s="9">
+        <v>30</v>
+      </c>
       <c r="P32" s="10"/>
       <c r="Q32" s="10"/>
       <c r="R32" s="10"/>
@@ -3303,12 +3303,12 @@
         <v>29</v>
       </c>
       <c r="K33" s="10"/>
-      <c r="L33" t="s" s="9">
-        <v>30</v>
-      </c>
+      <c r="L33" s="10"/>
       <c r="M33" s="10"/>
       <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
+      <c r="O33" t="s" s="9">
+        <v>30</v>
+      </c>
       <c r="P33" s="10"/>
       <c r="Q33" s="10"/>
       <c r="R33" s="10"/>
@@ -3355,12 +3355,12 @@
         <v>29</v>
       </c>
       <c r="K34" s="10"/>
-      <c r="L34" t="s" s="9">
-        <v>30</v>
-      </c>
+      <c r="L34" s="10"/>
       <c r="M34" s="10"/>
       <c r="N34" s="10"/>
-      <c r="O34" s="10"/>
+      <c r="O34" t="s" s="9">
+        <v>30</v>
+      </c>
       <c r="P34" s="10"/>
       <c r="Q34" s="10"/>
       <c r="R34" s="10"/>
@@ -3407,12 +3407,12 @@
         <v>29</v>
       </c>
       <c r="K35" s="10"/>
-      <c r="L35" t="s" s="9">
-        <v>30</v>
-      </c>
+      <c r="L35" s="10"/>
       <c r="M35" s="10"/>
       <c r="N35" s="10"/>
-      <c r="O35" s="10"/>
+      <c r="O35" t="s" s="9">
+        <v>30</v>
+      </c>
       <c r="P35" s="10"/>
       <c r="Q35" s="10"/>
       <c r="R35" s="10"/>
@@ -3459,12 +3459,12 @@
         <v>29</v>
       </c>
       <c r="K36" s="10"/>
-      <c r="L36" t="s" s="9">
-        <v>30</v>
-      </c>
+      <c r="L36" s="10"/>
       <c r="M36" s="10"/>
       <c r="N36" s="10"/>
-      <c r="O36" s="10"/>
+      <c r="O36" t="s" s="9">
+        <v>30</v>
+      </c>
       <c r="P36" s="10"/>
       <c r="Q36" s="10"/>
       <c r="R36" s="10"/>
@@ -3511,12 +3511,12 @@
         <v>29</v>
       </c>
       <c r="K37" s="10"/>
-      <c r="L37" t="s" s="9">
-        <v>30</v>
-      </c>
+      <c r="L37" s="10"/>
       <c r="M37" s="10"/>
       <c r="N37" s="10"/>
-      <c r="O37" s="10"/>
+      <c r="O37" t="s" s="9">
+        <v>30</v>
+      </c>
       <c r="P37" s="10"/>
       <c r="Q37" s="10"/>
       <c r="R37" s="10"/>
